--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -7,7 +7,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Требования" sheetId="1" r:id="rId1"/>
+    <sheet name="Чек-листы" sheetId="2" r:id="rId2"/>
+    <sheet name="Тест-кейсы" sheetId="3" r:id="rId3"/>
+    <sheet name="Баг-репорты" sheetId="4" r:id="rId4"/>
+    <sheet name="Граничные значения" sheetId="5" r:id="rId5"/>
+    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId6"/>
+    <sheet name="Попарное тестирование" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+  <si>
+    <t>Требования к
+https://ifcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Требование</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Форма</t>
+  </si>
+  <si>
+    <t>Кроссплатформенность</t>
+  </si>
+  <si>
+    <t>macOS 12.4</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Android 12</t>
+  </si>
+  <si>
+    <t>IOS 15</t>
+  </si>
+  <si>
+    <t>T-1/1</t>
+  </si>
+  <si>
+    <t>T-1/2</t>
+  </si>
+  <si>
+    <t>T-1/3</t>
+  </si>
+  <si>
+    <t>T-1/4</t>
+  </si>
+  <si>
+    <t>Кроссбраузерность (рекомендуемые для тестирования)</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>Mozila Firefox</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>T-2/1</t>
+  </si>
+  <si>
+    <t>T-2/2</t>
+  </si>
+  <si>
+    <t>T-2/3</t>
+  </si>
+  <si>
+    <t>Дизайн веб-страницы</t>
+  </si>
+  <si>
+    <t>Адаптивно-респонсивный</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>T-4</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Форма регистрации</t>
+  </si>
+  <si>
+    <t>T-5</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Протокол передачи данных</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +133,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0D0FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,18 +169,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE0D0FC"/>
+      <color rgb="FFDCC5FB"/>
+      <color rgb="FFE2B2F8"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,9 +387,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +427,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +467,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,9 +649,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>Требования к
 https://ifcareer.pythonanywhere.com/</t>
@@ -103,29 +103,256 @@
     <t>T-4</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Форма регистрации</t>
   </si>
   <si>
     <t>T-5</t>
   </si>
   <si>
-    <t>Header</t>
-  </si>
-  <si>
     <t>Протокол передачи данных</t>
   </si>
   <si>
     <t>https</t>
+  </si>
+  <si>
+    <t>F-1</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;header&gt;</t>
+  </si>
+  <si>
+    <t>F-2/1</t>
+  </si>
+  <si>
+    <t>Обязательные поля для заполнения</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>F-2/2</t>
+  </si>
+  <si>
+    <t>F-2/3</t>
+  </si>
+  <si>
+    <t>Плейсхолдеры полей</t>
+  </si>
+  <si>
+    <t>F-3/1</t>
+  </si>
+  <si>
+    <t>F-3/2</t>
+  </si>
+  <si>
+    <t>F-3/3</t>
+  </si>
+  <si>
+    <t>F-3/4</t>
+  </si>
+  <si>
+    <t>Surname: "Surname"</t>
+  </si>
+  <si>
+    <t>Name: "Name *"</t>
+  </si>
+  <si>
+    <t>Email: "Email *"</t>
+  </si>
+  <si>
+    <t>Password: "Password *"</t>
+  </si>
+  <si>
+    <t>T-6</t>
+  </si>
+  <si>
+    <t>"Змейка"</t>
+  </si>
+  <si>
+    <t>F-4</t>
+  </si>
+  <si>
+    <t>Валидация</t>
+  </si>
+  <si>
+    <t>Отправка валидных данных</t>
+  </si>
+  <si>
+    <t>Отправка пустых полей</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Error! All Fields are Required" и подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <r>
+      <t>Под кнопкой "Submit" отображается сообщение "Success Hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> name surname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" и подсвечивается голубой тенью</t>
+    </r>
+  </si>
+  <si>
+    <t>Отправка невалидных данных</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Error! You entered invalid text" и подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t>На клиенте после нажатия кнопки "Submit" либо клавиши "Enter"</t>
+  </si>
+  <si>
+    <t>F-5</t>
+  </si>
+  <si>
+    <t>Наведение/клик по заполняемому полю</t>
+  </si>
+  <si>
+    <t>Поле подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>Курсор на заполняемом поле</t>
+  </si>
+  <si>
+    <t>Мигает</t>
+  </si>
+  <si>
+    <t>F-6</t>
+  </si>
+  <si>
+    <t>Поле подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t>F-7</t>
+  </si>
+  <si>
+    <t>Ввод невалидных данных и снятие фокуса с поля</t>
+  </si>
+  <si>
+    <t>Поле подсвечивается голубой тенью, валидация не проводится</t>
+  </si>
+  <si>
+    <t>Переход к следующему полю</t>
+  </si>
+  <si>
+    <t>Очистка поля</t>
+  </si>
+  <si>
+    <t>F-8</t>
+  </si>
+  <si>
+    <t>F-9</t>
+  </si>
+  <si>
+    <t>F-10</t>
+  </si>
+  <si>
+    <t>Клик мышью, клавиша "Tab"</t>
+  </si>
+  <si>
+    <t>Клавиши "delete", "Backspace"</t>
+  </si>
+  <si>
+    <t>F-11</t>
+  </si>
+  <si>
+    <t>Наведение/клик по кнопке "Submit"</t>
+  </si>
+  <si>
+    <t>Подсвечивается/меняет цвет на темно-зеленый, появляется курсорпоинтер</t>
+  </si>
+  <si>
+    <t>Ввод максимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>При необходимости поле расширяется</t>
+  </si>
+  <si>
+    <t>Ввод количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>F-11/1</t>
+  </si>
+  <si>
+    <t>F-11/2</t>
+  </si>
+  <si>
+    <t>F-11/3</t>
+  </si>
+  <si>
+    <t>F-12</t>
+  </si>
+  <si>
+    <t>F-13</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки "Назад" после валидации</t>
+  </si>
+  <si>
+    <t>Сохраняются все данные, кроме поля "Password"</t>
+  </si>
+  <si>
+    <t>F-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажатие кнопкм "Обновить" </t>
+  </si>
+  <si>
+    <t>Данные не сохраняются</t>
+  </si>
+  <si>
+    <t>F-15</t>
+  </si>
+  <si>
+    <t>Ограничение сессии по времени</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Фавикон веб-страницы</t>
+  </si>
+  <si>
+    <t>F-16</t>
+  </si>
+  <si>
+    <t>Потеря соединения с Интернетом</t>
+  </si>
+  <si>
+    <t>Отображается сообщение "Отсутствует соединение с Интернетом"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +361,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Corbel"/>
@@ -280,14 +515,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -295,23 +530,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -320,14 +555,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -352,6 +585,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,6 +597,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,34 +919,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74" style="27" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -684,10 +954,10 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -695,8 +965,8 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -704,8 +974,8 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -713,8 +983,8 @@
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -722,10 +992,10 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -733,8 +1003,8 @@
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -742,8 +1012,8 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -751,10 +1021,10 @@
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -762,36 +1032,36 @@
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
@@ -799,31 +1069,267 @@
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
-    <t>Требования к
-https://ifcareer.pythonanywhere.com/</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -346,6 +342,10 @@
   </si>
   <si>
     <t>Отображается сообщение "Отсутствует соединение с Интернетом"</t>
+  </si>
+  <si>
+    <t>Требования к
+https://itcareer.pythonanywhere.com/</t>
   </si>
 </sst>
 </file>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,392 +934,392 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="C35" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="C36" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="C37" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="C38" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -922,7 +922,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>Name: "Name *"</t>
-  </si>
-  <si>
-    <t>Email: "Email *"</t>
-  </si>
-  <si>
-    <t>Password: "Password *"</t>
   </si>
   <si>
     <t>T-6</t>
@@ -346,6 +340,118 @@
   <si>
     <t>Требования к
 https://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>Email: "Your email address. *"</t>
+  </si>
+  <si>
+    <t>Password: "Enter a password. *"</t>
+  </si>
+  <si>
+    <t>Поле Name</t>
+  </si>
+  <si>
+    <t>N-1</t>
+  </si>
+  <si>
+    <t>Название поля</t>
+  </si>
+  <si>
+    <t>N-2</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля</t>
+  </si>
+  <si>
+    <t>Name *</t>
+  </si>
+  <si>
+    <t>N-3</t>
+  </si>
+  <si>
+    <t>Выравнивание названия поля</t>
+  </si>
+  <si>
+    <t>По левому краю</t>
+  </si>
+  <si>
+    <t>N-4</t>
+  </si>
+  <si>
+    <t>Выравнивание плейсхолдера поля</t>
+  </si>
+  <si>
+    <t>N-5</t>
+  </si>
+  <si>
+    <t>Минимально допустимое количество символов</t>
+  </si>
+  <si>
+    <t>N-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимально допустимое количество символов </t>
+  </si>
+  <si>
+    <t>N-7</t>
+  </si>
+  <si>
+    <t>Допустимые символы</t>
+  </si>
+  <si>
+    <t>Регистрозависимость</t>
+  </si>
+  <si>
+    <t>N-8</t>
+  </si>
+  <si>
+    <t>N-9</t>
+  </si>
+  <si>
+    <t>Уникальность</t>
+  </si>
+  <si>
+    <t>Не обязательна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латинские буквы, арабские цифры, символы: " . ", " - ", "_", " ' ", "пробел"
+Примечание: запрещено введение 2 и более символов подряд, а также расположение символов в начале и в конце поля </t>
+  </si>
+  <si>
+    <t>Отсутствует</t>
+  </si>
+  <si>
+    <t>Поле Surname</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>S-2</t>
+  </si>
+  <si>
+    <t>S-3</t>
+  </si>
+  <si>
+    <t>S-4</t>
+  </si>
+  <si>
+    <t>S-5</t>
+  </si>
+  <si>
+    <t>S-6</t>
+  </si>
+  <si>
+    <t>S-7</t>
+  </si>
+  <si>
+    <t>S-8</t>
+  </si>
+  <si>
+    <t>S-9</t>
   </si>
 </sst>
 </file>
@@ -555,27 +661,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -585,10 +702,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,37 +712,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,6 +761,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="29069" t="11720" r="45751" b="44580"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458324" y="257175"/>
+          <a:ext cx="2743201" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,411 +1068,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74" style="27" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="74" style="24" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="20" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>97</v>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="19">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
@@ -1333,6 +1696,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
   <si>
     <t>ID</t>
   </si>
@@ -452,6 +452,133 @@
   </si>
   <si>
     <t>S-9</t>
+  </si>
+  <si>
+    <t>Поле Email</t>
+  </si>
+  <si>
+    <t>E-1</t>
+  </si>
+  <si>
+    <t>E-2</t>
+  </si>
+  <si>
+    <t>E-3</t>
+  </si>
+  <si>
+    <t>E-4</t>
+  </si>
+  <si>
+    <t>E-5</t>
+  </si>
+  <si>
+    <t>E-6</t>
+  </si>
+  <si>
+    <t>E-7</t>
+  </si>
+  <si>
+    <t>E-8</t>
+  </si>
+  <si>
+    <t>E-9</t>
+  </si>
+  <si>
+    <t>Your email address. *</t>
+  </si>
+  <si>
+    <t>Обязательна</t>
+  </si>
+  <si>
+    <t>N-10</t>
+  </si>
+  <si>
+    <t>Возможность оставить поле пустым</t>
+  </si>
+  <si>
+    <t>Обязательно для заполнения</t>
+  </si>
+  <si>
+    <t>S-10</t>
+  </si>
+  <si>
+    <t>Не обязательно для заполнения</t>
+  </si>
+  <si>
+    <t>E-10</t>
+  </si>
+  <si>
+    <t>Доменные зоны</t>
+  </si>
+  <si>
+    <t>Допустимы все доменные зоны</t>
+  </si>
+  <si>
+    <t>E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя почтового ящика (до @): латинские буквы, арабские цифры, символы: " . ", " - ", "_"
+Имя домена (после @ и до последней . ): латинские буквы, арабские цифры, символы: " . ", " - ", "_"
+Имя домена (после последней . ): латинские буквы
+Примечание: запрещено введение 2 и более символов подряд, а также расположение символов в начале и в конце поля </t>
+  </si>
+  <si>
+    <t>Имя почтового ящика (до @) - 1
+Имя домена (после @ и до последней . ) - 2
+Имя домена (после последней . ) - 2</t>
+  </si>
+  <si>
+    <t>Имя почтового ящика (до @) - 32
+Имя домена (после @ и до последней . ) - 24
+Имя домена (после последней . ) - 16</t>
+  </si>
+  <si>
+    <t>Поле Password</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>P-2</t>
+  </si>
+  <si>
+    <t>P-3</t>
+  </si>
+  <si>
+    <t>P-4</t>
+  </si>
+  <si>
+    <t>P-5</t>
+  </si>
+  <si>
+    <t>P-6</t>
+  </si>
+  <si>
+    <t>P-7</t>
+  </si>
+  <si>
+    <t>P-8</t>
+  </si>
+  <si>
+    <t>P-9</t>
+  </si>
+  <si>
+    <t>P-10</t>
+  </si>
+  <si>
+    <t>Enter a password. *</t>
+  </si>
+  <si>
+    <t>Должна присутствовать как минимум 1 буква в верхнем регистре</t>
+  </si>
+  <si>
+    <t>Допустимы буквы только в нижнем регистре</t>
+  </si>
+  <si>
+    <t>Латинские буквы, арабские цифры, "@"
+Примечание:  
+1.В поле обязательно должны присутствовать: 1 буква в вернем регистре, 1 цифра, 1  @;
+2. Запрещено введение 2 и более  "@" подряд.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -657,11 +784,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -737,6 +895,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,85 +1698,85 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C49" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>124</v>
@@ -1608,21 +1784,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>107</v>
@@ -1630,63 +1806,332 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="B56" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C59" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="7" t="s">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C60" s="20">
         <v>64</v>
       </c>
     </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="19">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A73:C73"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
-    <sheet name="Чек-листы" sheetId="2" r:id="rId2"/>
-    <sheet name="Тест-кейсы" sheetId="3" r:id="rId3"/>
-    <sheet name="Баг-репорты" sheetId="4" r:id="rId4"/>
-    <sheet name="Граничные значения" sheetId="5" r:id="rId5"/>
-    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId6"/>
+    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId2"/>
+    <sheet name="Чек-листы" sheetId="2" r:id="rId3"/>
+    <sheet name="Тест-кейсы" sheetId="3" r:id="rId4"/>
+    <sheet name="Баг-репорты" sheetId="4" r:id="rId5"/>
+    <sheet name="Граничные значения" sheetId="5" r:id="rId6"/>
     <sheet name="Попарное тестирование" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="233">
   <si>
     <t>ID</t>
   </si>
@@ -580,12 +580,237 @@
 1.В поле обязательно должны присутствовать: 1 буква в вернем регистре, 1 цифра, 1  @;
 2. Запрещено введение 2 и более  "@" подряд.</t>
   </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows 10 Home 19042.1706</t>
+  </si>
+  <si>
+    <t>Браузер</t>
+  </si>
+  <si>
+    <t>Chrome: 101.0.4951.67 (64 bit)</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>EN-1</t>
+  </si>
+  <si>
+    <t>Оставить поле Name Пустым</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name валидное количество символов</t>
+  </si>
+  <si>
+    <t>EN-2</t>
+  </si>
+  <si>
+    <t>Name:
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Success Hello: Arina Strashchenko" и подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>Name: Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Оставить поле Surname Пустым</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname валидное количество символов</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Success Hello: Arina " и подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: 
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooo
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>ES-1</t>
+  </si>
+  <si>
+    <t>ES-2</t>
+  </si>
+  <si>
+    <t>EE-1</t>
+  </si>
+  <si>
+    <t>EE-2</t>
+  </si>
+  <si>
+    <t>ES-3</t>
+  </si>
+  <si>
+    <t>EN-3</t>
+  </si>
+  <si>
+    <t>EE-3</t>
+  </si>
+  <si>
+    <t>Оставить поле Email Пустым</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email валидное количество символов</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: @mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email:straschenko1333333333333333333333@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: 
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>EE-4</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname количество символов больше допустимого (&gt;64)</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name количество символов больше допустимого (&gt;64)</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email до @ количество символов меньше допустимого (&lt;1)</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email до @ количество символов больше допустимого (&gt;32)</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после @ и до последней . количество символов меньше допустимого (&lt;2)</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после @ и до последней .  количество символов больше допустимого (&gt;24)</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@m.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email:straschenko13@maillllllllllllllllllllll.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .  количество символов меньше допустимого (&lt;2)</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .   количество символов больше допустимого (&gt;16)</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.r
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email:straschenko13@mail.ruuuuuuuuuuuuuuuu
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>EE-5</t>
+  </si>
+  <si>
+    <t>EE-6</t>
+  </si>
+  <si>
+    <t>EE-7</t>
+  </si>
+  <si>
+    <t>EE-8</t>
+  </si>
+  <si>
+    <t>Оставить поле Password Пустым</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password валидное количество символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password количество символов меньше допустимого (&lt;6)</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password количество символов больше допустимого (&gt;16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: </t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tD@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@588888888888</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +833,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -629,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -796,12 +1029,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -812,21 +1084,28 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -860,9 +1139,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -896,26 +1172,52 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,6 +1272,43 @@
         <a:xfrm>
           <a:off x="9458324" y="257175"/>
           <a:ext cx="2743201" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>687104</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>845854</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="64054" t="9170" r="35088" b="89423"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6240912" y="2338510"/>
+          <a:ext cx="158750" cy="148166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1246,897 +1585,897 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:C83"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="74" style="24" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="74" style="25" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="20">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="21">
         <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="27"/>
       <c r="C61" s="28"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="19" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
+      <c r="C73" s="40"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="20">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A14:C14"/>
     <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,13 +2486,515 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="37.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A22:G22"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E10 E14 E23">
+      <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Требования!$A$3:$A$83</xm:f>
+          </x14:formula1>
+          <xm:sqref>F6:F8 F10:F12 F14:F21 F23:F26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
     <sheet name="Классы эквивалентности" sheetId="6" r:id="rId2"/>
-    <sheet name="Чек-листы" sheetId="2" r:id="rId3"/>
-    <sheet name="Тест-кейсы" sheetId="3" r:id="rId4"/>
-    <sheet name="Баг-репорты" sheetId="4" r:id="rId5"/>
-    <sheet name="Граничные значения" sheetId="5" r:id="rId6"/>
+    <sheet name="Граничные значения" sheetId="8" r:id="rId3"/>
+    <sheet name="Чек-листы" sheetId="2" r:id="rId4"/>
+    <sheet name="Тест-кейсы" sheetId="3" r:id="rId5"/>
+    <sheet name="Баг-репорты" sheetId="4" r:id="rId6"/>
     <sheet name="Попарное тестирование" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -804,6 +804,246 @@
 Surname: Strashchenko
 Email: straschenko13@mail.ru
 Password: tDbb@588888888888</t>
+  </si>
+  <si>
+    <t>BN-1</t>
+  </si>
+  <si>
+    <t>BN-2</t>
+  </si>
+  <si>
+    <t>BN-3</t>
+  </si>
+  <si>
+    <t>BS-1</t>
+  </si>
+  <si>
+    <t>BS-2</t>
+  </si>
+  <si>
+    <t>BS-3</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 0 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 1 символ</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 64 символа</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 65 символов</t>
+  </si>
+  <si>
+    <t>Name: A
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>BN-4</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Success Hello: A Strashchenko" и подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Success Hello: Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa Strashchenko" и подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>BS-4</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 0 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 1 символ</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 64 символа</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname 65 символов</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: S
+Email: straschenko13@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Success Hello: Arina S" и подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Success Hello: Arina Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooo" и подсвечивается голубой тенью</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 5 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 6 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 17 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 16 символов</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDb@5</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@5</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@58888888888</t>
+  </si>
+  <si>
+    <t>BP-1</t>
+  </si>
+  <si>
+    <t>BP-2</t>
+  </si>
+  <si>
+    <t>BP-3</t>
+  </si>
+  <si>
+    <t>BP-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email  0 символов до @ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email  1 символ до @ </t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: s@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email  32 символа до @ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email  33 символа до @ </t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после @ и до последней .  1 символ</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после @ и до последней .  2 символа</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после @ и до последней .  24 символа</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после @ и до последней .  25 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .  1 символ</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .  2 символа</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .  16 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .  17 символов</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko133333333333333333333@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko1333333333333333333333@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@m.rг
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@ma.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mailllllllllllllllllllll.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ruuuuuuuuuuuuuuu
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ruuuuuuuuuuuuuuuu
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>BE-3</t>
+  </si>
+  <si>
+    <t>BE-7</t>
+  </si>
+  <si>
+    <t>BE-1</t>
+  </si>
+  <si>
+    <t>BE-2</t>
+  </si>
+  <si>
+    <t>BE-4</t>
+  </si>
+  <si>
+    <t>BE-5</t>
+  </si>
+  <si>
+    <t>BE-6</t>
+  </si>
+  <si>
+    <t>BE-8</t>
+  </si>
+  <si>
+    <t>BE-9</t>
+  </si>
+  <si>
+    <t>BE-10</t>
+  </si>
+  <si>
+    <t>BE-11</t>
+  </si>
+  <si>
+    <t>BE-12</t>
   </si>
 </sst>
 </file>
@@ -1121,30 +1361,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1163,20 +1379,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1186,15 +1393,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1206,14 +1404,56 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,32 +1825,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="74" style="25" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="74" style="16" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1618,10 +1858,10 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1629,8 +1869,8 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1638,8 +1878,8 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1647,8 +1887,8 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1656,10 +1896,10 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1667,8 +1907,8 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1676,8 +1916,8 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1688,7 +1928,7 @@
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1699,7 +1939,7 @@
       <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1710,7 +1950,7 @@
       <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1721,16 +1961,16 @@
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1739,7 +1979,7 @@
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1747,10 +1987,10 @@
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1758,8 +1998,8 @@
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1767,8 +2007,8 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1776,10 +2016,10 @@
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1787,8 +2027,8 @@
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1796,8 +2036,8 @@
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1805,8 +2045,8 @@
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1817,7 +2057,7 @@
       <c r="B23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1828,7 +2068,7 @@
       <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1839,7 +2079,7 @@
       <c r="B25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1850,7 +2090,7 @@
       <c r="B26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1861,7 +2101,7 @@
       <c r="B27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1872,7 +2112,7 @@
       <c r="B28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1883,7 +2123,7 @@
       <c r="B29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1894,7 +2134,7 @@
       <c r="B30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1905,7 +2145,7 @@
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1916,7 +2156,7 @@
       <c r="B32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1927,7 +2167,7 @@
       <c r="B33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1938,7 +2178,7 @@
       <c r="B34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1949,7 +2189,7 @@
       <c r="B35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1960,7 +2200,7 @@
       <c r="B36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1971,7 +2211,7 @@
       <c r="B37" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1982,16 +2222,16 @@
       <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="16" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="27"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -2000,7 +2240,7 @@
       <c r="B40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2011,7 +2251,7 @@
       <c r="B41" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2022,7 +2262,7 @@
       <c r="B42" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2033,7 +2273,7 @@
       <c r="B43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2044,7 +2284,7 @@
       <c r="B44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2055,7 +2295,7 @@
       <c r="B45" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2066,7 +2306,7 @@
       <c r="B46" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2077,7 +2317,7 @@
       <c r="B47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2088,7 +2328,7 @@
       <c r="B48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2099,16 +2339,16 @@
       <c r="B49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="12">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="16" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="27"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
@@ -2117,7 +2357,7 @@
       <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2128,7 +2368,7 @@
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2139,7 +2379,7 @@
       <c r="B53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2150,7 +2390,7 @@
       <c r="B54" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2161,7 +2401,7 @@
       <c r="B55" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2172,7 +2412,7 @@
       <c r="B56" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2183,7 +2423,7 @@
       <c r="B57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2194,7 +2434,7 @@
       <c r="B58" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2205,7 +2445,7 @@
       <c r="B59" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2216,16 +2456,16 @@
       <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="13">
         <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="27" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="28"/>
+      <c r="C61" s="29"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
@@ -2234,7 +2474,7 @@
       <c r="B62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2245,7 +2485,7 @@
       <c r="B63" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2256,7 +2496,7 @@
       <c r="B64" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2267,7 +2507,7 @@
       <c r="B65" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2278,7 +2518,7 @@
       <c r="B66" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2289,7 +2529,7 @@
       <c r="B67" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2300,7 +2540,7 @@
       <c r="B68" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2311,7 +2551,7 @@
       <c r="B69" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2322,7 +2562,7 @@
       <c r="B70" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2333,7 +2573,7 @@
       <c r="B71" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2344,16 +2584,16 @@
       <c r="B72" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="39" t="s">
+      <c r="A73" s="24"/>
+      <c r="B73" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="40"/>
+      <c r="C73" s="31"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -2362,7 +2602,7 @@
       <c r="B74" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2373,7 +2613,7 @@
       <c r="B75" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2384,7 +2624,7 @@
       <c r="B76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2395,7 +2635,7 @@
       <c r="B77" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2406,7 +2646,7 @@
       <c r="B78" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2417,7 +2657,7 @@
       <c r="B79" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2428,7 +2668,7 @@
       <c r="B80" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2439,7 +2679,7 @@
       <c r="B81" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="12" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2450,7 +2690,7 @@
       <c r="B82" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="12">
         <v>6</v>
       </c>
     </row>
@@ -2461,22 +2701,22 @@
       <c r="B83" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="12">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2488,486 +2728,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="37.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="20" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="4"/>
     <col min="9" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="E25" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="E26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="41"/>
+      <c r="C27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3000,13 +3240,728 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A28:G28"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E11:E14 E29">
+      <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Требования!$A$3:$A$83</xm:f>
+          </x14:formula1>
+          <xm:sqref>F29:F32 F6:F9 F11:F14 F16:F27</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
     <sheet name="Классы эквивалентности" sheetId="6" r:id="rId2"/>
     <sheet name="Граничные значения" sheetId="8" r:id="rId3"/>
-    <sheet name="Чек-листы" sheetId="2" r:id="rId4"/>
-    <sheet name="Тест-кейсы" sheetId="3" r:id="rId5"/>
-    <sheet name="Баг-репорты" sheetId="4" r:id="rId6"/>
-    <sheet name="Попарное тестирование" sheetId="7" r:id="rId7"/>
+    <sheet name="Попарное тестирование" sheetId="7" r:id="rId4"/>
+    <sheet name="Чек-листы" sheetId="9" r:id="rId5"/>
+    <sheet name="Тест-кейсы" sheetId="3" r:id="rId6"/>
+    <sheet name="Баг-репорты" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -884,6 +884,9 @@
     <t>Под кнопкой "Submit" отображается сообщение "Success Hello: Arina Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooo" и подсвечивается голубой тенью</t>
   </si>
   <si>
+    <t>Ввести в поле Password 0 символов</t>
+  </si>
+  <si>
     <t>Ввести в поле Password 5 символов</t>
   </si>
   <si>
@@ -1044,13 +1047,172 @@
   </si>
   <si>
     <t>BE-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email  0 символов  </t>
+  </si>
+  <si>
+    <t>валидное</t>
+  </si>
+  <si>
+    <t>невалидное</t>
+  </si>
+  <si>
+    <t>пустое</t>
+  </si>
+  <si>
+    <t>PF-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name - валидное значение
+Surname - валидное значение
+Email - валидное значение
+Password - валидное значение
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name - валидное значение
+Surname - невалидное значение
+Email - невалидное значение
+Password - невалидное значение
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name - валидное значение
+Surname - валидное значение
+Email - пустое
+Password - пустое
+</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email:
+Password:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name - невалидное значение
+Surname - валидное значение
+Email - невалидное значение
+Password - пустое
+</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenkoo?
+Email: straschenko13@mail.ru#
+Password:  tDb@5%</t>
+  </si>
+  <si>
+    <t>Name: Arina&gt;
+Surname: Strashchenko
+Email: straschenko13@mail.ru!
+Password:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name -  невалидное значение
+Surname - невалидное значение
+Email - пустое
+Password - валидное значение
+</t>
+  </si>
+  <si>
+    <t>Name: Arina$
+Surname: Strashchenko^
+Email:
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name - невалидное значение
+Surname - валидное значение
+Email - валидное значение
+Password - невалидное значение
+</t>
+  </si>
+  <si>
+    <t>Name: Arina+
+Surname: Strashchenko
+Email: straschenko13@mail.ru
+Password: tDbb@@58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name -  пустое
+Surname - валидное значение
+Email - пустое
+Password - невалидное значение
+</t>
+  </si>
+  <si>
+    <t>Name: 
+Surname: Strashchenko
+Email: 
+Password: tDbb@58.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name - пустое
+Surname - невалидное значение
+Email - валидное значение
+Password - пустое
+</t>
+  </si>
+  <si>
+    <t>Name: 
+Surname: Strashchenko//
+Email: straschenko13@mail.ru
+Password:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поля:
+Name - пустое
+Surname - валидное значение
+Email - невалидное значение
+Password - валидное значение
+</t>
+  </si>
+  <si>
+    <t>Name: 
+Surname: Strashchenko
+Email: straschenko13@@mail.ru
+Password: tDbb@58</t>
+  </si>
+  <si>
+    <t>PF-2</t>
+  </si>
+  <si>
+    <t>PF-3</t>
+  </si>
+  <si>
+    <t>PF-4</t>
+  </si>
+  <si>
+    <t>PF-5</t>
+  </si>
+  <si>
+    <t>PF-6</t>
+  </si>
+  <si>
+    <t>PF-7</t>
+  </si>
+  <si>
+    <t>PF-8</t>
+  </si>
+  <si>
+    <t>PF-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,8 +1243,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1272,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0D0FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,11 +1528,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1455,19 +1654,55 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FFE0D0FC"/>
       <color rgb="FFDCC5FB"/>
       <color rgb="FFE2B2F8"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1825,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -2728,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,9 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3528,10 +3761,10 @@
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>206</v>
@@ -3552,13 +3785,13 @@
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>194</v>
@@ -3576,13 +3809,13 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>194</v>
@@ -3600,13 +3833,13 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>54</v>
@@ -3624,13 +3857,13 @@
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
@@ -3648,13 +3881,13 @@
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>194</v>
@@ -3672,13 +3905,13 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>194</v>
@@ -3696,13 +3929,13 @@
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>54</v>
@@ -3720,10 +3953,10 @@
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>220</v>
@@ -3744,10 +3977,10 @@
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>189</v>
@@ -3768,13 +4001,13 @@
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>194</v>
@@ -3792,13 +4025,13 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>54</v>
@@ -3830,13 +4063,13 @@
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>54</v>
@@ -3854,13 +4087,13 @@
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>190</v>
@@ -3878,13 +4111,13 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>190</v>
@@ -3902,10 +4135,10 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>232</v>
@@ -3967,25 +4200,1108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="50"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="53"/>
+    </row>
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="53"/>
+    </row>
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="53"/>
+    </row>
+    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="53"/>
+    </row>
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="53"/>
+    </row>
+    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="53"/>
+    </row>
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="53"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E26:E27 E9:E13">
+      <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Требования!$A$3:$A$83</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5:F39</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -2060,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4417,7 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
-    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId2"/>
-    <sheet name="Граничные значения" sheetId="8" r:id="rId3"/>
-    <sheet name="Попарное тестирование" sheetId="7" r:id="rId4"/>
-    <sheet name="Чек-листы" sheetId="9" r:id="rId5"/>
+    <sheet name="Чек-листы" sheetId="9" r:id="rId2"/>
+    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId3"/>
+    <sheet name="Граничные значения" sheetId="8" r:id="rId4"/>
+    <sheet name="Попарное тестирование" sheetId="7" r:id="rId5"/>
     <sheet name="Тест-кейсы" sheetId="3" r:id="rId6"/>
     <sheet name="Баг-репорты" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="380">
   <si>
     <t>ID</t>
   </si>
@@ -221,16 +221,7 @@
     <t>F-5</t>
   </si>
   <si>
-    <t>Наведение/клик по заполняемому полю</t>
-  </si>
-  <si>
     <t>Поле подсвечивается голубой тенью</t>
-  </si>
-  <si>
-    <t>Курсор на заполняемом поле</t>
-  </si>
-  <si>
-    <t>Мигает</t>
   </si>
   <si>
     <t>F-6</t>
@@ -1206,6 +1197,165 @@
   </si>
   <si>
     <t>PF-9</t>
+  </si>
+  <si>
+    <t>RT-4</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; страницы</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>F-11/0</t>
+  </si>
+  <si>
+    <t>Фавикон страницы</t>
+  </si>
+  <si>
+    <t>RT-5</t>
+  </si>
+  <si>
+    <t>RT-6</t>
+  </si>
+  <si>
+    <t>&lt;header&gt; страницы</t>
+  </si>
+  <si>
+    <t>RF-3/1</t>
+  </si>
+  <si>
+    <t>"Name *"</t>
+  </si>
+  <si>
+    <t>"Surname"</t>
+  </si>
+  <si>
+    <t>"Your email address. *"</t>
+  </si>
+  <si>
+    <t>"Enter a password. *"</t>
+  </si>
+  <si>
+    <t>RF-3/2</t>
+  </si>
+  <si>
+    <t>RF-3/3</t>
+  </si>
+  <si>
+    <t>RF-3/4</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Name</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Surname</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Email</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Password</t>
+  </si>
+  <si>
+    <t>RT-7</t>
+  </si>
+  <si>
+    <t>RT-8</t>
+  </si>
+  <si>
+    <t>RT-9</t>
+  </si>
+  <si>
+    <t>Заголовок первого поля</t>
+  </si>
+  <si>
+    <t>Заголовок второго поля</t>
+  </si>
+  <si>
+    <t>Заголовок третьего поля</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Surame:</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>Наведение курсора на поле Name</t>
+  </si>
+  <si>
+    <t>Наведение курсора на поле Surname</t>
+  </si>
+  <si>
+    <t>Наведение курсора на поле Email</t>
+  </si>
+  <si>
+    <t>Наведение курсора на поле Password</t>
+  </si>
+  <si>
+    <t>Кликнуть по полю Name</t>
+  </si>
+  <si>
+    <t>Кликнуть по полю Surname</t>
+  </si>
+  <si>
+    <t>Кликнуть по полю Email</t>
+  </si>
+  <si>
+    <t>Кликнуть по полю Password</t>
+  </si>
+  <si>
+    <t>RF-4/1</t>
+  </si>
+  <si>
+    <t>RF-4/2</t>
+  </si>
+  <si>
+    <t>RF-4/3</t>
+  </si>
+  <si>
+    <t>RF-4/4</t>
+  </si>
+  <si>
+    <t>Поле подсвечивается голубой тенью, курсор мигает</t>
+  </si>
+  <si>
+    <t>Клик по заполняемому полю</t>
+  </si>
+  <si>
+    <t>Наведение на заполняемое поле</t>
+  </si>
+  <si>
+    <t>RF-5/1</t>
+  </si>
+  <si>
+    <t>RF-5/2</t>
+  </si>
+  <si>
+    <t>RF-5/3</t>
+  </si>
+  <si>
+    <t>RF-5/4</t>
+  </si>
+  <si>
+    <t>Перейти к следующему полю, кликнув мышью</t>
+  </si>
+  <si>
+    <t>Перейти к следующему полю, нажав клавишу Tab</t>
+  </si>
+  <si>
+    <t>Следующее поле подсвечивается голубой тенью, курсор мигает</t>
+  </si>
+  <si>
+    <t>RF-9/1</t>
+  </si>
+  <si>
+    <t>RF-9/2</t>
   </si>
 </sst>
 </file>
@@ -1606,54 +1756,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1688,6 +1790,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1698,6 +1848,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFE0D0FC"/>
@@ -1784,6 +1937,48 @@
         <a:xfrm>
           <a:off x="6240912" y="2338510"/>
           <a:ext cx="158750" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>263640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>261937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="64054" t="9170" r="35088" b="89423"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5012531" y="1023936"/>
+          <a:ext cx="204109" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,11 +2267,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="A1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -2093,7 +2288,7 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -2104,7 +2299,7 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -2113,7 +2308,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2317,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2326,7 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2142,7 +2337,7 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2346,7 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -2183,7 +2378,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>46</v>
@@ -2202,10 +2397,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="47"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -2222,7 +2417,7 @@
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2233,7 +2428,7 @@
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
@@ -2242,7 +2437,7 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +2446,7 @@
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="52" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2262,7 +2457,7 @@
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2271,18 +2466,18 @@
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,10 +2485,10 @@
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,70 +2496,70 @@
         <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>59</v>
+        <v>369</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="C25" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>48</v>
@@ -2375,7 +2570,7 @@
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2386,7 +2581,7 @@
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>50</v>
@@ -2397,7 +2592,7 @@
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>53</v>
@@ -2408,72 +2603,72 @@
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
-      <c r="B39" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="27"/>
+      <c r="B39" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="47"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>33</v>
@@ -2481,87 +2676,87 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -2569,10 +2764,10 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C49" s="12">
         <v>64</v>
@@ -2580,105 +2775,105 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
-      <c r="B50" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="27"/>
+      <c r="B50" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="47"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" s="12">
         <v>1</v>
@@ -2686,10 +2881,10 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C60" s="13">
         <v>64</v>
@@ -2697,17 +2892,17 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
-      <c r="B61" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="29"/>
+      <c r="B61" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="49"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>34</v>
@@ -2715,127 +2910,127 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
-      <c r="B73" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="31"/>
+      <c r="B73" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="51"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>35</v>
@@ -2843,87 +3038,87 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C82" s="12">
         <v>6</v>
@@ -2931,10 +3126,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C83" s="12">
         <v>16</v>
@@ -2942,16 +3137,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2960,6 +3155,1236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="37"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="34"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="37"/>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="37"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="34"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="34"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="37"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="34"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="37"/>
+    </row>
+    <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="37"/>
+    </row>
+    <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="37"/>
+    </row>
+    <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="37"/>
+    </row>
+    <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="37"/>
+    </row>
+    <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="37"/>
+    </row>
+    <row r="61" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="37"/>
+    </row>
+    <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="37"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:E50 E32:E36 E5:E28">
+      <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Требования!$A$3:$A$83</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5:F62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -2982,18 +4407,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,443 +4426,443 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="A5" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="A9" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>195</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="A13" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
+      <c r="A22" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>228</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>232</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G26" s="18"/>
     </row>
@@ -3473,11 +4898,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3494,18 +4919,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3513,74 +4938,74 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="A5" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>246</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" s="18"/>
       <c r="I7" s="1"/>
@@ -3589,22 +5014,22 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>247</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G8" s="18"/>
       <c r="I8" s="1"/>
@@ -3613,22 +5038,22 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" s="18"/>
       <c r="I9" s="1"/>
@@ -3636,37 +5061,37 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="A10" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" s="18"/>
       <c r="I11" s="1"/>
@@ -3675,22 +5100,22 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>253</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" s="18"/>
       <c r="I12" s="1"/>
@@ -3699,22 +5124,22 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G13" s="18"/>
       <c r="I13" s="1"/>
@@ -3723,22 +5148,22 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" s="18"/>
       <c r="I14" s="1"/>
@@ -3746,37 +5171,37 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="A15" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G16" s="18"/>
       <c r="I16" s="1"/>
@@ -3785,22 +5210,22 @@
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" s="18"/>
       <c r="I17" s="1"/>
@@ -3809,22 +5234,22 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" s="18"/>
       <c r="I18" s="1"/>
@@ -3833,22 +5258,22 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G19" s="18"/>
       <c r="I19" s="1"/>
@@ -3857,22 +5282,22 @@
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G20" s="18"/>
       <c r="I20" s="1"/>
@@ -3881,22 +5306,22 @@
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" s="18"/>
       <c r="I21" s="1"/>
@@ -3905,22 +5330,22 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G22" s="18"/>
       <c r="I22" s="1"/>
@@ -3929,22 +5354,22 @@
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" s="18"/>
       <c r="I23" s="1"/>
@@ -3953,22 +5378,22 @@
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G24" s="18"/>
       <c r="I24" s="1"/>
@@ -3977,22 +5402,22 @@
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G25" s="18"/>
       <c r="I25" s="1"/>
@@ -4001,22 +5426,22 @@
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G26" s="18"/>
       <c r="I26" s="1"/>
@@ -4025,22 +5450,22 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27" s="18"/>
       <c r="I27" s="1"/>
@@ -4048,37 +5473,37 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+      <c r="A28" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G29" s="18"/>
       <c r="I29" s="1"/>
@@ -4087,22 +5512,22 @@
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G30" s="18"/>
       <c r="I30" s="1"/>
@@ -4111,22 +5536,22 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>263</v>
-      </c>
       <c r="D31" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G31" s="18"/>
       <c r="I31" s="1"/>
@@ -4135,22 +5560,22 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G32" s="18"/>
       <c r="I32" s="1"/>
@@ -4198,7 +5623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D16"/>
   <sheetViews>
@@ -4214,1094 +5639,202 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>301</v>
+      <c r="A3" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>302</v>
+      <c r="A4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>303</v>
+      <c r="A5" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>301</v>
+      <c r="A8" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>302</v>
+      <c r="A9" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>303</v>
+      <c r="A10" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>303</v>
+      <c r="A11" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>301</v>
+      <c r="A12" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>302</v>
+      <c r="A13" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>302</v>
+      <c r="A14" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>303</v>
+      <c r="A15" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>301</v>
+      <c r="A16" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="50"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="50"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="53"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="50"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="50"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="53"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="50"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="53"/>
-    </row>
-    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="53"/>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="53"/>
-    </row>
-    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="53"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E26:E27 E9:E13">
-      <formula1>"Passed,Failed"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Требования!$A$3:$A$83</xm:f>
-          </x14:formula1>
-          <xm:sqref>F5:F39</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
     <sheet name="Чек-листы" sheetId="9" r:id="rId2"/>
-    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId3"/>
-    <sheet name="Граничные значения" sheetId="8" r:id="rId4"/>
-    <sheet name="Попарное тестирование" sheetId="7" r:id="rId5"/>
-    <sheet name="Тест-кейсы" sheetId="3" r:id="rId6"/>
+    <sheet name="Тест-кейсы" sheetId="3" r:id="rId3"/>
+    <sheet name="Классы эквивалентности" sheetId="6" r:id="rId4"/>
+    <sheet name="Граничные значения" sheetId="8" r:id="rId5"/>
+    <sheet name="Попарное тестирование" sheetId="7" r:id="rId6"/>
     <sheet name="Баг-репорты" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="386">
   <si>
     <t>ID</t>
   </si>
@@ -263,9 +263,6 @@
     <t>F-11</t>
   </si>
   <si>
-    <t>Наведение/клик по кнопке "Submit"</t>
-  </si>
-  <si>
     <t>Подсвечивается/меняет цвет на темно-зеленый, появляется курсорпоинтер</t>
   </si>
   <si>
@@ -1356,6 +1353,27 @@
   </si>
   <si>
     <t>RF-9/2</t>
+  </si>
+  <si>
+    <t>Клик по кнопке "Submit"</t>
+  </si>
+  <si>
+    <t>F-17</t>
+  </si>
+  <si>
+    <t>Наведение курсора на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>RF-12</t>
+  </si>
+  <si>
+    <t>RF-13</t>
+  </si>
+  <si>
+    <t>Меняет цвет на темно-зеленый</t>
+  </si>
+  <si>
+    <t>RF-17</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1701,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,6 +1773,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1837,6 +1858,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2253,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,11 +2294,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -2288,7 +2315,7 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -2299,7 +2326,7 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -2308,7 +2335,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2344,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
@@ -2326,7 +2353,7 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2337,7 +2364,7 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -2346,7 +2373,7 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -2378,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>46</v>
@@ -2397,10 +2424,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -2417,7 +2444,7 @@
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2428,7 +2455,7 @@
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
@@ -2437,7 +2464,7 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
@@ -2446,7 +2473,7 @@
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="53" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2457,7 +2484,7 @@
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2466,18 +2493,18 @@
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,7 +2512,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>57</v>
@@ -2496,10 +2523,10 @@
         <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2518,7 +2545,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>59</v>
@@ -2529,10 +2556,10 @@
         <v>65</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2570,7 +2597,7 @@
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2581,7 +2608,7 @@
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>50</v>
@@ -2592,7 +2619,7 @@
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>53</v>
@@ -2601,148 +2628,148 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C38" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="46" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="48"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="47"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="B41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>112</v>
@@ -2751,115 +2778,115 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="12">
+        <v>111</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="12">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="46" t="s">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="48"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C50" s="47"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>112</v>
@@ -2868,279 +2895,290 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="48" t="s">
+      <c r="C62" s="50"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="49"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="B63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="12" t="s">
+      <c r="B71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="B73" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="12" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="51" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="51"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C74" s="52"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="12">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C83" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="12">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
@@ -3158,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,1188 +3215,1206 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34" t="s">
+      <c r="F5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="E7" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="B11" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="34"/>
+      <c r="C29" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="35"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="34"/>
+      <c r="A30" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="35"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="A31" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="37"/>
+      <c r="E31" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="38"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="35" t="s">
+      <c r="A32" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="34"/>
+      <c r="D32" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="35"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="34" t="s">
+      <c r="A33" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="34"/>
+      <c r="E33" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="35"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="34"/>
+      <c r="A34" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="35"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="39" t="s">
+      <c r="A35" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="37"/>
+      <c r="E35" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="38"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="37" t="s">
+      <c r="A36" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" s="37" t="s">
+      <c r="E36" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="37"/>
+      <c r="G37" s="38"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="B38" s="34" t="s">
+      <c r="A38" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="34"/>
+      <c r="D38" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="35"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="34"/>
+      <c r="A39" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="35"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="39" t="s">
+      <c r="A40" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="37"/>
+      <c r="E40" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="38"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" s="39" t="s">
+      <c r="A41" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="37"/>
+      <c r="E41" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="38"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="34"/>
+      <c r="A42" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="35"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="34"/>
+      <c r="A43" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="35"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="D44" s="39" t="s">
+      <c r="A44" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="37"/>
+      <c r="E44" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="38"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="D45" s="39" t="s">
+      <c r="A45" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="37"/>
+      <c r="E45" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="38"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="36" t="s">
+      <c r="A46" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="34"/>
+      <c r="D46" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="35"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="34"/>
+      <c r="A47" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="35"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="A48" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D48" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="37"/>
+      <c r="E48" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="38"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B49" s="37" t="s">
+      <c r="A49" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="38"/>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="37" t="s">
+      <c r="C50" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="37"/>
+      <c r="G50" s="38"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="34"/>
+      <c r="A51" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="35"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="34"/>
+      <c r="A52" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="35"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D53" s="39" t="s">
+      <c r="A53" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" s="37"/>
+      <c r="E53" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="38"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="34"/>
+      <c r="E54" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="35"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="38"/>
+    </row>
+    <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B56" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C56" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="38"/>
+    </row>
+    <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D57" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="37"/>
-    </row>
-    <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D56" s="39" t="s">
+      <c r="E57" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" s="38"/>
+    </row>
+    <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="37"/>
-    </row>
-    <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" s="39" t="s">
+      <c r="E58" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="38"/>
+    </row>
+    <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D59" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="37"/>
-    </row>
-    <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="D58" s="39" t="s">
+      <c r="E59" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="38"/>
+    </row>
+    <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="37"/>
-    </row>
-    <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="D59" s="39" t="s">
+      <c r="E60" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="38"/>
+    </row>
+    <row r="61" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="37"/>
-    </row>
-    <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="D60" s="39" t="s">
+      <c r="E61" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="38"/>
+    </row>
+    <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D62" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="37"/>
-    </row>
-    <row r="61" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="37"/>
-    </row>
-    <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="37"/>
+      <c r="E62" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="38"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4374,7 +4430,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$83</xm:f>
+            <xm:f>Требования!$A$3:$A$84</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F62</xm:sqref>
         </x14:dataValidation>
@@ -4385,6 +4441,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -4407,18 +4475,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4426,443 +4494,443 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="A5" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="A9" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="A13" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="E15" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="A22" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="E24" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="18"/>
     </row>
@@ -4876,9 +4944,18 @@
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A22:G22"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E10 E14 E23">
       <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12">
+      <formula1>$A$3:$A$84</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F21">
+      <formula1>$A$3:$A$84</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F26">
+      <formula1>$A$3:$A$84</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4888,9 +4965,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$83</xm:f>
+            <xm:f>Требования!$A$3:$A$84</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F8 F10:F12 F14:F21 F23:F26</xm:sqref>
+          <xm:sqref>F6:F8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4898,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -4919,18 +4996,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4938,74 +5015,74 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="A5" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="18"/>
       <c r="I7" s="1"/>
@@ -5014,22 +5091,22 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="18"/>
       <c r="I8" s="1"/>
@@ -5038,22 +5115,22 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="18"/>
       <c r="I9" s="1"/>
@@ -5061,37 +5138,37 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="A10" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="18"/>
       <c r="I11" s="1"/>
@@ -5100,22 +5177,22 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>251</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="18"/>
       <c r="I12" s="1"/>
@@ -5124,22 +5201,22 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="18"/>
       <c r="I13" s="1"/>
@@ -5148,22 +5225,22 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="18"/>
       <c r="I14" s="1"/>
@@ -5171,37 +5248,37 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
+      <c r="A15" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="18"/>
       <c r="I16" s="1"/>
@@ -5210,22 +5287,22 @@
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>267</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="18"/>
       <c r="I17" s="1"/>
@@ -5234,22 +5311,22 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="18"/>
       <c r="I18" s="1"/>
@@ -5258,22 +5335,22 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="18"/>
       <c r="I19" s="1"/>
@@ -5282,22 +5359,22 @@
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="18"/>
       <c r="I20" s="1"/>
@@ -5306,22 +5383,22 @@
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="18"/>
       <c r="I21" s="1"/>
@@ -5330,22 +5407,22 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="18"/>
       <c r="I22" s="1"/>
@@ -5354,22 +5431,22 @@
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="18"/>
       <c r="I23" s="1"/>
@@ -5378,22 +5455,22 @@
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="18"/>
       <c r="I24" s="1"/>
@@ -5402,22 +5479,22 @@
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="18"/>
       <c r="I25" s="1"/>
@@ -5426,22 +5503,22 @@
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="18"/>
       <c r="I26" s="1"/>
@@ -5450,22 +5527,22 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="18"/>
       <c r="I27" s="1"/>
@@ -5473,37 +5550,37 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
+      <c r="A28" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="18"/>
       <c r="I29" s="1"/>
@@ -5512,22 +5589,22 @@
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="18"/>
       <c r="I30" s="1"/>
@@ -5536,22 +5613,22 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="18"/>
       <c r="I31" s="1"/>
@@ -5560,22 +5637,22 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="18"/>
       <c r="I32" s="1"/>
@@ -5601,9 +5678,18 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A28:G28"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E11:E14 E29">
       <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F9">
+      <formula1>$A$3:$A$84</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F14">
+      <formula1>$A$3:$A$84</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F27">
+      <formula1>$A$3:$A$84</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5613,9 +5699,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$83</xm:f>
+            <xm:f>Требования!$A$3:$A$84</xm:f>
           </x14:formula1>
-          <xm:sqref>F29:F32 F6:F9 F11:F14 F16:F27</xm:sqref>
+          <xm:sqref>F29:F32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5623,7 +5709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D16"/>
   <sheetViews>
@@ -5639,214 +5725,202 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="28" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="D10" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B11" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D11" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="B12" s="32" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="C12" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B13" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="B14" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D14" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="C15" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>298</v>
+      <c r="D16" s="31" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
-    <sheet name="Чек-листы" sheetId="9" r:id="rId2"/>
-    <sheet name="Тест-кейсы" sheetId="3" r:id="rId3"/>
+    <sheet name="Тест-кейсы" sheetId="10" r:id="rId2"/>
+    <sheet name="Чек-листы" sheetId="9" r:id="rId3"/>
     <sheet name="Классы эквивалентности" sheetId="6" r:id="rId4"/>
     <sheet name="Граничные значения" sheetId="8" r:id="rId5"/>
     <sheet name="Попарное тестирование" sheetId="7" r:id="rId6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="464">
   <si>
     <t>ID</t>
   </si>
@@ -299,9 +299,6 @@
     <t>F-14</t>
   </si>
   <si>
-    <t xml:space="preserve">Нажатие кнопкм "Обновить" </t>
-  </si>
-  <si>
     <t>Данные не сохраняются</t>
   </si>
   <si>
@@ -1265,6 +1262,9 @@
     <t>RT-9</t>
   </si>
   <si>
+    <t>RT-10</t>
+  </si>
+  <si>
     <t>Заголовок первого поля</t>
   </si>
   <si>
@@ -1274,6 +1274,9 @@
     <t>Заголовок третьего поля</t>
   </si>
   <si>
+    <t>Заголовок четвертого поля</t>
+  </si>
+  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -1283,6 +1286,9 @@
     <t>Email:</t>
   </si>
   <si>
+    <t>Password:</t>
+  </si>
+  <si>
     <t>Наведение курсора на поле Name</t>
   </si>
   <si>
@@ -1373,7 +1379,249 @@
     <t>Меняет цвет на темно-зеленый</t>
   </si>
   <si>
-    <t>RF-17</t>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>1. Перейти по ссылке http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок вкладки браузера</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок формы регистрации</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок первого поля</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок второго поля</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок третьего поля</t>
+  </si>
+  <si>
+    <t>1. Проверить заголовок четвертого поля</t>
+  </si>
+  <si>
+    <t>1. Проверить плейсхолдер поля Name</t>
+  </si>
+  <si>
+    <t>1. Проверить плейсхолдер поля Surname</t>
+  </si>
+  <si>
+    <t>1. Проверить плейсхолдер поля Email</t>
+  </si>
+  <si>
+    <t>1. Проверить плейсхолдер поля Password</t>
+  </si>
+  <si>
+    <t>1. Навести курсор на поле Name</t>
+  </si>
+  <si>
+    <t>1. Навести курсор на поле Surname</t>
+  </si>
+  <si>
+    <t>1. Навести курсор на поле Email</t>
+  </si>
+  <si>
+    <t>1. Навести курсор на поле Password</t>
+  </si>
+  <si>
+    <t>1. Навести курсор на кнопку Submit</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Name</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Surname</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Email</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Password</t>
+  </si>
+  <si>
+    <t>1. Перейти к следующему полю кликнув мышью</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по кнопке " кнопке Submit</t>
+  </si>
+  <si>
+    <t>1. Отключить соединение с интернетом</t>
+  </si>
+  <si>
+    <t>1. Перейти к следующему полю нажав клавишу Tab</t>
+  </si>
+  <si>
+    <t>RF-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажатие кнопки Enter </t>
+  </si>
+  <si>
+    <t>Появляется курсорпоинтер, кнопка подсвечивается/меняет цвет на темно-зеленый, запрос отправляется на сервер</t>
+  </si>
+  <si>
+    <t>Кнопка подсвечивается, запрос отправляется на сервер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Перейти по ссылке http://itcareer.pythonanywhere.com/
+</t>
+  </si>
+  <si>
+    <t>1. Внести данные из колонки Test Data в соответствующие поля</t>
+  </si>
+  <si>
+    <t>Ввод невалидных данных и снятие фокуса с поля Name</t>
+  </si>
+  <si>
+    <t>RF-6/1</t>
+  </si>
+  <si>
+    <t>RF-6/2</t>
+  </si>
+  <si>
+    <t>RF-6/3</t>
+  </si>
+  <si>
+    <t>RF-6/4</t>
+  </si>
+  <si>
+    <t>Ввод невалидных данных и снятие фокуса с поля Surmane</t>
+  </si>
+  <si>
+    <t>Ввод невалидных данных и снятие фокуса с поля Email</t>
+  </si>
+  <si>
+    <t>Ввод невалидных данных и снятие фокуса с поля Password</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Name
+2. Ввести невалидные данные из Test Data
+3. Убрать фокус с поля</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Surname
+2. Ввести невалидные данные из Test Data
+3. Убрать фокус с поля</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Email
+2. Ввести невалидные данные из Test Data
+3. Убрать фокус с поля</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Password
+2. Ввести невалидные данные из Test Data
+3. Убрать фокус с поля</t>
+  </si>
+  <si>
+    <t>__Arina</t>
+  </si>
+  <si>
+    <t>__Strashchenko</t>
+  </si>
+  <si>
+    <t>straschenko13@@mail.ru</t>
+  </si>
+  <si>
+    <t>Ввод в поле Name количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>Ввод в поле Surname количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>Ввод в поле Email количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>Ввод в поле Password количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>RF-7/1</t>
+  </si>
+  <si>
+    <t>RF-7/2</t>
+  </si>
+  <si>
+    <t>RF-7/3</t>
+  </si>
+  <si>
+    <t>RF-7/4</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Password
+2. Ввести невалидные данные из Test Data</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Name
+2. Ввести невалидные данные из Test Data</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Surname
+2. Ввести невалидные данные из Test Data</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Email
+2. Ввести невалидные данные из Test Data</t>
+  </si>
+  <si>
+    <t>Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>straschenko1333333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t>tDbb@588888888888</t>
+  </si>
+  <si>
+    <t>Ввод в поле Name максимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>Ввод в поле Surname максимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>Ввод в поле Email максимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>Ввод в поле Password максимально допустимого количества символов</t>
+  </si>
+  <si>
+    <t>RF-8/1</t>
+  </si>
+  <si>
+    <t>RF-8/2</t>
+  </si>
+  <si>
+    <t>RF-8/3</t>
+  </si>
+  <si>
+    <t>RF-8/4</t>
+  </si>
+  <si>
+    <t>Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Strashchenkooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>straschenko133333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t>tDbb@58888888888</t>
+  </si>
+  <si>
+    <t>1. Кликнуть по полю полю Password
+2. Ввести валидные данные из Test Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажатие кнопки "Обновить" </t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1672,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1464,6 +1712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,7 +1955,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1859,11 +2113,55 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1875,11 +2173,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF33"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFE0D0FC"/>
       <color rgb="FFDCC5FB"/>
       <color rgb="FFE2B2F8"/>
@@ -1976,6 +2275,48 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="64054" t="9170" r="35088" b="89423"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929688" y="1428749"/>
+          <a:ext cx="357190" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2280,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2636,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -2405,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>46</v>
@@ -2495,7 +2836,7 @@
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2504,7 +2845,7 @@
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,7 +2853,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>57</v>
@@ -2523,10 +2864,10 @@
         <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2633,10 +2974,10 @@
         <v>78</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2644,143 +2985,143 @@
         <v>79</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>71</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>81</v>
+      <c r="B36" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="C39" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="47" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="48"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="48"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="B42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>111</v>
@@ -2789,115 +3130,115 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="12">
+        <v>110</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="12">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="47" t="s">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="48"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C51" s="48"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>111</v>
@@ -2906,279 +3247,290 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="49" t="s">
+      <c r="C63" s="50"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="50"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B64" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="12" t="s">
+      <c r="B72" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="B74" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="12" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="51" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="52"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C75" s="52"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="12">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C84" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="12">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
@@ -3194,10 +3546,2163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="4" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="1:13" s="63" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+    </row>
+    <row r="12" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+    </row>
+    <row r="13" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+    </row>
+    <row r="14" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+    </row>
+    <row r="15" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+    </row>
+    <row r="16" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="58" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+    </row>
+    <row r="17" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+    </row>
+    <row r="18" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+    </row>
+    <row r="19" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+    </row>
+    <row r="24" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="60">
+        <v>111111</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+    </row>
+    <row r="32" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+    </row>
+    <row r="33" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+    </row>
+    <row r="34" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+    </row>
+    <row r="35" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+    </row>
+    <row r="36" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+    </row>
+    <row r="37" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G37" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+    </row>
+    <row r="38" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+    </row>
+    <row r="39" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+    </row>
+    <row r="40" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+    </row>
+    <row r="41" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+    </row>
+    <row r="42" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="38"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="38"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="35"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="38"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" s="38"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="35"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="35"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="38"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="38"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="35"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" s="38"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" s="38"/>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" s="38"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" s="35"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="35"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" s="38"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="35"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" s="38"/>
+    </row>
+    <row r="70" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="38"/>
+    </row>
+    <row r="71" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="38"/>
+    </row>
+    <row r="72" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" s="38"/>
+    </row>
+    <row r="73" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="38"/>
+    </row>
+    <row r="74" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74" s="38"/>
+    </row>
+    <row r="75" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" s="38"/>
+    </row>
+    <row r="76" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76" s="38"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63:G64 G46:G50 G5:G42">
+      <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C6:C20" r:id="rId1" display="http://itcareer.pythonanywhere.com/"/>
+    <hyperlink ref="C21" r:id="rId2" display="http://itcareer.pythonanywhere.com/"/>
+    <hyperlink ref="C37" r:id="rId3" display="http://itcareer.pythonanywhere.com/"/>
+    <hyperlink ref="C38:C41" r:id="rId4" display="http://itcareer.pythonanywhere.com/"/>
+    <hyperlink ref="C11" r:id="rId5" display="http://itcareer.pythonanywhere.com/"/>
+    <hyperlink ref="C40" r:id="rId6" display="http://itcareer.pythonanywhere.com/"/>
+    <hyperlink ref="C5" r:id="rId7" display="http://itcareer.pythonanywhere.com/"/>
+    <hyperlink ref="D30" r:id="rId8"/>
+    <hyperlink ref="D31" r:id="rId9"/>
+    <hyperlink ref="D34" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Требования!$A$3:$A$85</xm:f>
+          </x14:formula1>
+          <xm:sqref>H5:H76</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,417 +5718,509 @@
     <col min="9" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="D2" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    </row>
+    <row r="5" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="F5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" s="63" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+    </row>
+    <row r="7" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="E7" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="B11" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B13" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B14" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+    </row>
+    <row r="18" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+    </row>
+    <row r="19" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>363</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="B25" s="35" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="B27" s="58" t="s">
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F28" s="38" t="s">
         <v>76</v>
@@ -3632,19 +6229,19 @@
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>75</v>
@@ -3656,19 +6253,19 @@
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>75</v>
@@ -3680,19 +6277,19 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>77</v>
@@ -3704,19 +6301,19 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>76</v>
@@ -3728,19 +6325,19 @@
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>250</v>
-      </c>
       <c r="E33" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>75</v>
@@ -3752,19 +6349,19 @@
     </row>
     <row r="34" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>75</v>
@@ -3776,19 +6373,19 @@
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F35" s="38" t="s">
         <v>77</v>
@@ -3800,19 +6397,19 @@
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>76</v>
@@ -3821,19 +6418,19 @@
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>77</v>
@@ -3845,19 +6442,19 @@
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>266</v>
-      </c>
       <c r="D38" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F38" s="35" t="s">
         <v>75</v>
@@ -3869,19 +6466,19 @@
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>75</v>
@@ -3893,19 +6490,19 @@
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" s="38" t="s">
         <v>77</v>
@@ -3917,19 +6514,19 @@
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>77</v>
@@ -3941,19 +6538,19 @@
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>75</v>
@@ -3965,19 +6562,19 @@
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="35" t="s">
         <v>75</v>
@@ -3989,19 +6586,19 @@
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" s="38" t="s">
         <v>77</v>
@@ -4013,19 +6610,19 @@
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>77</v>
@@ -4037,19 +6634,19 @@
     </row>
     <row r="46" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F46" s="35" t="s">
         <v>75</v>
@@ -4061,19 +6658,19 @@
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F47" s="35" t="s">
         <v>75</v>
@@ -4085,19 +6682,19 @@
     </row>
     <row r="48" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>77</v>
@@ -4109,19 +6706,19 @@
     </row>
     <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>76</v>
@@ -4130,19 +6727,19 @@
     </row>
     <row r="50" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F50" s="38" t="s">
         <v>77</v>
@@ -4154,19 +6751,19 @@
     </row>
     <row r="51" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F51" s="35" t="s">
         <v>75</v>
@@ -4178,19 +6775,19 @@
     </row>
     <row r="52" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>75</v>
@@ -4202,19 +6799,19 @@
     </row>
     <row r="53" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F53" s="38" t="s">
         <v>77</v>
@@ -4226,19 +6823,19 @@
     </row>
     <row r="54" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>301</v>
-      </c>
       <c r="C54" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="36" t="s">
-        <v>186</v>
-      </c>
       <c r="E54" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F54" s="35" t="s">
         <v>75</v>
@@ -4250,19 +6847,19 @@
     </row>
     <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>77</v>
@@ -4271,19 +6868,19 @@
     </row>
     <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" s="38" t="s">
         <v>303</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>304</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>77</v>
@@ -4292,19 +6889,19 @@
     </row>
     <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>77</v>
@@ -4313,19 +6910,19 @@
     </row>
     <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="38" t="s">
         <v>308</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>309</v>
       </c>
       <c r="D58" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>77</v>
@@ -4334,19 +6931,19 @@
     </row>
     <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="38" t="s">
         <v>310</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>311</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>77</v>
@@ -4355,19 +6952,19 @@
     </row>
     <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" s="38" t="s">
         <v>312</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>313</v>
       </c>
       <c r="D60" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>77</v>
@@ -4376,19 +6973,19 @@
     </row>
     <row r="61" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="38" t="s">
         <v>314</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>315</v>
       </c>
       <c r="D61" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>77</v>
@@ -4397,19 +6994,19 @@
     </row>
     <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B62" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" s="38" t="s">
         <v>316</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>317</v>
       </c>
       <c r="D62" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>77</v>
@@ -4430,25 +7027,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$84</xm:f>
+            <xm:f>Требования!$A$3:$A$85</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4475,18 +7060,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,27 +7079,27 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -4525,19 +7110,19 @@
     </row>
     <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>76</v>
@@ -4546,19 +7131,19 @@
     </row>
     <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>75</v>
@@ -4567,19 +7152,19 @@
     </row>
     <row r="8" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>77</v>
@@ -4588,7 +7173,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -4599,19 +7184,19 @@
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>76</v>
@@ -4620,19 +7205,19 @@
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>75</v>
@@ -4641,19 +7226,19 @@
     </row>
     <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>77</v>
@@ -4662,7 +7247,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -4673,19 +7258,19 @@
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>76</v>
@@ -4694,19 +7279,19 @@
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="E15" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>75</v>
@@ -4715,19 +7300,19 @@
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>77</v>
@@ -4736,19 +7321,19 @@
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>77</v>
@@ -4757,19 +7342,19 @@
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>77</v>
@@ -4778,19 +7363,19 @@
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>77</v>
@@ -4799,19 +7384,19 @@
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>77</v>
@@ -4820,19 +7405,19 @@
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>77</v>
@@ -4841,7 +7426,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -4852,19 +7437,19 @@
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>76</v>
@@ -4873,19 +7458,19 @@
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="E24" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>75</v>
@@ -4894,19 +7479,19 @@
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>77</v>
@@ -4915,19 +7500,19 @@
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>77</v>
@@ -4965,7 +7550,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$84</xm:f>
+            <xm:f>Требования!$A$3:$A$85</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F8</xm:sqref>
         </x14:dataValidation>
@@ -4996,18 +7581,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5015,27 +7600,27 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -5046,19 +7631,19 @@
     </row>
     <row r="6" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>76</v>
@@ -5067,19 +7652,19 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>75</v>
@@ -5091,19 +7676,19 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>75</v>
@@ -5115,19 +7700,19 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>77</v>
@@ -5139,7 +7724,7 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -5153,19 +7738,19 @@
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>76</v>
@@ -5177,19 +7762,19 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>75</v>
@@ -5201,19 +7786,19 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>75</v>
@@ -5225,19 +7810,19 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>77</v>
@@ -5249,7 +7834,7 @@
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -5263,19 +7848,19 @@
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>77</v>
@@ -5287,19 +7872,19 @@
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>266</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>75</v>
@@ -5311,19 +7896,19 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>75</v>
@@ -5335,19 +7920,19 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>77</v>
@@ -5359,19 +7944,19 @@
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>77</v>
@@ -5383,19 +7968,19 @@
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>75</v>
@@ -5407,19 +7992,19 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>75</v>
@@ -5431,19 +8016,19 @@
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>77</v>
@@ -5455,19 +8040,19 @@
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>77</v>
@@ -5479,19 +8064,19 @@
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>75</v>
@@ -5503,19 +8088,19 @@
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>75</v>
@@ -5527,19 +8112,19 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>77</v>
@@ -5551,7 +8136,7 @@
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -5565,19 +8150,19 @@
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>77</v>
@@ -5589,19 +8174,19 @@
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>75</v>
@@ -5613,19 +8198,19 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>75</v>
@@ -5637,19 +8222,19 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>77</v>
@@ -5699,7 +8284,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$84</xm:f>
+            <xm:f>Требования!$A$3:$A$85</xm:f>
           </x14:formula1>
           <xm:sqref>F29:F32</xm:sqref>
         </x14:dataValidation>
@@ -5729,7 +8314,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>34</v>
@@ -5740,42 +8325,42 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5783,7 +8368,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>34</v>
@@ -5794,128 +8379,128 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>298</v>
-      </c>
       <c r="C9" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>299</v>
-      </c>
       <c r="D12" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>298</v>
-      </c>
       <c r="D16" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -2623,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -3548,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5701,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -7041,7 +7041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="465">
   <si>
     <t>ID</t>
   </si>
@@ -1622,6 +1622,9 @@
   </si>
   <si>
     <t xml:space="preserve">Нажатие кнопки "Обновить" </t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Error: Error: All Fields are Required" и подсвечивается красной тенью</t>
   </si>
 </sst>
 </file>
@@ -2065,54 +2068,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2162,6 +2117,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2621,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,11 +2638,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -2656,7 +2659,7 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -2667,7 +2670,7 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2679,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -2685,7 +2688,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
@@ -2694,7 +2697,7 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2705,7 +2708,7 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -2714,7 +2717,7 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -2765,10 +2768,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="60"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -2785,7 +2788,7 @@
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="71" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2796,7 +2799,7 @@
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
@@ -2805,7 +2808,7 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
@@ -2814,7 +2817,7 @@
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2825,7 +2828,7 @@
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="12" t="s">
         <v>92</v>
       </c>
@@ -2843,7 +2846,7 @@
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="12" t="s">
         <v>93</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="B36" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="56" t="s">
         <v>416</v>
       </c>
     </row>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="60"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -3165,10 +3168,10 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="48"/>
+      <c r="C52" s="60"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
@@ -3282,10 +3285,10 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="62"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
@@ -3298,7 +3301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>132</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>133</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>134</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>135</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>136</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>137</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>138</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>146</v>
       </c>
@@ -3396,8 +3399,17 @@
       <c r="C73" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>32</v>
+      </c>
+      <c r="E73">
+        <v>24</v>
+      </c>
+      <c r="F73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
@@ -3408,14 +3420,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="52"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="64"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>154</v>
       </c>
@@ -3426,7 +3438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>155</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>156</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>157</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>158</v>
       </c>
@@ -3527,16 +3539,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3548,22 +3560,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="54" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" style="20" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" style="20" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="20" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="4" customWidth="1"/>
     <col min="11" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3574,7 +3586,7 @@
       <c r="B1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="66"/>
+      <c r="C1" s="50"/>
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3584,7 +3596,7 @@
       <c r="B2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="50"/>
       <c r="F2" s="34"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3594,10 +3606,10 @@
       <c r="B4" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="57" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -3616,1032 +3628,1032 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-    </row>
-    <row r="6" spans="1:13" s="63" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" s="47" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="57" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-    </row>
-    <row r="7" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="I7" s="42"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="58" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="G8" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-    </row>
-    <row r="9" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="G8" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="58" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-    </row>
-    <row r="10" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="G9" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="G10" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="58" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="G11" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="G11" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="58" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="58" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="58" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-    </row>
-    <row r="17" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-    </row>
-    <row r="18" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="58" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-    </row>
-    <row r="19" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="58" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-    </row>
-    <row r="20" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="58" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="G20" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-    </row>
-    <row r="21" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="G20" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="58" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="G21" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-    </row>
-    <row r="22" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="G21" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="58" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="G22" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-    </row>
-    <row r="23" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="G22" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="58" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="G23" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-    </row>
-    <row r="24" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="G23" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>420</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-    </row>
-    <row r="25" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="G24" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+    </row>
+    <row r="25" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>421</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-    </row>
-    <row r="26" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="G25" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>422</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-    </row>
-    <row r="27" spans="1:13" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="G26" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>423</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="44">
         <v>111111</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-    </row>
-    <row r="28" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="G27" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+    </row>
+    <row r="28" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>438</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-    </row>
-    <row r="29" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
         <v>439</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-    </row>
-    <row r="30" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+    </row>
+    <row r="30" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
         <v>440</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-    </row>
-    <row r="31" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+    </row>
+    <row r="31" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
         <v>441</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="42" t="s">
         <v>442</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-    </row>
-    <row r="32" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+    </row>
+    <row r="32" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>454</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="42" t="s">
         <v>462</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-    </row>
-    <row r="33" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+    </row>
+    <row r="33" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>455</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="42" t="s">
         <v>462</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-    </row>
-    <row r="34" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+    </row>
+    <row r="34" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>456</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="42" t="s">
         <v>462</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-    </row>
-    <row r="35" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="35" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
         <v>457</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="42" t="s">
         <v>462</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-    </row>
-    <row r="36" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+    </row>
+    <row r="36" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="58" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="G36" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-    </row>
-    <row r="37" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="G36" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+    </row>
+    <row r="37" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="58" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="G37" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-    </row>
-    <row r="38" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="G37" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+    </row>
+    <row r="38" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="58" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="G38" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-    </row>
-    <row r="39" spans="1:13" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="G38" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+    </row>
+    <row r="39" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="58" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="G39" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-    </row>
-    <row r="40" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
+      <c r="G39" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+    </row>
+    <row r="40" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="58" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-    </row>
-    <row r="41" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+    </row>
+    <row r="41" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="58" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
     </row>
     <row r="42" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
@@ -4650,7 +4662,7 @@
       <c r="B42" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D42" s="40" t="s">
@@ -4662,7 +4674,7 @@
       <c r="F42" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H42" s="38" t="s">
@@ -4677,7 +4689,7 @@
       <c r="B43" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D43" s="36" t="s">
@@ -4689,13 +4701,16 @@
       <c r="F43" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="37" t="s">
-        <v>183</v>
+      <c r="G43" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>75</v>
       </c>
       <c r="I43" s="35"/>
+      <c r="J43" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -4707,7 +4722,7 @@
       <c r="B44" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D44" s="36" t="s">
@@ -4719,8 +4734,8 @@
       <c r="F44" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>183</v>
+      <c r="G44" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>75</v>
@@ -4737,7 +4752,7 @@
       <c r="B45" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D45" s="40" t="s">
@@ -4749,7 +4764,7 @@
       <c r="F45" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H45" s="38" t="s">
@@ -4767,7 +4782,7 @@
       <c r="B46" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D46" s="36" t="s">
@@ -4779,13 +4794,16 @@
       <c r="F46" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G46" s="37" t="s">
-        <v>183</v>
+      <c r="G46" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H46" s="35" t="s">
         <v>76</v>
       </c>
       <c r="I46" s="35"/>
+      <c r="J46" s="40" t="s">
+        <v>54</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -4797,7 +4815,7 @@
       <c r="B47" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D47" s="36" t="s">
@@ -4809,7 +4827,7 @@
       <c r="F47" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="37" t="s">
+      <c r="G47" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H47" s="35" t="s">
@@ -4827,7 +4845,7 @@
       <c r="B48" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D48" s="36" t="s">
@@ -4839,7 +4857,7 @@
       <c r="F48" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H48" s="35" t="s">
@@ -4857,7 +4875,7 @@
       <c r="B49" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D49" s="40" t="s">
@@ -4869,25 +4887,28 @@
       <c r="F49" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="39" t="s">
-        <v>183</v>
+      <c r="G49" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>77</v>
       </c>
       <c r="I49" s="38"/>
+      <c r="J49" s="36" t="s">
+        <v>250</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>194</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D50" s="40" t="s">
@@ -4899,22 +4920,25 @@
       <c r="F50" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="39" t="s">
-        <v>183</v>
+      <c r="G50" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>76</v>
       </c>
       <c r="I50" s="38"/>
-    </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="J50" s="36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>285</v>
       </c>
       <c r="B51" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -4926,13 +4950,16 @@
       <c r="F51" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="39" t="s">
-        <v>183</v>
+      <c r="G51" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H51" s="38" t="s">
         <v>77</v>
       </c>
       <c r="I51" s="38"/>
+      <c r="J51" s="36" t="s">
+        <v>250</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -4944,7 +4971,7 @@
       <c r="B52" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D52" s="36" t="s">
@@ -4956,7 +4983,7 @@
       <c r="F52" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H52" s="35" t="s">
@@ -4974,7 +5001,7 @@
       <c r="B53" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D53" s="36" t="s">
@@ -4986,7 +5013,7 @@
       <c r="F53" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H53" s="35" t="s">
@@ -5004,7 +5031,7 @@
       <c r="B54" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D54" s="40" t="s">
@@ -5016,8 +5043,8 @@
       <c r="F54" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="39" t="s">
-        <v>183</v>
+      <c r="G54" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>77</v>
@@ -5034,7 +5061,7 @@
       <c r="B55" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D55" s="40" t="s">
@@ -5046,8 +5073,8 @@
       <c r="F55" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="39" t="s">
-        <v>183</v>
+      <c r="G55" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>77</v>
@@ -5064,7 +5091,7 @@
       <c r="B56" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D56" s="36" t="s">
@@ -5076,7 +5103,7 @@
       <c r="F56" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H56" s="35" t="s">
@@ -5094,7 +5121,7 @@
       <c r="B57" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D57" s="36" t="s">
@@ -5106,7 +5133,7 @@
       <c r="F57" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H57" s="35" t="s">
@@ -5124,7 +5151,7 @@
       <c r="B58" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D58" s="40" t="s">
@@ -5136,8 +5163,8 @@
       <c r="F58" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="39" t="s">
-        <v>183</v>
+      <c r="G58" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>77</v>
@@ -5154,7 +5181,7 @@
       <c r="B59" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C59" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D59" s="40" t="s">
@@ -5166,8 +5193,8 @@
       <c r="F59" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="39" t="s">
-        <v>183</v>
+      <c r="G59" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>77</v>
@@ -5184,7 +5211,7 @@
       <c r="B60" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C60" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D60" s="36" t="s">
@@ -5196,7 +5223,7 @@
       <c r="F60" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H60" s="35" t="s">
@@ -5214,7 +5241,7 @@
       <c r="B61" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="C61" s="69" t="s">
+      <c r="C61" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D61" s="36" t="s">
@@ -5226,7 +5253,7 @@
       <c r="F61" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G61" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H61" s="35" t="s">
@@ -5244,7 +5271,7 @@
       <c r="B62" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C62" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D62" s="40" t="s">
@@ -5256,8 +5283,8 @@
       <c r="F62" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="39" t="s">
-        <v>183</v>
+      <c r="G62" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>77</v>
@@ -5274,7 +5301,7 @@
       <c r="B63" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C63" s="69" t="s">
+      <c r="C63" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D63" s="40" t="s">
@@ -5286,8 +5313,8 @@
       <c r="F63" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G63" s="39" t="s">
-        <v>183</v>
+      <c r="G63" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>76</v>
@@ -5301,7 +5328,7 @@
       <c r="B64" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C64" s="69" t="s">
+      <c r="C64" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D64" s="40" t="s">
@@ -5313,8 +5340,8 @@
       <c r="F64" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="39" t="s">
-        <v>183</v>
+      <c r="G64" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>77</v>
@@ -5331,7 +5358,7 @@
       <c r="B65" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D65" s="36" t="s">
@@ -5343,7 +5370,7 @@
       <c r="F65" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="G65" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H65" s="35" t="s">
@@ -5361,7 +5388,7 @@
       <c r="B66" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D66" s="36" t="s">
@@ -5373,7 +5400,7 @@
       <c r="F66" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H66" s="35" t="s">
@@ -5391,7 +5418,7 @@
       <c r="B67" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C67" s="69" t="s">
+      <c r="C67" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D67" s="40" t="s">
@@ -5403,8 +5430,8 @@
       <c r="F67" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="39" t="s">
-        <v>183</v>
+      <c r="G67" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>77</v>
@@ -5421,7 +5448,7 @@
       <c r="B68" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D68" s="36" t="s">
@@ -5433,7 +5460,7 @@
       <c r="F68" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G68" s="39" t="s">
+      <c r="G68" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H68" s="35" t="s">
@@ -5451,7 +5478,7 @@
       <c r="B69" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C69" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D69" s="40" t="s">
@@ -5463,8 +5490,8 @@
       <c r="F69" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="39" t="s">
-        <v>183</v>
+      <c r="G69" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>77</v>
@@ -5478,7 +5505,7 @@
       <c r="B70" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="C70" s="69" t="s">
+      <c r="C70" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D70" s="40" t="s">
@@ -5488,10 +5515,10 @@
         <v>418</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>183</v>
+        <v>464</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>77</v>
@@ -5505,7 +5532,7 @@
       <c r="B71" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="C71" s="69" t="s">
+      <c r="C71" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D71" s="40" t="s">
@@ -5515,10 +5542,10 @@
         <v>418</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>183</v>
+        <v>464</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>77</v>
@@ -5532,7 +5559,7 @@
       <c r="B72" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="C72" s="69" t="s">
+      <c r="C72" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D72" s="40" t="s">
@@ -5542,10 +5569,10 @@
         <v>418</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>183</v>
+        <v>464</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>77</v>
@@ -5559,7 +5586,7 @@
       <c r="B73" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="C73" s="69" t="s">
+      <c r="C73" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D73" s="40" t="s">
@@ -5571,8 +5598,8 @@
       <c r="F73" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="39" t="s">
-        <v>183</v>
+      <c r="G73" s="41" t="s">
+        <v>327</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>77</v>
@@ -5586,7 +5613,7 @@
       <c r="B74" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C74" s="69" t="s">
+      <c r="C74" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D74" s="40" t="s">
@@ -5596,9 +5623,9 @@
         <v>418</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G74" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="G74" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H74" s="38" t="s">
@@ -5613,7 +5640,7 @@
       <c r="B75" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C75" s="69" t="s">
+      <c r="C75" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D75" s="40" t="s">
@@ -5623,9 +5650,9 @@
         <v>418</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G75" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="G75" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H75" s="38" t="s">
@@ -5640,7 +5667,7 @@
       <c r="B76" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C76" s="69" t="s">
+      <c r="C76" s="53" t="s">
         <v>417</v>
       </c>
       <c r="D76" s="40" t="s">
@@ -5650,9 +5677,9 @@
         <v>418</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G76" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="G76" s="55" t="s">
         <v>183</v>
       </c>
       <c r="H76" s="38" t="s">
@@ -5662,7 +5689,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63:G64 G46:G50 G5:G42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G76">
       <formula1>"Passed,Failed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5759,452 +5786,452 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" s="63" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="1:11" s="47" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-    </row>
-    <row r="8" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-    </row>
-    <row r="10" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-    </row>
-    <row r="11" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="E12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="14" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="60" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="E15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="60" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-    </row>
-    <row r="17" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="60" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-    </row>
-    <row r="18" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="60" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-    </row>
-    <row r="19" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="60" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+    </row>
+    <row r="20" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-    </row>
-    <row r="21" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="60" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-    </row>
-    <row r="22" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="60" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-    </row>
-    <row r="23" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+    </row>
+    <row r="23" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="60" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="60" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="60" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+    </row>
+    <row r="26" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="60" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
@@ -7098,15 +7125,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -7172,15 +7199,15 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -7246,15 +7273,15 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -7425,15 +7452,15 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -7619,15 +7646,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -7723,15 +7750,15 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -7833,15 +7860,15 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -8135,15 +8162,15 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -1958,7 +1958,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,6 +2165,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3560,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,13 +4692,13 @@
       <c r="B43" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F43" s="36" t="s">
@@ -4722,13 +4725,13 @@
       <c r="B44" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F44" s="36" t="s">
@@ -4782,13 +4785,13 @@
       <c r="B46" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F46" s="36" t="s">
@@ -4815,13 +4818,13 @@
       <c r="B47" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F47" s="36" t="s">
@@ -4845,13 +4848,13 @@
       <c r="B48" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F48" s="36" t="s">
@@ -4971,13 +4974,13 @@
       <c r="B52" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F52" s="36" t="s">
@@ -5001,13 +5004,13 @@
       <c r="B53" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F53" s="36" t="s">
@@ -5091,13 +5094,13 @@
       <c r="B56" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F56" s="36" t="s">
@@ -5121,13 +5124,13 @@
       <c r="B57" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F57" s="36" t="s">
@@ -5211,13 +5214,13 @@
       <c r="B60" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F60" s="36" t="s">
@@ -5241,13 +5244,13 @@
       <c r="B61" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D61" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F61" s="36" t="s">
@@ -5358,13 +5361,13 @@
       <c r="B65" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F65" s="36" t="s">
@@ -5388,13 +5391,13 @@
       <c r="B66" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F66" s="36" t="s">
@@ -5448,13 +5451,13 @@
       <c r="B68" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D68" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="35" t="s">
         <v>418</v>
       </c>
       <c r="F68" s="36" t="s">

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="471">
   <si>
     <t>ID</t>
   </si>
@@ -1625,6 +1625,24 @@
   </si>
   <si>
     <t>Под кнопкой "Submit" отображается сообщение "Error: Error: All Fields are Required" и подсвечивается красной тенью</t>
+  </si>
+  <si>
+    <t>T-7</t>
+  </si>
+  <si>
+    <t>T-8</t>
+  </si>
+  <si>
+    <t>T-9</t>
+  </si>
+  <si>
+    <t>T-10</t>
+  </si>
+  <si>
+    <t>RF-14</t>
+  </si>
+  <si>
+    <t>F-18</t>
   </si>
 </sst>
 </file>
@@ -2629,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:F73"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,7 +3028,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>80</v>
@@ -3021,7 +3039,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>463</v>
@@ -3031,8 +3049,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>88</v>
+      <c r="A39" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>85</v>
@@ -3042,8 +3060,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>382</v>
+      <c r="A40" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>89</v>
@@ -3563,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,7 +3670,7 @@
         <v>327</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="45"/>
@@ -3679,7 +3697,7 @@
         <v>327</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="45"/>
@@ -3708,7 +3726,7 @@
         <v>327</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="45"/>
@@ -3736,7 +3754,9 @@
       <c r="G8" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="42" t="s">
+        <v>465</v>
+      </c>
       <c r="I8" s="42"/>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
@@ -3763,7 +3783,9 @@
       <c r="G9" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="42" t="s">
+        <v>466</v>
+      </c>
       <c r="I9" s="42"/>
       <c r="J9" s="45"/>
       <c r="K9" s="46"/>
@@ -3790,7 +3812,9 @@
       <c r="G10" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="42"/>
+      <c r="H10" s="42" t="s">
+        <v>467</v>
+      </c>
       <c r="I10" s="42"/>
       <c r="J10" s="45"/>
       <c r="K10" s="46"/>
@@ -3817,7 +3841,9 @@
       <c r="G11" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="42"/>
+      <c r="H11" s="42" t="s">
+        <v>468</v>
+      </c>
       <c r="I11" s="42"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -3844,7 +3870,9 @@
       <c r="G12" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="42" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="42"/>
       <c r="J12" s="45"/>
       <c r="K12" s="46"/>
@@ -3871,7 +3899,9 @@
       <c r="G13" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H13" s="42"/>
+      <c r="H13" s="42" t="s">
+        <v>40</v>
+      </c>
       <c r="I13" s="42"/>
       <c r="J13" s="45"/>
       <c r="K13" s="46"/>
@@ -3898,7 +3928,9 @@
       <c r="G14" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="I14" s="42"/>
       <c r="J14" s="45"/>
       <c r="K14" s="46"/>
@@ -3925,7 +3957,9 @@
       <c r="G15" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="I15" s="42"/>
       <c r="J15" s="45"/>
       <c r="K15" s="46"/>
@@ -3952,7 +3986,9 @@
       <c r="G16" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H16" s="42"/>
+      <c r="H16" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="I16" s="42"/>
       <c r="J16" s="45"/>
       <c r="K16" s="46"/>
@@ -3979,7 +4015,9 @@
       <c r="G17" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="I17" s="42"/>
       <c r="J17" s="45"/>
       <c r="K17" s="46"/>
@@ -4006,7 +4044,9 @@
       <c r="G18" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="I18" s="42"/>
       <c r="J18" s="45"/>
       <c r="K18" s="46"/>
@@ -4033,7 +4073,9 @@
       <c r="G19" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H19" s="42"/>
+      <c r="H19" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="I19" s="42"/>
       <c r="J19" s="45"/>
       <c r="K19" s="46"/>
@@ -4060,7 +4102,9 @@
       <c r="G20" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="42"/>
+      <c r="H20" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="I20" s="42"/>
       <c r="J20" s="45"/>
       <c r="K20" s="46"/>
@@ -4087,7 +4131,9 @@
       <c r="G21" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="42"/>
+      <c r="H21" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="I21" s="42"/>
       <c r="J21" s="45"/>
       <c r="K21" s="46"/>
@@ -4114,7 +4160,9 @@
       <c r="G22" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="42"/>
+      <c r="H22" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" s="42"/>
       <c r="J22" s="45"/>
       <c r="K22" s="46"/>
@@ -4141,7 +4189,9 @@
       <c r="G23" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H23" s="42"/>
+      <c r="H23" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="I23" s="42"/>
       <c r="J23" s="45"/>
       <c r="K23" s="46"/>
@@ -4170,7 +4220,9 @@
       <c r="G24" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="42"/>
+      <c r="H24" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="I24" s="42"/>
       <c r="J24" s="45"/>
       <c r="K24" s="46"/>
@@ -4199,7 +4251,9 @@
       <c r="G25" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="42"/>
+      <c r="H25" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="I25" s="42"/>
       <c r="J25" s="45"/>
       <c r="K25" s="46"/>
@@ -4228,7 +4282,9 @@
       <c r="G26" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="I26" s="42"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
@@ -4257,7 +4313,9 @@
       <c r="G27" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="42"/>
+      <c r="H27" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="I27" s="42"/>
       <c r="J27" s="45"/>
       <c r="K27" s="46"/>
@@ -4286,7 +4344,9 @@
       <c r="G28" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H28" s="42"/>
+      <c r="H28" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="I28" s="42"/>
       <c r="J28" s="45"/>
       <c r="K28" s="46"/>
@@ -4315,7 +4375,9 @@
       <c r="G29" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H29" s="42"/>
+      <c r="H29" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="I29" s="42"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46"/>
@@ -4344,7 +4406,9 @@
       <c r="G30" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="42"/>
+      <c r="H30" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="I30" s="42"/>
       <c r="J30" s="45"/>
       <c r="K30" s="46"/>
@@ -4373,7 +4437,9 @@
       <c r="G31" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H31" s="42"/>
+      <c r="H31" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="I31" s="42"/>
       <c r="J31" s="45"/>
       <c r="K31" s="46"/>
@@ -4402,7 +4468,9 @@
       <c r="G32" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H32" s="42"/>
+      <c r="H32" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="I32" s="42"/>
       <c r="J32" s="45"/>
       <c r="K32" s="46"/>
@@ -4431,7 +4499,9 @@
       <c r="G33" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H33" s="42"/>
+      <c r="H33" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="I33" s="42"/>
       <c r="J33" s="45"/>
       <c r="K33" s="46"/>
@@ -4460,7 +4530,9 @@
       <c r="G34" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H34" s="42"/>
+      <c r="H34" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="I34" s="42"/>
       <c r="J34" s="45"/>
       <c r="K34" s="46"/>
@@ -4489,7 +4561,9 @@
       <c r="G35" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="42"/>
+      <c r="H35" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="I35" s="42"/>
       <c r="J35" s="45"/>
       <c r="K35" s="46"/>
@@ -4516,7 +4590,9 @@
       <c r="G36" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="I36" s="42"/>
       <c r="J36" s="45"/>
       <c r="K36" s="46"/>
@@ -4543,7 +4619,9 @@
       <c r="G37" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H37" s="42"/>
+      <c r="H37" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="I37" s="42"/>
       <c r="J37" s="45"/>
       <c r="K37" s="46"/>
@@ -4570,7 +4648,9 @@
       <c r="G38" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="42" t="s">
+        <v>78</v>
+      </c>
       <c r="I38" s="42"/>
       <c r="J38" s="45"/>
       <c r="K38" s="46"/>
@@ -4597,7 +4677,9 @@
       <c r="G39" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="42"/>
+      <c r="H39" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="I39" s="42"/>
       <c r="J39" s="45"/>
       <c r="K39" s="46"/>
@@ -4606,7 +4688,7 @@
     </row>
     <row r="40" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>414</v>
@@ -4624,7 +4706,9 @@
       <c r="G40" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="42" t="s">
+        <v>82</v>
+      </c>
       <c r="I40" s="42"/>
       <c r="J40" s="45"/>
       <c r="K40" s="46"/>
@@ -4651,7 +4735,9 @@
       <c r="G41" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="H41" s="42"/>
+      <c r="H41" s="42" t="s">
+        <v>470</v>
+      </c>
       <c r="I41" s="42"/>
       <c r="J41" s="45"/>
       <c r="K41" s="46"/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="549">
   <si>
     <t>ID</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Подсвечивается/меняет цвет на темно-зеленый, появляется курсорпоинтер</t>
   </si>
   <si>
-    <t>Ввод максимально допустимого количества символов</t>
-  </si>
-  <si>
     <t>При необходимости поле расширяется</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>E-9</t>
   </si>
   <si>
-    <t>Your email address. *</t>
-  </si>
-  <si>
     <t>Обязательна</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
   </si>
   <si>
     <t>P-10</t>
-  </si>
-  <si>
-    <t>Enter a password. *</t>
   </si>
   <si>
     <t>OS</t>
@@ -1644,21 +1635,6 @@
     <t>1. Нажать кнопку "Обновить"</t>
   </si>
   <si>
-    <t>Кнопка подсвечивается? , запрос отправляется на сервер</t>
-  </si>
-  <si>
-    <t>Нажатие кнопки Enter, когда фокус находится в одном из полей или на кнопке Submit</t>
-  </si>
-  <si>
-    <t>Нажатие кнопки Enter, когда фокус не находится ни в одном из полей или на кнопке Submit</t>
-  </si>
-  <si>
-    <t>F-14/2</t>
-  </si>
-  <si>
-    <t>F-14/1</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -1706,194 +1682,212 @@
 Имя домена (после последней . ) - 16</t>
   </si>
   <si>
-    <t>нет Допустимы буквы только в нижнем регистре</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя почтового ящика (до @): латинские буквы, арабские цифры, символы: " . ", " - " тире/днфис
-Имя домена (после @ и до последней . ): латинские буквы, арабские цифры, символы: " . ", " - "
+    <t>Registration form</t>
+  </si>
+  <si>
+    <t>Должна присутствовать как минимум 1 буква в верхнем регистре, 1 в нижнем</t>
+  </si>
+  <si>
+    <t>Поле подсвечивается голубой тенью, курсор мигает, плейсхолдер пропадает</t>
+  </si>
+  <si>
+    <t>Отправка всех невалидных данных</t>
+  </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Error! All Fields are Required" и поля подсвечиваются красной тенью</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Password: "Password *"</t>
+  </si>
+  <si>
+    <t>Email: "Email  *"</t>
+  </si>
+  <si>
+    <t>RF-1</t>
+  </si>
+  <si>
+    <t>1.  Нажать клавишу F12
+2. Перейти во вкладку Security</t>
+  </si>
+  <si>
+    <t>B-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фавикон страницы       , а следует </t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>B-3</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; на вкладке страницы  называется "Demo Form", а следует "Registration form"</t>
+  </si>
+  <si>
+    <t>&lt;header&gt;  на странице называется "ITCareerToday web form", а следует "Registration form"</t>
+  </si>
+  <si>
+    <t>B-4</t>
+  </si>
+  <si>
+    <t>Протокол передачи данных не является защищенным</t>
+  </si>
+  <si>
+    <t>https протокол</t>
+  </si>
+  <si>
+    <t>http протокол</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B-5</t>
+  </si>
+  <si>
+    <t>"Email *"</t>
+  </si>
+  <si>
+    <t>"Password *"</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Name "Name?", а следует "Name *"</t>
+  </si>
+  <si>
+    <t>Name?</t>
+  </si>
+  <si>
+    <t>B-6</t>
+  </si>
+  <si>
+    <t>Surname?</t>
+  </si>
+  <si>
+    <t>B-7</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Surname "Surname?", а следует "Surname"</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Email "Your email address.", а следует "Email *"</t>
+  </si>
+  <si>
+    <t>Your email address.</t>
+  </si>
+  <si>
+    <t>Email *</t>
+  </si>
+  <si>
+    <t>Плейсхолдер поля Password "Enter a password.", а следует "Password *"</t>
+  </si>
+  <si>
+    <t>Enter a password.</t>
+  </si>
+  <si>
+    <t>Password *</t>
+  </si>
+  <si>
+    <t>B-8</t>
+  </si>
+  <si>
+    <t>B-9</t>
+  </si>
+  <si>
+    <t>Заголовок второго поля "Surame:", а следует "Surname:"</t>
+  </si>
+  <si>
+    <t>Surname:</t>
+  </si>
+  <si>
+    <t>1. Проверить фавикон вкладки браузера</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>B-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Name не подсвечивается голубой тенью при наведении на него курсора </t>
+  </si>
+  <si>
+    <t>Поле не изменяет свое состояние при наведении курсора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Surname не подсвечивается голубой тенью при наведении на него курсора </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Email не подсвечивается голубой тенью при наведении на него курсора </t>
+  </si>
+  <si>
+    <t>B-11</t>
+  </si>
+  <si>
+    <t>B-12</t>
+  </si>
+  <si>
+    <t>B-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле Password не подсвечивается голубой тенью при наведении на него курсора </t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>Кнопка меняет цвет на темно-зеленый , запрос отправляется на сервер</t>
+  </si>
+  <si>
+    <t>Ввод данных в поле Password</t>
+  </si>
+  <si>
+    <t>Данные отображаются буллитами</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки Enter</t>
+  </si>
+  <si>
+    <t>Валидация не проводится</t>
+  </si>
+  <si>
+    <t>Нажатие кнопки "Обновить"  при заполненных полях</t>
+  </si>
+  <si>
+    <t>Уведомление об отсутствии Интернета не отображается</t>
+  </si>
+  <si>
+    <t>Ограничение поколичеству вводимых символов в поле</t>
+  </si>
+  <si>
+    <t>F-19</t>
+  </si>
+  <si>
+    <t>F-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя почтового ящика (до @): латинские буквы, арабские цифры, символы: " . ", " - " (тире/дефис)
+Имя домена (после @ и до последней . ): латинские буквы, арабские цифры, символы: " . ", " - "(тире/дефис)
 Имя домена (после последней . ): латинские буквы
 Примечание: запрещено введение 2 и более символов подряд, а также расположение символов в начале и в конце поля </t>
   </si>
   <si>
-    <t>Registration form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латинские буквы, арабские цифры, "@"
+    <t xml:space="preserve">Латинские буквы, арабские цифры, "@", "!", "."
 Примечание:  
 1.В поле обязательно должны присутствовать: 1 буква в вернем регистре, 1 в нижнем 1 цифра, @!. один из символов обязательный
 </t>
   </si>
   <si>
-    <t>Должна присутствовать как минимум 1 буква в верхнем регистре, 1 в нижнем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пароль закрывается </t>
-  </si>
-  <si>
-    <t>Поле подсвечивается голубой тенью, курсор мигает, плейсхолдер пропадает</t>
-  </si>
-  <si>
-    <t>закрывается буллитами</t>
-  </si>
-  <si>
-    <t>ограничение по вводу символов</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
-    <t>Отправка всех невалидных данных</t>
-  </si>
-  <si>
-    <t>Под кнопкой "Submit" отображается сообщение "Error! All Fields are Required" и поля подсвечиваются красной тенью</t>
-  </si>
-  <si>
-    <t>Ничего не изменится</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Password: "Password *"</t>
-  </si>
-  <si>
-    <t>Email: "Email  *"</t>
-  </si>
-  <si>
-    <t>RF-1</t>
-  </si>
-  <si>
-    <t>1.  Нажать клавишу F12
-2. Перейти во вкладку Security</t>
-  </si>
-  <si>
-    <t>B-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фавикон страницы       , а следует </t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>B-3</t>
-  </si>
-  <si>
-    <t>&lt;title&gt; на вкладке страницы  называется "Demo Form", а следует "Registration form"</t>
-  </si>
-  <si>
-    <t>&lt;header&gt;  на странице называется "ITCareerToday web form", а следует "Registration form"</t>
-  </si>
-  <si>
-    <t>B-4</t>
-  </si>
-  <si>
-    <t>Протокол передачи данных не является защищенным</t>
-  </si>
-  <si>
-    <t>https протокол</t>
-  </si>
-  <si>
-    <t>http протокол</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B-5</t>
-  </si>
-  <si>
-    <t>"Email *"</t>
-  </si>
-  <si>
-    <t>"Password *"</t>
-  </si>
-  <si>
-    <t>Плейсхолдер поля Name "Name?", а следует "Name *"</t>
-  </si>
-  <si>
-    <t>Name?</t>
-  </si>
-  <si>
-    <t>B-6</t>
-  </si>
-  <si>
-    <t>Surname?</t>
-  </si>
-  <si>
-    <t>B-7</t>
-  </si>
-  <si>
-    <t>Плейсхолдер поля Surname "Surname?", а следует "Surname"</t>
-  </si>
-  <si>
-    <t>Плейсхолдер поля Email "Your email address.", а следует "Email *"</t>
-  </si>
-  <si>
-    <t>Your email address.</t>
-  </si>
-  <si>
-    <t>Email *</t>
-  </si>
-  <si>
-    <t>Плейсхолдер поля Password "Enter a password.", а следует "Password *"</t>
-  </si>
-  <si>
-    <t>Enter a password.</t>
-  </si>
-  <si>
-    <t>Password *</t>
-  </si>
-  <si>
-    <t>B-8</t>
-  </si>
-  <si>
-    <t>B-9</t>
-  </si>
-  <si>
-    <t>Заголовок второго поля "Surame:", а следует "Surname:"</t>
-  </si>
-  <si>
-    <t>Surname:</t>
-  </si>
-  <si>
-    <t>1. Проверить фавикон вкладки браузера</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>B-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Name не подсвечивается голубой тенью при наведении на него курсора </t>
-  </si>
-  <si>
-    <t>Поле не изменяет свое состояние при наведении курсора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Surname не подсвечивается голубой тенью при наведении на него курсора </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Email не подсвечивается голубой тенью при наведении на него курсора </t>
-  </si>
-  <si>
-    <t>B-11</t>
-  </si>
-  <si>
-    <t>B-12</t>
-  </si>
-  <si>
-    <t>B-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поле Password не подсвечивается голубой тенью при наведении на него курсора </t>
-  </si>
-  <si>
-    <t>B11</t>
+    <t>Ввод строки длиной больше, чем длина самого поля</t>
+  </si>
+  <si>
+    <t>По мере ввода строка сдвигается влево и отображаются последние введенные символы</t>
   </si>
 </sst>
 </file>
@@ -2415,9 +2409,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2433,61 +2424,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2538,6 +2478,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3453,10 +3447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,11 +3461,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="A1" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -3488,7 +3482,7 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3499,7 +3493,7 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3508,7 +3502,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -3517,7 +3511,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
@@ -3526,7 +3520,7 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="87" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -3537,7 +3531,7 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -3546,7 +3540,7 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3578,7 +3572,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>46</v>
@@ -3597,10 +3591,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="89"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3610,14 +3604,14 @@
         <v>30</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="87" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -3628,7 +3622,7 @@
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
@@ -3637,7 +3631,7 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
@@ -3646,7 +3640,7 @@
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="96" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -3657,7 +3651,7 @@
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -3666,18 +3660,18 @@
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="12" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="12" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3685,7 +3679,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>56</v>
@@ -3696,13 +3690,13 @@
         <v>55</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -3710,7 +3704,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>61</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3718,268 +3712,278 @@
         <v>59</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>547</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>72</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>62</v>
+      <c r="B28" s="61" t="s">
+        <v>536</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>63</v>
+      <c r="B29" s="61" t="s">
+        <v>542</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>471</v>
+        <v>82</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>474</v>
+        <v>86</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>471</v>
+        <v>538</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>87</v>
+        <v>458</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>373</v>
+        <v>543</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>88</v>
+        <v>544</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>497</v>
-      </c>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="91"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="61" t="s">
-        <v>498</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79" t="s">
+      <c r="A44" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>33</v>
+      <c r="A46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>112</v>
@@ -3987,309 +3991,309 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="88" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="62" t="s">
+      <c r="C54" s="89"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="63"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>116</v>
+      <c r="A57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>123</v>
+      <c r="A63" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="64" t="s">
+      <c r="C65" s="93"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="65"/>
+      <c r="B66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>34</v>
+      <c r="A68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>136</v>
+        <v>100</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="B76" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="94" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="95"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>489</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="66" t="s">
+      <c r="A79" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="67"/>
+      <c r="B79" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4297,10 +4301,10 @@
         <v>149</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,10 +4312,10 @@
         <v>150</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,90 +4323,68 @@
         <v>151</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C86" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="12">
+        <v>104</v>
+      </c>
+      <c r="C87" s="12">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4415,7 +4397,7 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4435,20 +4417,20 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1" s="50"/>
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="50"/>
       <c r="F2" s="34"/>
@@ -4458,54 +4440,54 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="H4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="42" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="95" t="str">
+      <c r="I5" s="77" t="str">
         <f>'Баг-репорты'!B4</f>
         <v>B-1</v>
       </c>
@@ -4516,27 +4498,27 @@
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="42" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="97" t="s">
-        <v>508</v>
+      <c r="I6" s="79" t="s">
+        <v>492</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="46"/>
@@ -4544,30 +4526,30 @@
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
-        <v>506</v>
+      <c r="A7" s="78" t="s">
+        <v>490</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="42" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="95" t="s">
-        <v>511</v>
+      <c r="I7" s="77" t="s">
+        <v>495</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
@@ -4576,29 +4558,29 @@
     </row>
     <row r="8" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="42" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="95" t="s">
-        <v>519</v>
+      <c r="I8" s="77" t="s">
+        <v>503</v>
       </c>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
@@ -4607,26 +4589,26 @@
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="42" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="45"/>
@@ -4636,29 +4618,29 @@
     </row>
     <row r="10" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="42" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="I10" s="95" t="s">
-        <v>536</v>
+        <v>454</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>520</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="46"/>
@@ -4667,26 +4649,26 @@
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="45"/>
@@ -4696,26 +4678,26 @@
     </row>
     <row r="12" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="45"/>
@@ -4725,29 +4707,29 @@
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="42" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="95" t="s">
-        <v>520</v>
+      <c r="I13" s="77" t="s">
+        <v>504</v>
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="46"/>
@@ -4756,29 +4738,29 @@
     </row>
     <row r="14" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="42" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="95" t="s">
-        <v>525</v>
+      <c r="I14" s="77" t="s">
+        <v>509</v>
       </c>
       <c r="J14" s="45"/>
       <c r="K14" s="46"/>
@@ -4787,29 +4769,29 @@
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H15" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="95" t="s">
-        <v>527</v>
+      <c r="I15" s="77" t="s">
+        <v>511</v>
       </c>
       <c r="J15" s="45"/>
       <c r="K15" s="46"/>
@@ -4818,29 +4800,29 @@
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="42" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="95" t="s">
-        <v>535</v>
+      <c r="I16" s="77" t="s">
+        <v>519</v>
       </c>
       <c r="J16" s="45"/>
       <c r="K16" s="46"/>
@@ -4849,29 +4831,29 @@
     </row>
     <row r="17" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="42" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="95" t="s">
-        <v>541</v>
+      <c r="I17" s="77" t="s">
+        <v>525</v>
       </c>
       <c r="J17" s="45"/>
       <c r="K17" s="46"/>
@@ -4880,29 +4862,29 @@
     </row>
     <row r="18" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="42" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F18" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="95" t="s">
-        <v>550</v>
+      <c r="I18" s="77" t="s">
+        <v>534</v>
       </c>
       <c r="J18" s="45"/>
       <c r="K18" s="46"/>
@@ -4911,29 +4893,29 @@
     </row>
     <row r="19" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="95" t="s">
-        <v>547</v>
+      <c r="I19" s="77" t="s">
+        <v>531</v>
       </c>
       <c r="J19" s="45"/>
       <c r="K19" s="46"/>
@@ -4942,29 +4924,29 @@
     </row>
     <row r="20" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="42" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H20" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="95" t="s">
-        <v>548</v>
+      <c r="I20" s="77" t="s">
+        <v>532</v>
       </c>
       <c r="J20" s="45"/>
       <c r="K20" s="46"/>
@@ -4973,23 +4955,23 @@
     </row>
     <row r="21" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="42" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H21" s="42" t="s">
         <v>55</v>
@@ -5002,23 +4984,23 @@
     </row>
     <row r="22" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="42" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H22" s="42" t="s">
         <v>55</v>
@@ -5031,23 +5013,23 @@
     </row>
     <row r="23" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>55</v>
@@ -5060,23 +5042,23 @@
     </row>
     <row r="24" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="42" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H24" s="42" t="s">
         <v>55</v>
@@ -5089,25 +5071,25 @@
     </row>
     <row r="25" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H25" s="42" t="s">
         <v>57</v>
@@ -5120,25 +5102,25 @@
     </row>
     <row r="26" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>415</v>
-      </c>
       <c r="C26" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F26" s="44" t="s">
         <v>61</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H26" s="42" t="s">
         <v>57</v>
@@ -5151,25 +5133,25 @@
     </row>
     <row r="27" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="C27" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>61</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H27" s="42" t="s">
         <v>57</v>
@@ -5182,25 +5164,25 @@
     </row>
     <row r="28" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="C28" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D28" s="44">
         <v>111111</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F28" s="44" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H28" s="42" t="s">
         <v>57</v>
@@ -5213,25 +5195,25 @@
     </row>
     <row r="29" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F29" s="44" t="s">
         <v>58</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H29" s="42" t="s">
         <v>59</v>
@@ -5244,25 +5226,25 @@
     </row>
     <row r="30" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F30" s="44" t="s">
         <v>58</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H30" s="42" t="s">
         <v>59</v>
@@ -5275,25 +5257,25 @@
     </row>
     <row r="31" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>439</v>
+        <v>377</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>436</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F31" s="44" t="s">
         <v>58</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H31" s="42" t="s">
         <v>59</v>
@@ -5306,25 +5288,25 @@
     </row>
     <row r="32" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>440</v>
+        <v>377</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>437</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F32" s="44" t="s">
         <v>58</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H32" s="42" t="s">
         <v>59</v>
@@ -5337,25 +5319,25 @@
     </row>
     <row r="33" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H33" s="42" t="s">
         <v>64</v>
@@ -5368,25 +5350,25 @@
     </row>
     <row r="34" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D34" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>453</v>
-      </c>
       <c r="F34" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H34" s="42" t="s">
         <v>64</v>
@@ -5399,25 +5381,25 @@
     </row>
     <row r="35" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>451</v>
+        <v>377</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>448</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H35" s="42" t="s">
         <v>64</v>
@@ -5430,25 +5412,25 @@
     </row>
     <row r="36" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>452</v>
+        <v>377</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>449</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H36" s="42" t="s">
         <v>64</v>
@@ -5461,23 +5443,23 @@
     </row>
     <row r="37" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="42" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H37" s="42" t="s">
         <v>65</v>
@@ -5490,23 +5472,23 @@
     </row>
     <row r="38" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="42" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H38" s="42" t="s">
         <v>66</v>
@@ -5519,26 +5501,26 @@
     </row>
     <row r="39" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D39" s="44"/>
       <c r="E39" s="42" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="45"/>
@@ -5548,26 +5530,26 @@
     </row>
     <row r="40" spans="1:13" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="45"/>
@@ -5577,26 +5559,26 @@
     </row>
     <row r="41" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="45"/>
@@ -5606,25 +5588,25 @@
     </row>
     <row r="42" spans="1:13" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="G42" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
@@ -5635,25 +5617,25 @@
     </row>
     <row r="43" spans="1:13" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>469</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>470</v>
-      </c>
       <c r="F43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H43" s="42"/>
       <c r="I43" s="42"/>
@@ -5662,49 +5644,49 @@
       <c r="L43" s="46"/>
       <c r="M43" s="46"/>
     </row>
-    <row r="44" spans="1:13" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
-        <v>468</v>
-      </c>
-      <c r="B44" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
+    <row r="44" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
     </row>
     <row r="45" spans="1:13" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D45" s="44"/>
       <c r="E45" s="42" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H45" s="42" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="45"/>
@@ -5714,55 +5696,55 @@
     </row>
     <row r="46" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F46" s="38" t="s">
         <v>51</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:13" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B47" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D47" s="36" t="s">
+      <c r="E47" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>232</v>
-      </c>
       <c r="G47" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="38" t="s">
@@ -5774,28 +5756,28 @@
     </row>
     <row r="48" spans="1:13" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B48" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D48" s="36" t="s">
+      <c r="E48" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>233</v>
-      </c>
       <c r="G48" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I48" s="35"/>
       <c r="K48" s="1"/>
@@ -5804,28 +5786,28 @@
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F49" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I49" s="38"/>
       <c r="K49" s="1"/>
@@ -5834,28 +5816,28 @@
     </row>
     <row r="50" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>408</v>
+        <v>232</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I50" s="35"/>
       <c r="J50" s="40" t="s">
@@ -5867,28 +5849,28 @@
     </row>
     <row r="51" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B51" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>239</v>
-      </c>
       <c r="E51" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G51" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I51" s="35"/>
       <c r="K51" s="1"/>
@@ -5897,28 +5879,28 @@
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="59" t="s">
-        <v>408</v>
+        <v>234</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G52" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52" s="35"/>
       <c r="K52" s="1"/>
@@ -5927,32 +5909,32 @@
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F53" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -5960,62 +5942,62 @@
     </row>
     <row r="54" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F55" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I55" s="38"/>
       <c r="J55" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -6023,28 +6005,28 @@
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>408</v>
+        <v>252</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G56" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I56" s="35"/>
       <c r="K56" s="1"/>
@@ -6053,28 +6035,28 @@
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>408</v>
+        <v>254</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G57" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57" s="35"/>
       <c r="K57" s="1"/>
@@ -6083,28 +6065,28 @@
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F58" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I58" s="38"/>
       <c r="K58" s="1"/>
@@ -6113,28 +6095,28 @@
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F59" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I59" s="38"/>
       <c r="K59" s="1"/>
@@ -6143,28 +6125,28 @@
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>408</v>
+        <v>257</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G60" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I60" s="35"/>
       <c r="K60" s="1"/>
@@ -6173,28 +6155,28 @@
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>408</v>
+        <v>258</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G61" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I61" s="35"/>
       <c r="K61" s="1"/>
@@ -6203,28 +6185,28 @@
     </row>
     <row r="62" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F62" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I62" s="38"/>
       <c r="K62" s="1"/>
@@ -6233,28 +6215,28 @@
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F63" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I63" s="38"/>
       <c r="K63" s="1"/>
@@ -6263,28 +6245,28 @@
     </row>
     <row r="64" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>408</v>
+        <v>261</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D64" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I64" s="35"/>
       <c r="K64" s="1"/>
@@ -6293,28 +6275,28 @@
     </row>
     <row r="65" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>408</v>
+        <v>262</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G65" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I65" s="35"/>
       <c r="K65" s="1"/>
@@ -6323,28 +6305,28 @@
     </row>
     <row r="66" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F66" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I66" s="38"/>
       <c r="K66" s="1"/>
@@ -6353,55 +6335,55 @@
     </row>
     <row r="67" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>51</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I67" s="38"/>
     </row>
     <row r="68" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I68" s="38"/>
       <c r="K68" s="1"/>
@@ -6410,28 +6392,28 @@
     </row>
     <row r="69" spans="1:13" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>408</v>
+        <v>241</v>
+      </c>
+      <c r="C69" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I69" s="35"/>
       <c r="K69" s="1"/>
@@ -6440,28 +6422,28 @@
     </row>
     <row r="70" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B70" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="D70" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="C70" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>249</v>
-      </c>
       <c r="E70" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G70" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I70" s="35"/>
       <c r="K70" s="1"/>
@@ -6470,28 +6452,28 @@
     </row>
     <row r="71" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F71" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I71" s="38"/>
       <c r="K71" s="1"/>
@@ -6500,28 +6482,28 @@
     </row>
     <row r="72" spans="1:13" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>408</v>
+        <v>288</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G72" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I72" s="35"/>
       <c r="K72" s="1"/>
@@ -6530,217 +6512,217 @@
     </row>
     <row r="73" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F73" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I73" s="38"/>
     </row>
     <row r="74" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I75" s="38"/>
     </row>
     <row r="76" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I76" s="38"/>
     </row>
     <row r="77" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F77" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I77" s="38"/>
     </row>
     <row r="78" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G78" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I78" s="38"/>
     </row>
     <row r="79" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F79" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G79" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I79" s="38"/>
     </row>
     <row r="80" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G80" s="55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I80" s="38"/>
     </row>
@@ -6783,7 +6765,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$89</xm:f>
+            <xm:f>Требования!$A$3:$A$87</xm:f>
           </x14:formula1>
           <xm:sqref>H5:H80</xm:sqref>
         </x14:dataValidation>
@@ -6797,1055 +6779,1055 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="92" customWidth="1"/>
-    <col min="2" max="2" width="62" style="92" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="62" style="74" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="70"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="B9" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="70"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="98" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="88"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="88"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>484</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="91" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" s="72" t="s">
         <v>477</v>
       </c>
-      <c r="E10" s="88"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="73" t="s">
         <v>478</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="91" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13" s="75" t="s">
         <v>479</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>487</v>
-      </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="B14" s="91"/>
+      <c r="A14" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="73"/>
       <c r="C14" s="47"/>
-      <c r="D14" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="E14" s="88"/>
+      <c r="D14" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>497</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="72"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E26" s="72"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="72"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>508</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>479</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E38" s="72"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="72" t="s">
         <v>511</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D40" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E40" s="72" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="E41" s="80" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="73"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B46" s="73" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="E18" s="90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="90"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="91" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="E46" s="73" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B47" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="B22" s="91" t="s">
-        <v>483</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="91" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="E47" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B48" s="73" t="s">
+        <v>494</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B49" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="B24" s="91" t="s">
-        <v>486</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="91" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="E49" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="E24" s="90" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B25" s="98" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B50" s="73"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E50" s="73"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="D52" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="72" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E54" s="73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="73"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="73"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="73" t="s">
         <v>487</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="E25" s="93" t="s">
+      <c r="B56" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="73" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="E26" s="90"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="90" t="s">
-        <v>520</v>
-      </c>
-      <c r="D28" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>523</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E29" s="93" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="90"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E32" s="42" t="s">
+      <c r="E56" s="42" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>524</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="B35" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="E35" s="90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="91" t="s">
-        <v>479</v>
-      </c>
-      <c r="B36" s="91" t="s">
-        <v>510</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="91" t="s">
-        <v>479</v>
-      </c>
-      <c r="E36" s="90" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>487</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="E37" s="93" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="E38" s="90"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>527</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B41" s="98" t="s">
-        <v>529</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E41" s="98" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B42" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="E42" s="91" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="91"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="B46" s="91" t="s">
-        <v>530</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="E46" s="91" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="B47" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="91" t="s">
-        <v>479</v>
-      </c>
-      <c r="B48" s="91" t="s">
-        <v>510</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="91" t="s">
-        <v>479</v>
-      </c>
-      <c r="E48" s="91" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B49" s="98" t="s">
-        <v>487</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="E49" s="98" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="B50" s="91"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="E50" s="91"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="D52" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="90" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>537</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E53" s="98" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B54" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="91"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>391</v>
-      </c>
-    </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="91" t="s">
-        <v>165</v>
+      <c r="A57" s="73" t="s">
+        <v>162</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="C57" s="47"/>
-      <c r="D57" s="91" t="s">
-        <v>165</v>
+      <c r="D57" s="73" t="s">
+        <v>162</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B58" s="73" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="E58" s="73" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="B58" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="E58" s="91" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="B59" s="91" t="s">
-        <v>485</v>
-      </c>
       <c r="C59" s="47"/>
-      <c r="D59" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>540</v>
+      <c r="D59" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="E59" s="73" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="91" t="s">
+      <c r="A60" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B60" s="73" t="s">
+        <v>494</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E60" s="73" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B61" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="B60" s="91" t="s">
-        <v>510</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="91" t="s">
+      <c r="C61" s="47"/>
+      <c r="D61" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="E61" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="E60" s="91" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B61" s="98" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E62" s="73"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="72" t="s">
+        <v>530</v>
+      </c>
+      <c r="D64" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="72" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="E65" s="80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="73"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="73"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="73" t="s">
         <v>487</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="E61" s="98" t="s">
+      <c r="B68" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" s="47"/>
+      <c r="D68" s="73" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="E62" s="91"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="90" t="s">
-        <v>546</v>
-      </c>
-      <c r="D64" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="90" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B65" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E65" s="98" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B66" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="E66" s="91" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="91"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" s="91"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="91" t="s">
-        <v>503</v>
-      </c>
       <c r="E68" s="42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="91" t="s">
-        <v>165</v>
+      <c r="A69" s="73" t="s">
+        <v>162</v>
       </c>
       <c r="B69" s="44" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="47"/>
-      <c r="D69" s="91" t="s">
-        <v>165</v>
+      <c r="D69" s="73" t="s">
+        <v>162</v>
       </c>
       <c r="E69" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="B70" s="91" t="s">
-        <v>543</v>
+      <c r="A70" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B70" s="73" t="s">
+        <v>527</v>
       </c>
       <c r="C70" s="47"/>
-      <c r="D70" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="E70" s="91" t="s">
-        <v>543</v>
+      <c r="D70" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="B71" s="91" t="s">
-        <v>540</v>
+      <c r="A71" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="73" t="s">
+        <v>524</v>
       </c>
       <c r="C71" s="47"/>
-      <c r="D71" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="E71" s="91" t="s">
-        <v>540</v>
+      <c r="D71" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="E71" s="73" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="91" t="s">
+      <c r="A72" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B72" s="73" t="s">
+        <v>494</v>
+      </c>
+      <c r="C72" s="47"/>
+      <c r="D72" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B73" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="B72" s="91" t="s">
-        <v>510</v>
-      </c>
-      <c r="C72" s="47"/>
-      <c r="D72" s="91" t="s">
+      <c r="C73" s="47"/>
+      <c r="D73" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="E73" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="E72" s="91" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B73" s="98" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B74" s="73"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E74" s="73"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" s="75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="72"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="73" t="s">
         <v>487</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="E73" s="98" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="B74" s="91"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="E74" s="91"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="90" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B77" s="93" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
-        <v>378</v>
-      </c>
-      <c r="B78" s="90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="90"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="91" t="s">
-        <v>503</v>
-      </c>
       <c r="B80" s="42" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="91" t="s">
-        <v>165</v>
+      <c r="A81" s="73" t="s">
+        <v>162</v>
       </c>
       <c r="B81" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="B82" s="90" t="s">
-        <v>543</v>
+      <c r="A82" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="B83" s="90" t="s">
-        <v>540</v>
+      <c r="A83" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="91" t="s">
+      <c r="A84" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B85" s="75" t="s">
         <v>479</v>
       </c>
-      <c r="B84" s="90" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="B85" s="93" t="s">
-        <v>487</v>
-      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="B86" s="90"/>
+      <c r="A86" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="B86" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7877,19 +7859,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" s="34"/>
     </row>
@@ -7898,37 +7880,37 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>23</v>
@@ -7941,18 +7923,18 @@
     </row>
     <row r="6" spans="1:11" s="47" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G6" s="42"/>
       <c r="H6" s="45"/>
@@ -7962,20 +7944,20 @@
     </row>
     <row r="7" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="45"/>
@@ -7985,14 +7967,14 @@
     </row>
     <row r="8" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="42"/>
@@ -8004,14 +7986,14 @@
     </row>
     <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="42"/>
@@ -8023,14 +8005,14 @@
     </row>
     <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="42"/>
@@ -8042,14 +8024,14 @@
     </row>
     <row r="11" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="42"/>
@@ -8061,14 +8043,14 @@
     </row>
     <row r="12" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="42"/>
@@ -8080,14 +8062,14 @@
     </row>
     <row r="13" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="42"/>
@@ -8099,14 +8081,14 @@
     </row>
     <row r="14" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="42"/>
@@ -8118,10 +8100,10 @@
     </row>
     <row r="15" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="44" t="s">
@@ -8137,10 +8119,10 @@
     </row>
     <row r="16" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
@@ -8156,10 +8138,10 @@
     </row>
     <row r="17" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
@@ -8175,10 +8157,10 @@
     </row>
     <row r="18" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
@@ -8194,14 +8176,14 @@
     </row>
     <row r="19" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="42"/>
@@ -8213,14 +8195,14 @@
     </row>
     <row r="20" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="42"/>
@@ -8232,14 +8214,14 @@
     </row>
     <row r="21" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="42"/>
@@ -8251,14 +8233,14 @@
     </row>
     <row r="22" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="42"/>
@@ -8270,14 +8252,14 @@
     </row>
     <row r="23" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="44" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="42"/>
@@ -8289,14 +8271,14 @@
     </row>
     <row r="24" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="44" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="42"/>
@@ -8308,14 +8290,14 @@
     </row>
     <row r="25" spans="1:11" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="42"/>
@@ -8327,10 +8309,10 @@
     </row>
     <row r="26" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="44" t="s">
@@ -8346,14 +8328,14 @@
     </row>
     <row r="27" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="42"/>
@@ -8365,43 +8347,43 @@
     </row>
     <row r="28" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D28" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B29" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="D29" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>232</v>
-      </c>
       <c r="E29" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="35"/>
       <c r="I29" s="1"/>
@@ -8410,22 +8392,22 @@
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B30" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="D30" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>233</v>
-      </c>
       <c r="E30" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="35"/>
       <c r="I30" s="1"/>
@@ -8434,22 +8416,22 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="38"/>
       <c r="I31" s="1"/>
@@ -8458,22 +8440,22 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="35"/>
       <c r="I32" s="1"/>
@@ -8482,22 +8464,22 @@
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="35"/>
       <c r="I33" s="1"/>
@@ -8506,22 +8488,22 @@
     </row>
     <row r="34" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="35"/>
       <c r="I34" s="1"/>
@@ -8530,22 +8512,22 @@
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="38"/>
       <c r="I35" s="1"/>
@@ -8554,43 +8536,43 @@
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="38"/>
       <c r="I37" s="1"/>
@@ -8599,22 +8581,22 @@
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="35"/>
       <c r="I38" s="1"/>
@@ -8623,22 +8605,22 @@
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="35"/>
       <c r="I39" s="1"/>
@@ -8647,22 +8629,22 @@
     </row>
     <row r="40" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" s="38"/>
       <c r="I40" s="1"/>
@@ -8671,22 +8653,22 @@
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G41" s="38"/>
       <c r="I41" s="1"/>
@@ -8695,22 +8677,22 @@
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="35"/>
       <c r="I42" s="1"/>
@@ -8719,22 +8701,22 @@
     </row>
     <row r="43" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" s="35"/>
       <c r="I43" s="1"/>
@@ -8743,22 +8725,22 @@
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44" s="38"/>
       <c r="I44" s="1"/>
@@ -8767,22 +8749,22 @@
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" s="38"/>
       <c r="I45" s="1"/>
@@ -8791,22 +8773,22 @@
     </row>
     <row r="46" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G46" s="35"/>
       <c r="I46" s="1"/>
@@ -8815,22 +8797,22 @@
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G47" s="35"/>
       <c r="I47" s="1"/>
@@ -8839,22 +8821,22 @@
     </row>
     <row r="48" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G48" s="38"/>
       <c r="I48" s="1"/>
@@ -8863,43 +8845,43 @@
     </row>
     <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G50" s="38"/>
       <c r="I50" s="1"/>
@@ -8908,22 +8890,22 @@
     </row>
     <row r="51" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G51" s="35"/>
       <c r="I51" s="1"/>
@@ -8932,22 +8914,22 @@
     </row>
     <row r="52" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>249</v>
-      </c>
       <c r="D52" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="35"/>
       <c r="I52" s="1"/>
@@ -8956,22 +8938,22 @@
     </row>
     <row r="53" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="38"/>
       <c r="I53" s="1"/>
@@ -8980,22 +8962,22 @@
     </row>
     <row r="54" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G54" s="35"/>
       <c r="I54" s="1"/>
@@ -9004,169 +8986,169 @@
     </row>
     <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G57" s="38"/>
     </row>
     <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D58" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G58" s="38"/>
     </row>
     <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" s="38"/>
     </row>
     <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D60" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D61" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G61" s="38"/>
     </row>
     <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D62" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9184,7 +9166,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$89</xm:f>
+            <xm:f>Требования!$A$3:$A$87</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F62</xm:sqref>
         </x14:dataValidation>
@@ -9217,18 +9199,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9236,443 +9218,443 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
+      <c r="A5" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>175</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="A9" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
+      <c r="A13" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="A22" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>218</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="18"/>
     </row>
@@ -9707,7 +9689,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$89</xm:f>
+            <xm:f>Требования!$A$3:$A$87</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F8</xm:sqref>
         </x14:dataValidation>
@@ -9738,18 +9720,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9757,74 +9739,74 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
+      <c r="A5" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>232</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="18"/>
       <c r="I7" s="1"/>
@@ -9833,22 +9815,22 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>233</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="18"/>
       <c r="I8" s="1"/>
@@ -9857,22 +9839,22 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="18"/>
       <c r="I9" s="1"/>
@@ -9880,37 +9862,37 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="A10" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="18"/>
       <c r="I11" s="1"/>
@@ -9919,22 +9901,22 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>239</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="18"/>
       <c r="I12" s="1"/>
@@ -9943,22 +9925,22 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="18"/>
       <c r="I13" s="1"/>
@@ -9967,22 +9949,22 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="18"/>
       <c r="I14" s="1"/>
@@ -9990,37 +9972,37 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
+      <c r="A15" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="18"/>
       <c r="I16" s="1"/>
@@ -10029,22 +10011,22 @@
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="18"/>
       <c r="I17" s="1"/>
@@ -10053,22 +10035,22 @@
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="18"/>
       <c r="I18" s="1"/>
@@ -10077,22 +10059,22 @@
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="18"/>
       <c r="I19" s="1"/>
@@ -10101,22 +10083,22 @@
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="18"/>
       <c r="I20" s="1"/>
@@ -10125,22 +10107,22 @@
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="18"/>
       <c r="I21" s="1"/>
@@ -10149,22 +10131,22 @@
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="18"/>
       <c r="I22" s="1"/>
@@ -10173,22 +10155,22 @@
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="18"/>
       <c r="I23" s="1"/>
@@ -10197,22 +10179,22 @@
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="18"/>
       <c r="I24" s="1"/>
@@ -10221,22 +10203,22 @@
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="18"/>
       <c r="I25" s="1"/>
@@ -10245,22 +10227,22 @@
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="18"/>
       <c r="I26" s="1"/>
@@ -10269,22 +10251,22 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="18"/>
       <c r="I27" s="1"/>
@@ -10292,37 +10274,37 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
+      <c r="A28" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="99"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="18"/>
       <c r="I29" s="1"/>
@@ -10331,22 +10313,22 @@
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="18"/>
       <c r="I30" s="1"/>
@@ -10355,22 +10337,22 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>249</v>
-      </c>
       <c r="D31" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="18"/>
       <c r="I31" s="1"/>
@@ -10379,22 +10361,22 @@
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="18"/>
       <c r="I32" s="1"/>
@@ -10441,7 +10423,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Требования!$A$3:$A$89</xm:f>
+            <xm:f>Требования!$A$3:$A$87</xm:f>
           </x14:formula1>
           <xm:sqref>F29:F32</xm:sqref>
         </x14:dataValidation>
@@ -10471,7 +10453,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>34</v>
@@ -10482,42 +10464,42 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10525,7 +10507,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>34</v>
@@ -10536,128 +10518,128 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Комбинации данных" sheetId="9" r:id="rId6"/>
     <sheet name="Попарное тестирование" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="689">
   <si>
     <t>ID</t>
   </si>
@@ -1191,15 +1191,6 @@
 2. Ввести невалидные данные из Test Data</t>
   </si>
   <si>
-    <t>Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>straschenko1333333333333333333333@mail.ru</t>
-  </si>
-  <si>
     <t>tDbb@588888888888</t>
   </si>
   <si>
@@ -1255,11 +1246,6 @@
     <t>F-18</t>
   </si>
   <si>
-    <t>1. Перейти по ссылке http://itcareer.pythonanywhere.com/
-2. Заполнить поля данными из Test Data
-3. Нажать кнопку "Submit"</t>
-  </si>
-  <si>
     <t>1. Нажать кнопку "Назад"</t>
   </si>
   <si>
@@ -1267,13 +1253,6 @@
   </si>
   <si>
     <t>RF-16</t>
-  </si>
-  <si>
-    <t>RF-17</t>
-  </si>
-  <si>
-    <t>1. Перейти по ссылке http://itcareer.pythonanywhere.com/
-2. Заполнить поля данными из Test Data</t>
   </si>
   <si>
     <t>1. Нажать кнопку "Обновить"</t>
@@ -2353,11 +2332,39 @@
   <si>
     <t>спецсимволы  после @ и до последней .</t>
   </si>
+  <si>
+    <t>1. Заполнить поля данными из Test Data
+2. Нажать кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поля данными из Test Data</t>
+  </si>
+  <si>
+    <t>Перейти по ссылке http://itcareer.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>Поле Name не подсвечивается  красной тенью при введении количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>=ДЛСТР(RC[1])</t>
+  </si>
+  <si>
+    <t>Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Strashchenkooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>straschenko13333333333333333333333333333333333333333333333333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t>B-14</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2722,7 +2729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2861,9 +2868,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2877,20 +2881,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2928,32 +2918,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2973,6 +2949,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2982,18 +2985,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3113,13 +3115,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>452440</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3150,13 +3152,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>629331</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3684,7 +3686,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3719,7 +3721,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3896,7 +3898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3906,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,11 +3920,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -3939,7 +3941,7 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="77" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3950,7 +3952,7 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3959,7 +3961,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -3968,7 +3970,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="90"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
@@ -3977,7 +3979,7 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="80" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -3988,7 +3990,7 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -3997,7 +3999,7 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="90"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4047,11 +4049,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="82"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -4061,14 +4063,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -4079,7 +4081,7 @@
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
@@ -4088,7 +4090,7 @@
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="90"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
@@ -4097,7 +4099,7 @@
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="89" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -4108,7 +4110,7 @@
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="12" t="s">
         <v>42</v>
       </c>
@@ -4117,18 +4119,18 @@
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="85"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,7 +4152,7 @@
         <v>285</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,7 +4163,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4180,29 +4182,29 @@
         <v>59</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>454</v>
+      <c r="B28" s="55" t="s">
+        <v>448</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>460</v>
+      <c r="B29" s="55" t="s">
+        <v>454</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>77</v>
@@ -4249,7 +4251,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4257,54 +4259,54 @@
         <v>69</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B35" s="76" t="s">
-        <v>502</v>
+        <v>501</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>496</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B36" s="76" t="s">
-        <v>477</v>
+        <v>502</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>471</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B37" s="76" t="s">
-        <v>478</v>
+        <v>503</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>472</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B38" s="76" t="s">
-        <v>479</v>
+        <v>504</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>473</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4312,54 +4314,54 @@
         <v>70</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="B40" s="76" t="s">
-        <v>503</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>498</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="B41" s="76" t="s">
-        <v>504</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>513</v>
-      </c>
-      <c r="B42" s="76" t="s">
-        <v>505</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>500</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>514</v>
-      </c>
-      <c r="B43" s="76" t="s">
-        <v>506</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,10 +4391,10 @@
         <v>79</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4410,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>74</v>
@@ -4419,7 +4421,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>76</v>
@@ -4430,21 +4432,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B50" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="B50" s="54" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
-      <c r="B51" s="77" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="78"/>
+      <c r="C51" s="84"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -4558,10 +4560,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="80"/>
+      <c r="C62" s="82"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -4675,10 +4677,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
-      <c r="B73" s="81" t="s">
+      <c r="B73" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="82"/>
+      <c r="C73" s="86"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
@@ -4699,7 +4701,7 @@
         <v>87</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,7 +4778,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4787,7 +4789,7 @@
         <v>95</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4798,15 +4800,15 @@
         <v>97</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
-      <c r="B85" s="83" t="s">
+      <c r="B85" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="84"/>
+      <c r="C85" s="88"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4827,7 +4829,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4882,7 +4884,7 @@
         <v>100</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -4893,7 +4895,7 @@
         <v>99</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4920,16 +4922,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4941,7 +4943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
@@ -4966,7 +4968,7 @@
       <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="72"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -4975,7 +4977,7 @@
       <c r="B2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4997,7 +4999,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -5010,18 +5012,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -5031,23 +5033,23 @@
         <v>182</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="95" t="s">
-        <v>507</v>
+      <c r="I6" s="70" t="s">
+        <v>501</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -5056,26 +5058,26 @@
         <v>160</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="95" t="s">
-        <v>511</v>
+      <c r="I7" s="70" t="s">
+        <v>505</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -5084,94 +5086,94 @@
         <v>169</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="95" t="s">
-        <v>511</v>
+      <c r="I9" s="70" t="s">
+        <v>505</v>
       </c>
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>164</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I11" s="95" t="s">
-        <v>508</v>
+      <c r="I11" s="70" t="s">
+        <v>502</v>
       </c>
       <c r="J11" s="18"/>
     </row>
@@ -5180,17 +5182,17 @@
         <v>164</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>186</v>
@@ -5198,8 +5200,8 @@
       <c r="H12" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="95" t="s">
-        <v>512</v>
+      <c r="I12" s="70" t="s">
+        <v>506</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -5208,13 +5210,13 @@
         <v>165</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="12" t="s">
@@ -5224,7 +5226,7 @@
       <c r="H13" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="18"/>
@@ -5234,59 +5236,59 @@
         <v>168</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="95" t="s">
-        <v>512</v>
+      <c r="I14" s="70" t="s">
+        <v>506</v>
       </c>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>166</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>163</v>
@@ -5294,8 +5296,8 @@
       <c r="H16" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="95" t="s">
-        <v>509</v>
+      <c r="I16" s="70" t="s">
+        <v>503</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -5304,13 +5306,13 @@
         <v>167</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="12" t="s">
@@ -5320,7 +5322,7 @@
       <c r="H17" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="18"/>
@@ -5330,17 +5332,17 @@
         <v>170</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>163</v>
@@ -5348,8 +5350,8 @@
       <c r="H18" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="95" t="s">
-        <v>513</v>
+      <c r="I18" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -5358,17 +5360,17 @@
         <v>171</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>163</v>
@@ -5376,8 +5378,8 @@
       <c r="H19" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I19" s="95" t="s">
-        <v>513</v>
+      <c r="I19" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J19" s="18"/>
     </row>
@@ -5386,17 +5388,17 @@
         <v>172</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>163</v>
@@ -5404,8 +5406,8 @@
       <c r="H20" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="95" t="s">
-        <v>513</v>
+      <c r="I20" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J20" s="18"/>
     </row>
@@ -5414,17 +5416,17 @@
         <v>173</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>163</v>
@@ -5432,8 +5434,8 @@
       <c r="H21" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="95" t="s">
-        <v>513</v>
+      <c r="I21" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J21" s="18"/>
     </row>
@@ -5442,17 +5444,17 @@
         <v>174</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>606</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>612</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>163</v>
@@ -5460,8 +5462,8 @@
       <c r="H22" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="95" t="s">
-        <v>513</v>
+      <c r="I22" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J22" s="18"/>
     </row>
@@ -5470,17 +5472,17 @@
         <v>175</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>163</v>
@@ -5488,41 +5490,41 @@
       <c r="H23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="95" t="s">
-        <v>513</v>
+      <c r="I23" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>163</v>
@@ -5530,27 +5532,27 @@
       <c r="H25" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="95" t="s">
-        <v>510</v>
+      <c r="I25" s="70" t="s">
+        <v>504</v>
       </c>
       <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>163</v>
@@ -5558,23 +5560,23 @@
       <c r="H26" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="95" t="s">
-        <v>514</v>
+      <c r="I26" s="70" t="s">
+        <v>508</v>
       </c>
       <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="12" t="s">
@@ -5584,27 +5586,27 @@
       <c r="H27" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="95" t="s">
+      <c r="I27" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>163</v>
@@ -5612,8 +5614,8 @@
       <c r="H28" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="95" t="s">
-        <v>514</v>
+      <c r="I28" s="70" t="s">
+        <v>508</v>
       </c>
       <c r="J28" s="18"/>
     </row>
@@ -5679,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD45"/>
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5703,7 +5705,7 @@
       <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="72"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -5712,7 +5714,7 @@
       <c r="B2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5734,7 +5736,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -5747,44 +5749,44 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="95" t="s">
-        <v>511</v>
+      <c r="I6" s="70" t="s">
+        <v>505</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -5793,25 +5795,25 @@
         <v>177</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="12" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="18"/>
@@ -5824,25 +5826,25 @@
         <v>178</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="18"/>
@@ -5855,25 +5857,25 @@
         <v>183</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="18"/>
@@ -5882,28 +5884,28 @@
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="18"/>
@@ -5913,29 +5915,29 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I11" s="95" t="s">
-        <v>511</v>
+      <c r="I11" s="70" t="s">
+        <v>505</v>
       </c>
       <c r="J11" s="18"/>
       <c r="L11" s="1"/>
@@ -5943,18 +5945,18 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -5967,23 +5969,23 @@
         <v>185</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I13" s="95" t="s">
-        <v>512</v>
+      <c r="I13" s="70" t="s">
+        <v>506</v>
       </c>
       <c r="J13" s="18"/>
       <c r="L13" s="1"/>
@@ -5995,23 +5997,23 @@
         <v>180</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="12" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="95" t="s">
+      <c r="I14" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="18"/>
@@ -6024,23 +6026,23 @@
         <v>181</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="12" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="95" t="s">
+      <c r="I15" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="18"/>
@@ -6053,23 +6055,23 @@
         <v>184</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J16" s="18"/>
@@ -6079,26 +6081,26 @@
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="18"/>
@@ -6108,29 +6110,29 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I18" s="95" t="s">
-        <v>512</v>
+      <c r="I18" s="70" t="s">
+        <v>506</v>
       </c>
       <c r="J18" s="18"/>
       <c r="L18" s="1"/>
@@ -6138,18 +6140,18 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -6162,23 +6164,23 @@
         <v>193</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I20" s="95" t="s">
-        <v>509</v>
+      <c r="I20" s="70" t="s">
+        <v>503</v>
       </c>
       <c r="J20" s="18"/>
       <c r="L20" s="1"/>
@@ -6190,26 +6192,26 @@
         <v>205</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I21" s="95" t="s">
-        <v>513</v>
+      <c r="I21" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J21" s="18"/>
       <c r="L21" s="1"/>
@@ -6221,23 +6223,23 @@
         <v>202</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="95" t="s">
+      <c r="I22" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J22" s="18"/>
@@ -6250,23 +6252,23 @@
         <v>206</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="95" t="s">
+      <c r="I23" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J23" s="18"/>
@@ -6279,23 +6281,23 @@
         <v>207</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="18"/>
@@ -6311,20 +6313,20 @@
         <v>194</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="95" t="s">
+      <c r="I25" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J25" s="18"/>
@@ -6340,21 +6342,21 @@
         <v>195</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="95" t="s">
-        <v>513</v>
+      <c r="I26" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J26" s="18"/>
       <c r="L26" s="1"/>
@@ -6369,23 +6371,23 @@
         <v>196</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I27" s="95" t="s">
-        <v>513</v>
+      <c r="I27" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J27" s="18"/>
       <c r="L27" s="1"/>
@@ -6400,20 +6402,20 @@
         <v>197</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J28" s="18"/>
@@ -6426,23 +6428,23 @@
         <v>211</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I29" s="95" t="s">
+      <c r="I29" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="18"/>
@@ -6455,23 +6457,23 @@
         <v>212</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="95" t="s">
+      <c r="I30" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J30" s="18"/>
@@ -6484,23 +6486,23 @@
         <v>213</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="95" t="s">
+      <c r="I31" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J31" s="18"/>
@@ -6510,29 +6512,29 @@
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I32" s="95" t="s">
-        <v>513</v>
+      <c r="I32" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J32" s="18"/>
       <c r="L32" s="1"/>
@@ -6541,29 +6543,29 @@
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I33" s="95" t="s">
-        <v>513</v>
+      <c r="I33" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J33" s="18"/>
       <c r="L33" s="1"/>
@@ -6572,26 +6574,26 @@
     </row>
     <row r="34" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I34" s="95" t="s">
+      <c r="I34" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J34" s="18"/>
@@ -6601,26 +6603,26 @@
     </row>
     <row r="35" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I35" s="95" t="s">
+      <c r="I35" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J35" s="18"/>
@@ -6630,26 +6632,26 @@
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="95" t="s">
+      <c r="I36" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J36" s="18"/>
@@ -6659,26 +6661,26 @@
     </row>
     <row r="37" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="95" t="s">
+      <c r="I37" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J37" s="18"/>
@@ -6688,29 +6690,29 @@
     </row>
     <row r="38" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I38" s="95" t="s">
-        <v>513</v>
+      <c r="I38" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J38" s="18"/>
       <c r="L38" s="1"/>
@@ -6718,18 +6720,18 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="94"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="92"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -6739,26 +6741,26 @@
         <v>189</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>162</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I40" s="95" t="s">
-        <v>514</v>
+      <c r="I40" s="70" t="s">
+        <v>508</v>
       </c>
       <c r="J40" s="18"/>
       <c r="L40" s="1"/>
@@ -6770,23 +6772,23 @@
         <v>190</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I41" s="95" t="s">
+      <c r="I41" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J41" s="18"/>
@@ -6799,23 +6801,23 @@
         <v>190</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="95" t="s">
+      <c r="I42" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J42" s="18"/>
@@ -6828,27 +6830,27 @@
         <v>191</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="95" t="s">
+      <c r="I43" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J43" s="18"/>
-      <c r="K43" s="96"/>
+      <c r="K43" s="71"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -6861,20 +6863,20 @@
         <v>188</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I44" s="95" t="s">
+      <c r="I44" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J44" s="18"/>
@@ -6890,23 +6892,23 @@
         <v>187</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H45" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="95" t="s">
-        <v>514</v>
+      <c r="I45" s="70" t="s">
+        <v>508</v>
       </c>
       <c r="J45" s="18"/>
       <c r="L45" s="1"/>
@@ -6988,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7048,7 +7050,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -7060,130 +7062,105 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="46" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
+    </row>
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B6" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="G6" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="71" t="str">
+      <c r="J6" s="64" t="str">
         <f>'Баг-репорты'!B4</f>
         <v>B-1</v>
-      </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-    </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>410</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
     </row>
-    <row r="7" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
-        <v>408</v>
+    <row r="7" spans="1:13" s="43" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>247</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C7" s="47"/>
       <c r="D7" s="41"/>
       <c r="E7" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>394</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>413</v>
+        <v>24</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>404</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
     </row>
-    <row r="8" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>304</v>
-      </c>
+    <row r="8" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="41"/>
       <c r="E8" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>419</v>
+        <v>306</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>421</v>
+        <v>27</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>407</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
@@ -7191,284 +7168,266 @@
     </row>
     <row r="9" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="47"/>
       <c r="D9" s="41"/>
       <c r="E9" s="40" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="50" t="s">
-        <v>161</v>
+        <v>412</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>415</v>
+      </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
     </row>
-    <row r="10" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C10" s="47"/>
       <c r="D10" s="41"/>
       <c r="E10" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>245</v>
+        <v>268</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>438</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="J10" s="40"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
     </row>
-    <row r="11" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="41"/>
       <c r="E11" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="50" t="s">
-        <v>161</v>
+        <v>434</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>376</v>
-      </c>
-      <c r="J11" s="40"/>
+        <v>372</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>432</v>
+      </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
     </row>
-    <row r="12" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="41"/>
       <c r="E12" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
     </row>
-    <row r="13" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="41"/>
       <c r="E13" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>245</v>
+        <v>271</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="71" t="s">
-        <v>422</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="J13" s="40"/>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
     </row>
-    <row r="14" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="41"/>
       <c r="E14" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="71" t="s">
-        <v>427</v>
+        <v>38</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>416</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
     </row>
-    <row r="15" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="41"/>
       <c r="E15" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>423</v>
+        <v>252</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="71" t="s">
-        <v>429</v>
+        <v>39</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>421</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
     </row>
-    <row r="16" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C16" s="47"/>
       <c r="D16" s="41"/>
       <c r="E16" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="71" t="s">
-        <v>437</v>
+        <v>40</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>423</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
     </row>
-    <row r="17" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="41"/>
       <c r="E17" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>445</v>
+        <v>314</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>623</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="71" t="s">
-        <v>443</v>
+        <v>41</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>431</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
@@ -7476,23 +7435,21 @@
     </row>
     <row r="18" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="41"/>
       <c r="E18" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="74" t="s">
-        <v>445</v>
+      <c r="G18" s="67" t="s">
+        <v>439</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>245</v>
@@ -7500,8 +7457,8 @@
       <c r="I18" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="71" t="s">
-        <v>452</v>
+      <c r="J18" s="64" t="s">
+        <v>437</v>
       </c>
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
@@ -7509,23 +7466,21 @@
     </row>
     <row r="19" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="41"/>
       <c r="E19" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="74" t="s">
-        <v>445</v>
+      <c r="G19" s="67" t="s">
+        <v>439</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>245</v>
@@ -7533,8 +7488,8 @@
       <c r="I19" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="71" t="s">
-        <v>449</v>
+      <c r="J19" s="64" t="s">
+        <v>446</v>
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
@@ -7542,23 +7497,21 @@
     </row>
     <row r="20" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C20" s="47"/>
       <c r="D20" s="41"/>
       <c r="E20" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="74" t="s">
-        <v>445</v>
+      <c r="G20" s="67" t="s">
+        <v>439</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>245</v>
@@ -7566,8 +7519,8 @@
       <c r="I20" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="71" t="s">
-        <v>450</v>
+      <c r="J20" s="64" t="s">
+        <v>443</v>
       </c>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
@@ -7575,46 +7528,46 @@
     </row>
     <row r="21" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C21" s="47"/>
       <c r="D21" s="41"/>
       <c r="E21" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="50" t="s">
-        <v>161</v>
+        <v>52</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="40"/>
+        <v>46</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>444</v>
+      </c>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
     </row>
-    <row r="22" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C22" s="47"/>
       <c r="D22" s="41"/>
       <c r="E22" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>284</v>
@@ -7631,19 +7584,17 @@
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
     </row>
-    <row r="23" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C23" s="47"/>
       <c r="D23" s="41"/>
       <c r="E23" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F23" s="41" t="s">
         <v>284</v>
@@ -7660,19 +7611,17 @@
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
     </row>
-    <row r="24" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="41"/>
       <c r="E24" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>284</v>
@@ -7689,31 +7638,27 @@
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
     </row>
-    <row r="25" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>344</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="G25" s="12"/>
+        <v>323</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="41"/>
       <c r="H25" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="42"/>
@@ -7722,22 +7667,20 @@
     </row>
     <row r="26" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C26" s="47"/>
       <c r="D26" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="50" t="s">
@@ -7753,22 +7696,20 @@
     </row>
     <row r="27" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="50" t="s">
@@ -7784,22 +7725,20 @@
     </row>
     <row r="28" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="41">
-        <v>111111</v>
+        <v>338</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="50" t="s">
@@ -7813,60 +7752,56 @@
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
     </row>
-    <row r="29" spans="1:13" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>359</v>
+        <v>339</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="41">
+        <v>111111</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>630</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>245</v>
+        <v>343</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J29" s="40"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="1:13" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>304</v>
+        <v>684</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>360</v>
+        <v>685</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>245</v>
@@ -7879,27 +7814,27 @@
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="1:13" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>361</v>
+        <v>684</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>686</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F31" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>245</v>
@@ -7914,25 +7849,25 @@
     </row>
     <row r="32" spans="1:13" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>362</v>
+        <v>684</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>687</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>245</v>
@@ -7947,29 +7882,31 @@
     </row>
     <row r="33" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>467</v>
+        <v>350</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>367</v>
+        <v>684</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>359</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="50" t="s">
-        <v>161</v>
+        <v>355</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>624</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="42"/>
@@ -7978,22 +7915,20 @@
     </row>
     <row r="34" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" s="41" t="s">
+      <c r="E34" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="E34" s="40" t="s">
-        <v>371</v>
-      </c>
       <c r="F34" s="12" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="50" t="s">
@@ -8009,22 +7944,20 @@
     </row>
     <row r="35" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>369</v>
-      </c>
       <c r="E35" s="40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="50" t="s">
@@ -8040,22 +7973,20 @@
     </row>
     <row r="36" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>370</v>
-      </c>
       <c r="E36" s="40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="50" t="s">
@@ -8069,29 +8000,29 @@
       <c r="L36" s="42"/>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D37" s="41"/>
+        <v>363</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="94" t="s">
+        <v>367</v>
+      </c>
       <c r="E37" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37" s="41"/>
+        <v>368</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G37" s="12"/>
       <c r="H37" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="42"/>
@@ -8100,17 +8031,15 @@
     </row>
     <row r="38" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C38" s="47"/>
       <c r="D38" s="41"/>
       <c r="E38" s="40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F38" s="41" t="s">
         <v>293</v>
@@ -8120,7 +8049,7 @@
         <v>161</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="42"/>
@@ -8129,169 +8058,173 @@
     </row>
     <row r="39" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C39" s="47"/>
       <c r="D39" s="41"/>
       <c r="E39" s="40" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G39" s="41"/>
       <c r="H39" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="42"/>
       <c r="L39" s="42"/>
       <c r="M39" s="42"/>
     </row>
-    <row r="40" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="47"/>
       <c r="D40" s="41"/>
       <c r="E40" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="G40" s="12"/>
+        <v>319</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="41"/>
       <c r="H40" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="42"/>
       <c r="L40" s="42"/>
       <c r="M40" s="42"/>
     </row>
-    <row r="41" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>304</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C41" s="47"/>
       <c r="D41" s="41"/>
       <c r="E41" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="G41" s="41"/>
+        <v>465</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" s="12"/>
       <c r="H41" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="42"/>
       <c r="L41" s="42"/>
       <c r="M41" s="42"/>
     </row>
-    <row r="42" spans="1:14" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>162</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="12"/>
+        <v>466</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="G42" s="41"/>
       <c r="H42" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="J42" s="40"/>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
       <c r="M42" s="42"/>
     </row>
-    <row r="43" spans="1:14" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="43" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>385</v>
+        <v>71</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>680</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="40" t="s">
+        <v>297</v>
+      </c>
       <c r="J43" s="40"/>
       <c r="K43" s="42"/>
       <c r="L43" s="42"/>
       <c r="M43" s="42"/>
     </row>
-    <row r="44" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
-        <v>384</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="61" t="s">
+    <row r="44" spans="1:14" s="43" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>681</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
+      <c r="I44" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" s="40"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
@@ -8300,9 +8233,7 @@
       <c r="B45" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="47" t="s">
-        <v>304</v>
-      </c>
+      <c r="C45" s="47"/>
       <c r="D45" s="41"/>
       <c r="E45" s="40" t="s">
         <v>325</v>
@@ -8315,7 +8246,7 @@
         <v>245</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>379</v>
+        <v>456</v>
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="42"/>
@@ -8330,23 +8261,23 @@
         <v>182</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I46" s="95" t="s">
-        <v>507</v>
+      <c r="I46" s="70" t="s">
+        <v>501</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="4"/>
@@ -8357,26 +8288,26 @@
         <v>176</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I47" s="95" t="s">
-        <v>511</v>
+      <c r="I47" s="70" t="s">
+        <v>505</v>
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="4"/>
@@ -8387,25 +8318,25 @@
         <v>177</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="12" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H48" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I48" s="95" t="s">
+      <c r="I48" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J48" s="18"/>
@@ -8418,25 +8349,25 @@
         <v>178</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="12" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H49" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I49" s="95" t="s">
+      <c r="I49" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J49" s="18"/>
@@ -8449,25 +8380,25 @@
         <v>183</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="12" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H50" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I50" s="95" t="s">
+      <c r="I50" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J50" s="18"/>
@@ -8476,28 +8407,28 @@
     </row>
     <row r="51" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H51" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="95" t="s">
+      <c r="I51" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J51" s="18"/>
@@ -8507,29 +8438,29 @@
     </row>
     <row r="52" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H52" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="95" t="s">
-        <v>511</v>
+      <c r="I52" s="70" t="s">
+        <v>505</v>
       </c>
       <c r="J52" s="18"/>
       <c r="L52" s="1"/>
@@ -8541,26 +8472,26 @@
         <v>164</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H53" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I53" s="95" t="s">
-        <v>508</v>
+      <c r="I53" s="70" t="s">
+        <v>502</v>
       </c>
       <c r="J53" s="18"/>
       <c r="K53" s="4"/>
@@ -8574,23 +8505,23 @@
         <v>185</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I54" s="95" t="s">
-        <v>512</v>
+      <c r="I54" s="70" t="s">
+        <v>506</v>
       </c>
       <c r="J54" s="18"/>
       <c r="L54" s="1"/>
@@ -8602,23 +8533,23 @@
         <v>180</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="12" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I55" s="95" t="s">
+      <c r="I55" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J55" s="18"/>
@@ -8631,23 +8562,23 @@
         <v>181</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="12" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I56" s="95" t="s">
+      <c r="I56" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J56" s="18"/>
@@ -8660,23 +8591,23 @@
         <v>184</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I57" s="95" t="s">
+      <c r="I57" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J57" s="18"/>
@@ -8686,26 +8617,26 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I58" s="95" t="s">
+      <c r="I58" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J58" s="18"/>
@@ -8715,29 +8646,29 @@
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="12" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H59" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I59" s="95" t="s">
-        <v>512</v>
+      <c r="I59" s="70" t="s">
+        <v>506</v>
       </c>
       <c r="J59" s="18"/>
       <c r="L59" s="1"/>
@@ -8749,17 +8680,17 @@
         <v>166</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>163</v>
@@ -8767,8 +8698,8 @@
       <c r="H60" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="95" t="s">
-        <v>509</v>
+      <c r="I60" s="70" t="s">
+        <v>503</v>
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="4"/>
@@ -8782,23 +8713,23 @@
         <v>193</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H61" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I61" s="95" t="s">
-        <v>509</v>
+      <c r="I61" s="70" t="s">
+        <v>503</v>
       </c>
       <c r="J61" s="18"/>
       <c r="L61" s="1"/>
@@ -8810,26 +8741,26 @@
         <v>205</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H62" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I62" s="95" t="s">
-        <v>513</v>
+      <c r="I62" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J62" s="18"/>
       <c r="L62" s="1"/>
@@ -8841,23 +8772,23 @@
         <v>202</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I63" s="95" t="s">
+      <c r="I63" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J63" s="18"/>
@@ -8870,23 +8801,23 @@
         <v>206</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I64" s="95" t="s">
+      <c r="I64" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J64" s="18"/>
@@ -8899,23 +8830,23 @@
         <v>207</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I65" s="95" t="s">
+      <c r="I65" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J65" s="18"/>
@@ -8931,20 +8862,20 @@
         <v>194</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I66" s="95" t="s">
+      <c r="I66" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J66" s="18"/>
@@ -8960,21 +8891,21 @@
         <v>195</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I67" s="95" t="s">
-        <v>513</v>
+      <c r="I67" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J67" s="18"/>
       <c r="L67" s="1"/>
@@ -8989,23 +8920,23 @@
         <v>196</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H68" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I68" s="95" t="s">
-        <v>513</v>
+      <c r="I68" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J68" s="18"/>
       <c r="L68" s="1"/>
@@ -9020,20 +8951,20 @@
         <v>197</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I69" s="95" t="s">
+      <c r="I69" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J69" s="18"/>
@@ -9046,23 +8977,23 @@
         <v>211</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I70" s="95" t="s">
+      <c r="I70" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J70" s="18"/>
@@ -9075,23 +9006,23 @@
         <v>212</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I71" s="95" t="s">
+      <c r="I71" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J71" s="18"/>
@@ -9104,23 +9035,23 @@
         <v>213</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I72" s="95" t="s">
+      <c r="I72" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J72" s="18"/>
@@ -9130,29 +9061,29 @@
     </row>
     <row r="73" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H73" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I73" s="95" t="s">
-        <v>513</v>
+      <c r="I73" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J73" s="18"/>
       <c r="L73" s="1"/>
@@ -9161,29 +9092,29 @@
     </row>
     <row r="74" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H74" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I74" s="95" t="s">
-        <v>513</v>
+      <c r="I74" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J74" s="18"/>
       <c r="L74" s="1"/>
@@ -9192,26 +9123,26 @@
     </row>
     <row r="75" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I75" s="95" t="s">
+      <c r="I75" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J75" s="18"/>
@@ -9221,26 +9152,26 @@
     </row>
     <row r="76" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I76" s="95" t="s">
+      <c r="I76" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J76" s="18"/>
@@ -9250,26 +9181,26 @@
     </row>
     <row r="77" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I77" s="95" t="s">
+      <c r="I77" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J77" s="18"/>
@@ -9279,26 +9210,26 @@
     </row>
     <row r="78" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I78" s="95" t="s">
+      <c r="I78" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J78" s="18"/>
@@ -9308,29 +9239,29 @@
     </row>
     <row r="79" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="12" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H79" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I79" s="95" t="s">
-        <v>513</v>
+      <c r="I79" s="70" t="s">
+        <v>507</v>
       </c>
       <c r="J79" s="18"/>
       <c r="L79" s="1"/>
@@ -9339,20 +9270,20 @@
     </row>
     <row r="80" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>163</v>
@@ -9360,8 +9291,8 @@
       <c r="H80" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I80" s="95" t="s">
-        <v>510</v>
+      <c r="I80" s="70" t="s">
+        <v>504</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="4"/>
@@ -9372,26 +9303,26 @@
         <v>189</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>162</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H81" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I81" s="95" t="s">
-        <v>514</v>
+      <c r="I81" s="70" t="s">
+        <v>508</v>
       </c>
       <c r="J81" s="18"/>
       <c r="L81" s="1"/>
@@ -9403,23 +9334,23 @@
         <v>190</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I82" s="95" t="s">
+      <c r="I82" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J82" s="18"/>
@@ -9432,23 +9363,23 @@
         <v>190</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I83" s="95" t="s">
+      <c r="I83" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J83" s="18"/>
@@ -9461,27 +9392,27 @@
         <v>191</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I84" s="95" t="s">
+      <c r="I84" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J84" s="18"/>
-      <c r="K84" s="96"/>
+      <c r="K84" s="71"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -9494,20 +9425,20 @@
         <v>188</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I85" s="95" t="s">
+      <c r="I85" s="70" t="s">
         <v>68</v>
       </c>
       <c r="J85" s="18"/>
@@ -9523,23 +9454,23 @@
         <v>187</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H86" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I86" s="95" t="s">
-        <v>514</v>
+      <c r="I86" s="70" t="s">
+        <v>508</v>
       </c>
       <c r="J86" s="18"/>
       <c r="L86" s="1"/>
@@ -9553,7 +9484,7 @@
       <c r="B87" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="52" t="s">
         <v>330</v>
       </c>
       <c r="D87" s="36" t="s">
@@ -9622,7 +9553,7 @@
         <v>331</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G89" s="38"/>
       <c r="H89" s="39" t="s">
@@ -9650,7 +9581,7 @@
         <v>331</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G90" s="38"/>
       <c r="H90" s="39" t="s">
@@ -9678,7 +9609,7 @@
         <v>331</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G91" s="38"/>
       <c r="H91" s="39" t="s">
@@ -9734,7 +9665,7 @@
         <v>331</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G93" s="38"/>
       <c r="H93" s="50" t="s">
@@ -9762,7 +9693,7 @@
         <v>331</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G94" s="38"/>
       <c r="H94" s="50" t="s">
@@ -9790,7 +9721,7 @@
         <v>331</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G95" s="38"/>
       <c r="H95" s="50" t="s">
@@ -9802,41 +9733,35 @@
       <c r="J95" s="37"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I80">
       <formula1>$A$3:$A$86</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H95">
-      <formula1>"Passed,Failed"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I53 I60">
       <formula1>$A$3:$A$89</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H95">
+      <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" display="http://itcareer.pythonanywhere.com/"/>
-    <hyperlink ref="C38" r:id="rId2" display="http://itcareer.pythonanywhere.com/"/>
-    <hyperlink ref="C12" r:id="rId3" display="http://itcareer.pythonanywhere.com/"/>
-    <hyperlink ref="C41" r:id="rId4" display="http://itcareer.pythonanywhere.com/"/>
-    <hyperlink ref="C5" r:id="rId5" display="http://itcareer.pythonanywhere.com/"/>
-    <hyperlink ref="D31" r:id="rId6"/>
-    <hyperlink ref="D32" r:id="rId7"/>
-    <hyperlink ref="D35" r:id="rId8"/>
-    <hyperlink ref="D36" r:id="rId9"/>
-    <hyperlink ref="C42" r:id="rId10" display="http://itcareer.pythonanywhere.com/"/>
-    <hyperlink ref="J5" location="'Баг-репорты'!B4" display="'Баг-репорты'!B4"/>
-    <hyperlink ref="J6" location="'Баг-репорты'!E4" display="B-2"/>
-    <hyperlink ref="J7" location="'Баг-репорты'!B16" display="B-3"/>
-    <hyperlink ref="J8" location="'Баг-репорты'!E16" display="B4"/>
-    <hyperlink ref="J13" location="'Баг-репорты'!B28" display="B-5"/>
-    <hyperlink ref="J14" location="'Баг-репорты'!E28" display="B-6"/>
-    <hyperlink ref="J15" location="'Баг-репорты'!B40" display="B-7"/>
-    <hyperlink ref="J16" location="'Баг-репорты'!E40" display="B-8"/>
-    <hyperlink ref="J10" location="'Баг-репорты'!B52" display="B-9"/>
-    <hyperlink ref="J17" location="'Баг-репорты'!E52" display="B-10"/>
-    <hyperlink ref="J18" location="'Баг-репорты'!B64" display="B11"/>
-    <hyperlink ref="J19" location="'Баг-репорты'!E64" display="B-12"/>
-    <hyperlink ref="J20" location="'Тест-кейсы'!B76" display="B-13"/>
+    <hyperlink ref="J6" location="'Баг-репорты'!B4" display="'Баг-репорты'!B4"/>
+    <hyperlink ref="J7" location="'Баг-репорты'!E4" display="B-2"/>
+    <hyperlink ref="J8" location="'Баг-репорты'!B16" display="B-3"/>
+    <hyperlink ref="J9" location="'Баг-репорты'!E16" display="B4"/>
+    <hyperlink ref="J14" location="'Баг-репорты'!B28" display="B-5"/>
+    <hyperlink ref="J15" location="'Баг-репорты'!E28" display="B-6"/>
+    <hyperlink ref="J16" location="'Баг-репорты'!B40" display="B-7"/>
+    <hyperlink ref="J17" location="'Баг-репорты'!E40" display="B-8"/>
+    <hyperlink ref="J11" location="'Баг-репорты'!B52" display="B-9"/>
+    <hyperlink ref="J18" location="'Баг-репорты'!E52" display="B-10"/>
+    <hyperlink ref="J19" location="'Баг-репорты'!B64" display="B11"/>
+    <hyperlink ref="J20" location="'Баг-репорты'!E64" display="B-12"/>
+    <hyperlink ref="J21" location="'Тест-кейсы'!B76" display="B-13"/>
     <hyperlink ref="I48" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I47" location="Требования!A40" display="F-13/1"/>
     <hyperlink ref="I52" location="Требования!A40" display="F-13/1"/>
@@ -9878,10 +9803,11 @@
     <hyperlink ref="I85" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I81" location="Требования!A43" display="F-13/4"/>
     <hyperlink ref="I86" location="Требования!A43" display="F-13/4"/>
+    <hyperlink ref="D32" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -9889,7 +9815,7 @@
           <x14:formula1>
             <xm:f>Требования!$A$3:$A$95</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I46 I87:I95</xm:sqref>
+          <xm:sqref>I87:I95 I6:I46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9901,14 +9827,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="62" style="68" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="62" style="61" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="62.140625" customWidth="1"/>
   </cols>
@@ -9917,7 +9843,7 @@
       <c r="A1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="58" t="s">
         <v>150</v>
       </c>
     </row>
@@ -9925,403 +9851,403 @@
       <c r="A2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="58" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="D4" s="70" t="s">
+      <c r="B4" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>410</v>
+      <c r="E4" s="57" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>414</v>
+      <c r="A5" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>408</v>
       </c>
       <c r="C5" s="43"/>
-      <c r="D5" s="67" t="s">
-        <v>387</v>
+      <c r="D5" s="60" t="s">
+        <v>381</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="60" t="s">
         <v>304</v>
       </c>
       <c r="C6" s="43"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="59" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>405</v>
+      <c r="A8" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>305</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="67" t="s">
-        <v>405</v>
+      <c r="D8" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>395</v>
+      <c r="A10" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>389</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" s="64"/>
+      <c r="D10" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>396</v>
+      <c r="A11" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>390</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>396</v>
+      <c r="D11" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>397</v>
+      <c r="A12" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>391</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>412</v>
+      <c r="D12" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>398</v>
+      <c r="A13" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>392</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>398</v>
+      <c r="D13" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="B14" s="67"/>
+      <c r="A14" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="60"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="E14" s="64"/>
+      <c r="D14" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="66" t="s">
-        <v>416</v>
+      <c r="E16" s="59" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>415</v>
+      <c r="A17" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>409</v>
       </c>
       <c r="C17" s="43"/>
-      <c r="D17" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>417</v>
+      <c r="D17" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="60" t="s">
         <v>304</v>
       </c>
       <c r="C18" s="43"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="59" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="67"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="43"/>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>405</v>
+      <c r="A20" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>306</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="67" t="s">
-        <v>405</v>
+      <c r="D20" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C21" s="43"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="60" t="s">
         <v>155</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="67" t="s">
-        <v>394</v>
-      </c>
       <c r="C22" s="43"/>
-      <c r="D22" s="67" t="s">
-        <v>388</v>
+      <c r="D22" s="60" t="s">
+        <v>382</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="59"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B29" s="67" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>396</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>397</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="E26" s="66"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="D28" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>425</v>
-      </c>
       <c r="C29" s="43"/>
-      <c r="D29" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>430</v>
+      <c r="D29" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="60" t="s">
         <v>304</v>
       </c>
       <c r="C30" s="43"/>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="59" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="67"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="66"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>405</v>
+      <c r="A32" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>311</v>
       </c>
       <c r="C32" s="43"/>
-      <c r="D32" s="67" t="s">
-        <v>405</v>
+      <c r="D32" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C33" s="43"/>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="60" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -10329,311 +10255,311 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>426</v>
+      <c r="A34" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>420</v>
       </c>
       <c r="C34" s="43"/>
-      <c r="D34" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="E34" s="66" t="s">
+      <c r="D34" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="59"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E41" s="67" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>396</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="E35" s="66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="E38" s="66"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="66" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="B41" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E41" s="74" t="s">
-        <v>434</v>
-      </c>
-    </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="60" t="s">
         <v>304</v>
       </c>
       <c r="C42" s="43"/>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="67"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="67"/>
+      <c r="E43" s="60"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
-        <v>405</v>
+      <c r="A44" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>313</v>
       </c>
       <c r="C44" s="43"/>
-      <c r="D44" s="67" t="s">
-        <v>405</v>
+      <c r="D44" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="60"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="60"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" s="67" t="s">
         <v>433</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>432</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>396</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="E47" s="67" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>412</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E48" s="67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="B49" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="E49" s="74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="E50" s="67"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="66" t="s">
+      <c r="C53" s="43"/>
+      <c r="D53" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E53" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="D52" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="66" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="B53" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E53" s="74" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="60" t="s">
         <v>304</v>
       </c>
       <c r="C54" s="43"/>
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="67"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="43"/>
-      <c r="D55" s="67" t="s">
+      <c r="D55" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="67"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="67" t="s">
-        <v>405</v>
+      <c r="A56" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>308</v>
       </c>
       <c r="C56" s="43"/>
-      <c r="D56" s="67" t="s">
-        <v>405</v>
+      <c r="D56" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C57" s="43"/>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="60" t="s">
         <v>155</v>
       </c>
       <c r="E57" s="41" t="s">
@@ -10641,155 +10567,155 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="B58" s="67" t="s">
+      <c r="A58" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B58" s="60" t="s">
         <v>269</v>
       </c>
       <c r="C58" s="43"/>
-      <c r="D58" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="E58" s="67" t="s">
-        <v>445</v>
+      <c r="D58" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>396</v>
+      <c r="A59" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>390</v>
       </c>
       <c r="C59" s="43"/>
-      <c r="D59" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="E59" s="67" t="s">
+      <c r="D59" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" s="60"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" s="60"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="59" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>412</v>
-      </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E60" s="67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="B61" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="E61" s="74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="E62" s="67"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="70" t="s">
+      <c r="D64" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="66" t="s">
-        <v>448</v>
-      </c>
-      <c r="D64" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="66" t="s">
-        <v>449</v>
+      <c r="E64" s="59" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="B65" s="74" t="s">
-        <v>446</v>
+      <c r="A65" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B65" s="67" t="s">
+        <v>440</v>
       </c>
       <c r="C65" s="43"/>
-      <c r="D65" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E65" s="74" t="s">
-        <v>447</v>
+      <c r="D65" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" s="67" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="60" t="s">
         <v>304</v>
       </c>
       <c r="C66" s="43"/>
-      <c r="D66" s="67" t="s">
+      <c r="D66" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="67"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="43"/>
-      <c r="D67" s="67" t="s">
+      <c r="D67" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="67"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="67" t="s">
-        <v>405</v>
+      <c r="A68" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>316</v>
       </c>
       <c r="C68" s="43"/>
-      <c r="D68" s="67" t="s">
-        <v>405</v>
+      <c r="D68" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="E68" s="40" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B69" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="43"/>
-      <c r="D69" s="67" t="s">
+      <c r="D69" s="60" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="41" t="s">
@@ -10797,159 +10723,223 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="B70" s="67" t="s">
+      <c r="A70" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E70" s="60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71" s="60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" s="67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B74" s="60"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E74" s="60"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="D76" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" s="67" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B71" s="67" t="s">
-        <v>442</v>
-      </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="E71" s="67" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B72" s="67" t="s">
-        <v>412</v>
-      </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="E72" s="67" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="B73" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="E73" s="74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="E74" s="67"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="66" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="B77" s="69" t="s">
-        <v>451</v>
+      <c r="D77" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E77" s="67" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="59" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="67" t="s">
+      <c r="D78" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" s="60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="66"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="67" t="s">
-        <v>405</v>
+      <c r="B79" s="59"/>
+      <c r="D79" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="60" t="s">
+        <v>399</v>
       </c>
       <c r="B80" s="40" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="67" t="s">
+      <c r="D80" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="B82" s="66" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="B83" s="66" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="B85" s="69" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="67" t="s">
+      <c r="D81" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="D82" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E82" s="60" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="D83" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E83" s="60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="E84" s="60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="B86" s="66"/>
+      <c r="D85" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" s="67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B86" s="59"/>
+      <c r="D86" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10962,19 +10952,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18" style="97" customWidth="1"/>
+    <col min="3" max="3" width="18" style="72" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
@@ -10988,220 +10978,220 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
     </row>
-    <row r="9" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
-      <c r="H10" s="99"/>
-    </row>
-    <row r="11" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
     </row>
-    <row r="13" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
     </row>
-    <row r="14" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
     </row>
-    <row r="15" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
     </row>
-    <row r="16" spans="1:8" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
     </row>
-    <row r="17" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
     </row>
-    <row r="18" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
     </row>
-    <row r="19" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="40" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
     </row>
-    <row r="20" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="40" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
     </row>
-    <row r="21" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="40" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
     </row>
-    <row r="22" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
     </row>
-    <row r="23" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
     </row>
-    <row r="24" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
     </row>
-    <row r="25" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
     </row>
-    <row r="26" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D26" s="40"/>
     </row>
-    <row r="27" spans="1:4" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D27" s="40"/>
     </row>
-    <row r="28" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D28" s="18"/>
     </row>
@@ -11209,7 +11199,7 @@
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D29" s="18"/>
     </row>
@@ -11217,7 +11207,7 @@
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D30" s="18"/>
     </row>
@@ -11225,7 +11215,7 @@
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D31" s="18"/>
     </row>
@@ -11233,7 +11223,7 @@
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D32" s="18"/>
     </row>
@@ -11241,7 +11231,7 @@
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D33" s="18"/>
     </row>
@@ -11249,7 +11239,7 @@
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D34" s="18"/>
     </row>
@@ -11257,7 +11247,7 @@
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D35" s="18"/>
     </row>
@@ -11265,7 +11255,7 @@
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D36" s="18"/>
     </row>
@@ -11273,7 +11263,7 @@
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D37" s="18"/>
     </row>
@@ -11281,15 +11271,15 @@
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D38" s="18"/>
     </row>
-    <row r="39" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D39" s="18"/>
     </row>
@@ -11297,7 +11287,7 @@
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D40" s="18"/>
     </row>
@@ -11305,7 +11295,7 @@
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D41" s="18"/>
     </row>
@@ -11313,7 +11303,7 @@
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D42" s="18"/>
     </row>
@@ -11321,7 +11311,7 @@
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D43" s="18"/>
     </row>
@@ -11329,7 +11319,7 @@
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D44" s="18"/>
     </row>
@@ -11337,7 +11327,7 @@
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D45" s="18"/>
     </row>
@@ -11345,7 +11335,7 @@
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D46" s="18"/>
     </row>
@@ -11353,7 +11343,7 @@
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D47" s="18"/>
     </row>
@@ -11361,7 +11351,7 @@
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D48" s="18"/>
     </row>
@@ -11369,7 +11359,7 @@
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D49" s="18"/>
     </row>
@@ -11377,7 +11367,7 @@
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D50" s="18"/>
     </row>
@@ -11385,7 +11375,7 @@
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D51" s="18"/>
     </row>
@@ -11393,7 +11383,7 @@
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D52" s="18"/>
     </row>
@@ -11401,7 +11391,7 @@
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D53" s="18"/>
     </row>
@@ -11409,7 +11399,7 @@
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D54" s="18"/>
     </row>
@@ -11417,7 +11407,7 @@
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D55" s="18"/>
     </row>
@@ -11425,15 +11415,15 @@
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D56" s="18"/>
     </row>
-    <row r="57" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D57" s="18"/>
     </row>
@@ -11441,7 +11431,7 @@
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D58" s="18"/>
     </row>
@@ -11449,7 +11439,7 @@
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D59" s="18"/>
     </row>
@@ -11457,112 +11447,112 @@
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="73"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73" t="s">
         <v>665</v>
       </c>
-      <c r="D60" s="18"/>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="98"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98" t="s">
+    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="98"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98" t="s">
+    <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="98"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98" t="s">
+    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="98"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="98"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="98"/>
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="98" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="98" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="98"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="98" t="s">
-        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -11576,7 +11566,7 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="764">
   <si>
     <t>ID</t>
   </si>
@@ -1189,6 +1189,9 @@
   <si>
     <t>1. Кликнуть по полю полю Email
 2. Ввести невалидные данные из Test Data</t>
+  </si>
+  <si>
+    <t>straschenko1333333333333333333333@mail.ru</t>
   </si>
   <si>
     <t>tDbb@588888888888</t>
@@ -2346,9 +2349,6 @@
     <t>Поле Name не подсвечивается  красной тенью при введении количества символов меньше/больше допустимого</t>
   </si>
   <si>
-    <t>=ДЛСТР(RC[1])</t>
-  </si>
-  <si>
     <t>Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
   <si>
@@ -2359,6 +2359,234 @@
   </si>
   <si>
     <t>B-14</t>
+  </si>
+  <si>
+    <t>B-15</t>
+  </si>
+  <si>
+    <t>Поле Surname не подсвечивается  красной тенью при введении количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>B-16</t>
+  </si>
+  <si>
+    <t>Поле Email не подсвечивается  красной тенью при введении количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>B-17</t>
+  </si>
+  <si>
+    <t>Поле Password не подсвечивается  красной тенью при введении количества символов меньше/больше допустимого</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>*?/\|&lt;&gt;,.()[]{},:'"!@#$%^&amp;`~+-№</t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ari</t>
+  </si>
+  <si>
+    <t>arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.arina </t>
+  </si>
+  <si>
+    <t>arina..</t>
+  </si>
+  <si>
+    <t>ARINA</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>strashchenkooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>стращенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> strashchenko_</t>
+  </si>
+  <si>
+    <t>-strashchenko</t>
+  </si>
+  <si>
+    <t>strashchenko''</t>
+  </si>
+  <si>
+    <t>STRASHCHENKO</t>
+  </si>
+  <si>
+    <t>@mail.ru</t>
+  </si>
+  <si>
+    <t>str@mail.ru</t>
+  </si>
+  <si>
+    <t>stra@mail.ru</t>
+  </si>
+  <si>
+    <t>stras@mail.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@maillllllllllllllllllllllllllll.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@mailllllllllllllllllllllllllllll.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@maillllllllllllllllllllllllllllll.ru</t>
+  </si>
+  <si>
+    <t>straschenko13333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t>*?/\|&lt;&gt;,.()[]{},:'"!#$%^&amp;`~+-№@mail.ru</t>
+  </si>
+  <si>
+    <t>стращенко13@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> straschenko13@m.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> straschenko13@.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@ma.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@mai.ru</t>
+  </si>
+  <si>
+    <t>strashchenko13@*?/\|&lt;&gt;,.()[]{},:'"!#$%^&amp;`~+-№.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.</t>
+  </si>
+  <si>
+    <t>straschenko13@маил.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.r</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.ru</t>
+  </si>
+  <si>
+    <t>Name: Arina
+Surname: Strashchenko
+Email: straschenko13@mail.ruu
+Password: tDbb@58!R</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.ruu</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.ruuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.ruuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.ruuuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>straschenko13@mail.ру</t>
+  </si>
+  <si>
+    <t>STRASHCHENKO13@MAIL.RU</t>
+  </si>
+  <si>
+    <t>strashchenko.-13@mail.ru</t>
+  </si>
+  <si>
+    <t>strashchenko12@ma-.il.ru</t>
+  </si>
+  <si>
+    <t>strashchenko13@mail.r--u</t>
+  </si>
+  <si>
+    <t>.strashchenko13@mail.ru</t>
+  </si>
+  <si>
+    <t>strashchenko13@mail.ru.</t>
+  </si>
+  <si>
+    <t>strashchenko13@mail.ru1</t>
+  </si>
+  <si>
+    <t>tDbb@58</t>
+  </si>
+  <si>
+    <t>tDbb@58!</t>
+  </si>
+  <si>
+    <t>tDbb@58!R</t>
+  </si>
+  <si>
+    <t>tDbb@58!fgrwfvv</t>
+  </si>
+  <si>
+    <t>tDbb@58!fgrwfvvz</t>
+  </si>
+  <si>
+    <t>tDbb@58!fgrwfvvzq</t>
+  </si>
+  <si>
+    <t>tdbb@58!r</t>
+  </si>
+  <si>
+    <t>TDBB@58!R</t>
+  </si>
+  <si>
+    <t>tDbb@d!R</t>
+  </si>
+  <si>
+    <t>tDbba58e</t>
+  </si>
+  <si>
+    <t>аВкк23@v!</t>
+  </si>
+  <si>
+    <t>Arina</t>
+  </si>
+  <si>
+    <t>Strashchenko</t>
   </si>
 </sst>
 </file>
@@ -2729,7 +2957,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2868,6 +3096,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2927,9 +3158,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2995,6 +3223,36 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3908,7 +4166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4023,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4049,7 +4307,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="81" t="s">
         <v>3</v>
       </c>
@@ -4063,7 +4321,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4121,7 +4379,7 @@
       </c>
       <c r="B21" s="89"/>
       <c r="C21" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4130,7 +4388,7 @@
       </c>
       <c r="B22" s="89"/>
       <c r="C22" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4152,7 +4410,7 @@
         <v>285</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4163,7 +4421,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,29 +4440,29 @@
         <v>59</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>460</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>448</v>
+      <c r="B28" s="56" t="s">
+        <v>449</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="55" t="s">
-        <v>454</v>
+      <c r="B29" s="56" t="s">
+        <v>455</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>77</v>
@@ -4251,7 +4509,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4259,54 +4517,54 @@
         <v>69</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>496</v>
+        <v>502</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>497</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>471</v>
+        <v>503</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>472</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>472</v>
+        <v>504</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>473</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>473</v>
+        <v>505</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>474</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4314,54 +4572,54 @@
         <v>70</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>497</v>
+        <v>506</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>498</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B41" s="69" t="s">
-        <v>498</v>
+        <v>507</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>499</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>499</v>
+        <v>508</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>500</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B43" s="69" t="s">
-        <v>500</v>
+        <v>509</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>501</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,10 +4649,10 @@
         <v>79</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4410,10 +4668,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>74</v>
@@ -4421,7 +4679,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>76</v>
@@ -4432,17 +4690,17 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B50" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50" s="55" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="83" t="s">
         <v>83</v>
       </c>
@@ -4701,7 +4959,7 @@
         <v>87</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4778,7 +5036,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4789,7 +5047,7 @@
         <v>95</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4800,7 +5058,7 @@
         <v>97</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4829,7 +5087,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4884,7 +5142,7 @@
         <v>100</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -4895,7 +5153,7 @@
         <v>99</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4968,7 +5226,7 @@
       <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -4977,7 +5235,7 @@
       <c r="B2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4999,7 +5257,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -5033,23 +5291,23 @@
         <v>182</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="70" t="s">
-        <v>501</v>
+      <c r="I6" s="71" t="s">
+        <v>502</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -5058,26 +5316,26 @@
         <v>160</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="70" t="s">
-        <v>505</v>
+      <c r="I7" s="71" t="s">
+        <v>506</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -5086,52 +5344,52 @@
         <v>169</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="70" t="s">
-        <v>505</v>
+      <c r="I9" s="71" t="s">
+        <v>506</v>
       </c>
       <c r="J9" s="18"/>
     </row>
@@ -5154,26 +5412,26 @@
         <v>164</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I11" s="70" t="s">
-        <v>502</v>
+      <c r="I11" s="71" t="s">
+        <v>503</v>
       </c>
       <c r="J11" s="18"/>
     </row>
@@ -5182,17 +5440,17 @@
         <v>164</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>186</v>
@@ -5200,8 +5458,8 @@
       <c r="H12" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="70" t="s">
-        <v>506</v>
+      <c r="I12" s="71" t="s">
+        <v>507</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -5210,13 +5468,13 @@
         <v>165</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="12" t="s">
@@ -5226,7 +5484,7 @@
       <c r="H13" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="18"/>
@@ -5236,26 +5494,26 @@
         <v>168</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="70" t="s">
-        <v>506</v>
+      <c r="I14" s="71" t="s">
+        <v>507</v>
       </c>
       <c r="J14" s="18"/>
     </row>
@@ -5278,17 +5536,17 @@
         <v>166</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>600</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>599</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>163</v>
@@ -5296,8 +5554,8 @@
       <c r="H16" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="70" t="s">
-        <v>503</v>
+      <c r="I16" s="71" t="s">
+        <v>504</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -5306,13 +5564,13 @@
         <v>167</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="12" t="s">
@@ -5322,7 +5580,7 @@
       <c r="H17" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="18"/>
@@ -5332,17 +5590,17 @@
         <v>170</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>163</v>
@@ -5350,8 +5608,8 @@
       <c r="H18" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="70" t="s">
-        <v>507</v>
+      <c r="I18" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -5360,17 +5618,17 @@
         <v>171</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>163</v>
@@ -5378,8 +5636,8 @@
       <c r="H19" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I19" s="70" t="s">
-        <v>507</v>
+      <c r="I19" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J19" s="18"/>
     </row>
@@ -5388,17 +5646,17 @@
         <v>172</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>163</v>
@@ -5406,8 +5664,8 @@
       <c r="H20" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="70" t="s">
-        <v>507</v>
+      <c r="I20" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J20" s="18"/>
     </row>
@@ -5416,17 +5674,17 @@
         <v>173</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>163</v>
@@ -5434,8 +5692,8 @@
       <c r="H21" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="70" t="s">
-        <v>507</v>
+      <c r="I21" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J21" s="18"/>
     </row>
@@ -5444,17 +5702,17 @@
         <v>174</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>163</v>
@@ -5462,8 +5720,8 @@
       <c r="H22" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="70" t="s">
-        <v>507</v>
+      <c r="I22" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J22" s="18"/>
     </row>
@@ -5472,17 +5730,17 @@
         <v>175</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>163</v>
@@ -5490,8 +5748,8 @@
       <c r="H23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="70" t="s">
-        <v>507</v>
+      <c r="I23" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J23" s="18"/>
     </row>
@@ -5511,20 +5769,20 @@
     </row>
     <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>609</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>608</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>163</v>
@@ -5532,27 +5790,27 @@
       <c r="H25" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="70" t="s">
-        <v>504</v>
+      <c r="I25" s="71" t="s">
+        <v>505</v>
       </c>
       <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>163</v>
@@ -5560,23 +5818,23 @@
       <c r="H26" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="70" t="s">
-        <v>508</v>
+      <c r="I26" s="71" t="s">
+        <v>509</v>
       </c>
       <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="12" t="s">
@@ -5586,27 +5844,27 @@
       <c r="H27" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="70" t="s">
+      <c r="I27" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C28" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>613</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>612</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>163</v>
@@ -5614,8 +5872,8 @@
       <c r="H28" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="70" t="s">
-        <v>508</v>
+      <c r="I28" s="71" t="s">
+        <v>509</v>
       </c>
       <c r="J28" s="18"/>
     </row>
@@ -5705,7 +5963,7 @@
       <c r="B1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -5714,7 +5972,7 @@
       <c r="B2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5736,7 +5994,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -5767,26 +6025,26 @@
         <v>176</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="70" t="s">
-        <v>505</v>
+      <c r="I6" s="71" t="s">
+        <v>506</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -5795,25 +6053,25 @@
         <v>177</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="18"/>
@@ -5826,25 +6084,25 @@
         <v>178</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="18"/>
@@ -5857,25 +6115,25 @@
         <v>183</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="18"/>
@@ -5884,28 +6142,28 @@
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J10" s="18"/>
@@ -5915,29 +6173,29 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I11" s="70" t="s">
-        <v>505</v>
+      <c r="I11" s="71" t="s">
+        <v>506</v>
       </c>
       <c r="J11" s="18"/>
       <c r="L11" s="1"/>
@@ -5969,23 +6227,23 @@
         <v>185</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I13" s="70" t="s">
-        <v>506</v>
+      <c r="I13" s="71" t="s">
+        <v>507</v>
       </c>
       <c r="J13" s="18"/>
       <c r="L13" s="1"/>
@@ -5997,23 +6255,23 @@
         <v>180</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="18"/>
@@ -6026,23 +6284,23 @@
         <v>181</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="18"/>
@@ -6055,23 +6313,23 @@
         <v>184</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J16" s="18"/>
@@ -6081,26 +6339,26 @@
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="18"/>
@@ -6110,29 +6368,29 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I18" s="70" t="s">
-        <v>506</v>
+      <c r="I18" s="71" t="s">
+        <v>507</v>
       </c>
       <c r="J18" s="18"/>
       <c r="L18" s="1"/>
@@ -6164,23 +6422,23 @@
         <v>193</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I20" s="70" t="s">
-        <v>503</v>
+      <c r="I20" s="71" t="s">
+        <v>504</v>
       </c>
       <c r="J20" s="18"/>
       <c r="L20" s="1"/>
@@ -6192,26 +6450,26 @@
         <v>205</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I21" s="70" t="s">
-        <v>507</v>
+      <c r="I21" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J21" s="18"/>
       <c r="L21" s="1"/>
@@ -6223,23 +6481,23 @@
         <v>202</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J22" s="18"/>
@@ -6252,23 +6510,23 @@
         <v>206</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="I23" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J23" s="18"/>
@@ -6281,23 +6539,23 @@
         <v>207</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="I24" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="18"/>
@@ -6313,20 +6571,20 @@
         <v>194</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J25" s="18"/>
@@ -6342,21 +6600,21 @@
         <v>195</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="70" t="s">
-        <v>507</v>
+      <c r="I26" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J26" s="18"/>
       <c r="L26" s="1"/>
@@ -6371,23 +6629,23 @@
         <v>196</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I27" s="70" t="s">
-        <v>507</v>
+      <c r="I27" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J27" s="18"/>
       <c r="L27" s="1"/>
@@ -6402,20 +6660,20 @@
         <v>197</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J28" s="18"/>
@@ -6428,23 +6686,23 @@
         <v>211</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I29" s="70" t="s">
+      <c r="I29" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="18"/>
@@ -6457,23 +6715,23 @@
         <v>212</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J30" s="18"/>
@@ -6486,23 +6744,23 @@
         <v>213</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J31" s="18"/>
@@ -6512,29 +6770,29 @@
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I32" s="70" t="s">
-        <v>507</v>
+      <c r="I32" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J32" s="18"/>
       <c r="L32" s="1"/>
@@ -6543,29 +6801,29 @@
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I33" s="70" t="s">
-        <v>507</v>
+      <c r="I33" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J33" s="18"/>
       <c r="L33" s="1"/>
@@ -6574,26 +6832,26 @@
     </row>
     <row r="34" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I34" s="70" t="s">
+      <c r="I34" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J34" s="18"/>
@@ -6603,26 +6861,26 @@
     </row>
     <row r="35" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>581</v>
+        <v>738</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I35" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J35" s="18"/>
@@ -6632,26 +6890,26 @@
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J36" s="18"/>
@@ -6661,26 +6919,26 @@
     </row>
     <row r="37" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J37" s="18"/>
@@ -6690,29 +6948,29 @@
     </row>
     <row r="38" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I38" s="70" t="s">
-        <v>507</v>
+      <c r="I38" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J38" s="18"/>
       <c r="L38" s="1"/>
@@ -6741,26 +6999,26 @@
         <v>189</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>162</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I40" s="70" t="s">
-        <v>508</v>
+      <c r="I40" s="71" t="s">
+        <v>509</v>
       </c>
       <c r="J40" s="18"/>
       <c r="L40" s="1"/>
@@ -6772,23 +7030,23 @@
         <v>190</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J41" s="18"/>
@@ -6801,23 +7059,23 @@
         <v>190</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="70" t="s">
+      <c r="I42" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J42" s="18"/>
@@ -6830,27 +7088,27 @@
         <v>191</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="70" t="s">
+      <c r="I43" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J43" s="18"/>
-      <c r="K43" s="71"/>
+      <c r="K43" s="72"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -6863,20 +7121,20 @@
         <v>188</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I44" s="70" t="s">
+      <c r="I44" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J44" s="18"/>
@@ -6892,23 +7150,23 @@
         <v>187</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H45" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="70" t="s">
-        <v>508</v>
+      <c r="I45" s="71" t="s">
+        <v>509</v>
       </c>
       <c r="J45" s="18"/>
       <c r="L45" s="1"/>
@@ -6990,8 +7248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7050,7 +7308,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -7066,7 +7324,7 @@
       <c r="A5" s="90"/>
       <c r="B5" s="92"/>
       <c r="C5" s="46" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="91"/>
@@ -7089,10 +7347,10 @@
         <v>305</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>245</v>
@@ -7100,7 +7358,7 @@
       <c r="I6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="64" t="str">
+      <c r="J6" s="65" t="str">
         <f>'Баг-репорты'!B4</f>
         <v>B-1</v>
       </c>
@@ -7118,7 +7376,7 @@
       <c r="C7" s="47"/>
       <c r="D7" s="41"/>
       <c r="E7" s="40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -7128,16 +7386,16 @@
       <c r="I7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="66" t="s">
-        <v>404</v>
+      <c r="J7" s="67" t="s">
+        <v>405</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>402</v>
+      <c r="A8" s="66" t="s">
+        <v>403</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>249</v>
@@ -7148,10 +7406,10 @@
         <v>306</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>245</v>
@@ -7159,8 +7417,8 @@
       <c r="I8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="64" t="s">
-        <v>407</v>
+      <c r="J8" s="65" t="s">
+        <v>408</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
@@ -7170,19 +7428,19 @@
       <c r="A9" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="41"/>
       <c r="E9" s="40" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>245</v>
@@ -7190,8 +7448,8 @@
       <c r="I9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="64" t="s">
-        <v>415</v>
+      <c r="J9" s="65" t="s">
+        <v>416</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
@@ -7217,7 +7475,7 @@
         <v>161</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="42"/>
@@ -7237,7 +7495,7 @@
         <v>308</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>269</v>
@@ -7246,10 +7504,10 @@
         <v>245</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>432</v>
+        <v>373</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>433</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -7275,7 +7533,7 @@
         <v>161</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="42"/>
@@ -7302,7 +7560,7 @@
         <v>161</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="42"/>
@@ -7325,7 +7583,7 @@
         <v>251</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>245</v>
@@ -7333,8 +7591,8 @@
       <c r="I14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="64" t="s">
-        <v>416</v>
+      <c r="J14" s="65" t="s">
+        <v>417</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
@@ -7356,7 +7614,7 @@
         <v>252</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>245</v>
@@ -7364,8 +7622,8 @@
       <c r="I15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="64" t="s">
-        <v>421</v>
+      <c r="J15" s="65" t="s">
+        <v>422</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -7384,10 +7642,10 @@
         <v>313</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>245</v>
@@ -7395,8 +7653,8 @@
       <c r="I16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="64" t="s">
-        <v>423</v>
+      <c r="J16" s="65" t="s">
+        <v>424</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
@@ -7415,10 +7673,10 @@
         <v>314</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>245</v>
@@ -7426,8 +7684,8 @@
       <c r="I17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="64" t="s">
-        <v>431</v>
+      <c r="J17" s="65" t="s">
+        <v>432</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
@@ -7448,8 +7706,8 @@
       <c r="F18" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="67" t="s">
-        <v>439</v>
+      <c r="G18" s="68" t="s">
+        <v>440</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>245</v>
@@ -7457,8 +7715,8 @@
       <c r="I18" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="64" t="s">
-        <v>437</v>
+      <c r="J18" s="65" t="s">
+        <v>438</v>
       </c>
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
@@ -7479,8 +7737,8 @@
       <c r="F19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="67" t="s">
-        <v>439</v>
+      <c r="G19" s="68" t="s">
+        <v>440</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>245</v>
@@ -7488,8 +7746,8 @@
       <c r="I19" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="64" t="s">
-        <v>446</v>
+      <c r="J19" s="65" t="s">
+        <v>447</v>
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
@@ -7510,8 +7768,8 @@
       <c r="F20" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="67" t="s">
-        <v>439</v>
+      <c r="G20" s="68" t="s">
+        <v>440</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>245</v>
@@ -7519,8 +7777,8 @@
       <c r="I20" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>443</v>
+      <c r="J20" s="65" t="s">
+        <v>444</v>
       </c>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
@@ -7541,8 +7799,8 @@
       <c r="F21" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="67" t="s">
-        <v>439</v>
+      <c r="G21" s="68" t="s">
+        <v>440</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>245</v>
@@ -7550,8 +7808,8 @@
       <c r="I21" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="64" t="s">
-        <v>444</v>
+      <c r="J21" s="65" t="s">
+        <v>445</v>
       </c>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -7579,7 +7837,7 @@
       <c r="I22" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
@@ -7680,7 +7938,7 @@
         <v>340</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="50" t="s">
@@ -7709,7 +7967,7 @@
         <v>341</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="50" t="s">
@@ -7738,7 +7996,7 @@
         <v>342</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="50" t="s">
@@ -7767,7 +8025,7 @@
         <v>343</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="50" t="s">
@@ -7788,9 +8046,7 @@
       <c r="B30" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>684</v>
-      </c>
+      <c r="C30" s="47"/>
       <c r="D30" s="41" t="s">
         <v>685</v>
       </c>
@@ -7801,7 +8057,7 @@
         <v>54</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>245</v>
@@ -7809,7 +8065,9 @@
       <c r="I30" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="65" t="s">
+        <v>688</v>
+      </c>
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
@@ -7821,9 +8079,7 @@
       <c r="B31" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C31" s="47" t="s">
-        <v>684</v>
-      </c>
+      <c r="C31" s="47"/>
       <c r="D31" s="41" t="s">
         <v>686</v>
       </c>
@@ -7834,7 +8090,7 @@
         <v>54</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>245</v>
@@ -7842,7 +8098,9 @@
       <c r="I31" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="65" t="s">
+        <v>689</v>
+      </c>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
@@ -7854,9 +8112,7 @@
       <c r="B32" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C32" s="47" t="s">
-        <v>684</v>
-      </c>
+      <c r="C32" s="47"/>
       <c r="D32" s="96" t="s">
         <v>687</v>
       </c>
@@ -7867,7 +8123,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>245</v>
@@ -7875,7 +8131,9 @@
       <c r="I32" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="40"/>
+      <c r="J32" s="65" t="s">
+        <v>691</v>
+      </c>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -7887,11 +8145,9 @@
       <c r="B33" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C33" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="D33" s="94" t="s">
-        <v>359</v>
+      <c r="C33" s="47"/>
+      <c r="D33" s="97" t="s">
+        <v>360</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>355</v>
@@ -7900,7 +8156,7 @@
         <v>54</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>245</v>
@@ -7908,27 +8164,29 @@
       <c r="I33" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="40"/>
+      <c r="J33" s="65" t="s">
+        <v>694</v>
+      </c>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
     </row>
     <row r="34" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="41" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="50" t="s">
@@ -7944,20 +8202,20 @@
     </row>
     <row r="35" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="41" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="50" t="s">
@@ -7973,20 +8231,20 @@
     </row>
     <row r="36" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="50" t="s">
@@ -8002,20 +8260,20 @@
     </row>
     <row r="37" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="50" t="s">
@@ -8120,7 +8378,7 @@
       <c r="C41" s="47"/>
       <c r="D41" s="41"/>
       <c r="E41" s="40" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>329</v>
@@ -8139,7 +8397,7 @@
     </row>
     <row r="42" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" s="44" t="s">
         <v>328</v>
@@ -8147,10 +8405,10 @@
       <c r="C42" s="47"/>
       <c r="D42" s="41"/>
       <c r="E42" s="40" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="50" t="s">
@@ -8166,19 +8424,19 @@
     </row>
     <row r="43" spans="1:14" s="43" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="95" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>72</v>
@@ -8197,19 +8455,19 @@
     </row>
     <row r="44" spans="1:14" s="43" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C44" s="95" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D44" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>74</v>
@@ -8219,7 +8477,7 @@
         <v>161</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J44" s="40"/>
       <c r="K44" s="42"/>
@@ -8246,7 +8504,7 @@
         <v>245</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="42"/>
@@ -8261,23 +8519,23 @@
         <v>182</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I46" s="70" t="s">
-        <v>501</v>
+      <c r="I46" s="71" t="s">
+        <v>502</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="4"/>
@@ -8288,26 +8546,26 @@
         <v>176</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I47" s="70" t="s">
-        <v>505</v>
+      <c r="I47" s="71" t="s">
+        <v>506</v>
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="4"/>
@@ -8318,25 +8576,25 @@
         <v>177</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H48" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J48" s="18"/>
@@ -8349,25 +8607,25 @@
         <v>178</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H49" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I49" s="70" t="s">
+      <c r="I49" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J49" s="18"/>
@@ -8380,25 +8638,25 @@
         <v>183</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H50" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I50" s="70" t="s">
+      <c r="I50" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J50" s="18"/>
@@ -8407,28 +8665,28 @@
     </row>
     <row r="51" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H51" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="70" t="s">
+      <c r="I51" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J51" s="18"/>
@@ -8438,29 +8696,29 @@
     </row>
     <row r="52" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H52" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="70" t="s">
-        <v>505</v>
+      <c r="I52" s="71" t="s">
+        <v>506</v>
       </c>
       <c r="J52" s="18"/>
       <c r="L52" s="1"/>
@@ -8472,26 +8730,26 @@
         <v>164</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H53" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I53" s="70" t="s">
-        <v>502</v>
+      <c r="I53" s="71" t="s">
+        <v>503</v>
       </c>
       <c r="J53" s="18"/>
       <c r="K53" s="4"/>
@@ -8505,23 +8763,23 @@
         <v>185</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I54" s="70" t="s">
-        <v>506</v>
+      <c r="I54" s="71" t="s">
+        <v>507</v>
       </c>
       <c r="J54" s="18"/>
       <c r="L54" s="1"/>
@@ -8533,23 +8791,23 @@
         <v>180</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="12" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I55" s="70" t="s">
+      <c r="I55" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J55" s="18"/>
@@ -8562,23 +8820,23 @@
         <v>181</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I56" s="70" t="s">
+      <c r="I56" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J56" s="18"/>
@@ -8591,23 +8849,23 @@
         <v>184</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I57" s="70" t="s">
+      <c r="I57" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J57" s="18"/>
@@ -8617,26 +8875,26 @@
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I58" s="70" t="s">
+      <c r="I58" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J58" s="18"/>
@@ -8646,29 +8904,29 @@
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H59" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I59" s="70" t="s">
-        <v>506</v>
+      <c r="I59" s="71" t="s">
+        <v>507</v>
       </c>
       <c r="J59" s="18"/>
       <c r="L59" s="1"/>
@@ -8680,17 +8938,17 @@
         <v>166</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C60" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>600</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>599</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>163</v>
@@ -8698,8 +8956,8 @@
       <c r="H60" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="70" t="s">
-        <v>503</v>
+      <c r="I60" s="71" t="s">
+        <v>504</v>
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="4"/>
@@ -8713,23 +8971,23 @@
         <v>193</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H61" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I61" s="70" t="s">
-        <v>503</v>
+      <c r="I61" s="71" t="s">
+        <v>504</v>
       </c>
       <c r="J61" s="18"/>
       <c r="L61" s="1"/>
@@ -8741,26 +8999,26 @@
         <v>205</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H62" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I62" s="70" t="s">
-        <v>507</v>
+      <c r="I62" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J62" s="18"/>
       <c r="L62" s="1"/>
@@ -8772,23 +9030,23 @@
         <v>202</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I63" s="70" t="s">
+      <c r="I63" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J63" s="18"/>
@@ -8801,23 +9059,23 @@
         <v>206</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I64" s="70" t="s">
+      <c r="I64" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J64" s="18"/>
@@ -8830,23 +9088,23 @@
         <v>207</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I65" s="70" t="s">
+      <c r="I65" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J65" s="18"/>
@@ -8862,20 +9120,20 @@
         <v>194</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I66" s="70" t="s">
+      <c r="I66" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J66" s="18"/>
@@ -8891,21 +9149,21 @@
         <v>195</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I67" s="70" t="s">
-        <v>507</v>
+      <c r="I67" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J67" s="18"/>
       <c r="L67" s="1"/>
@@ -8920,23 +9178,23 @@
         <v>196</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H68" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I68" s="70" t="s">
-        <v>507</v>
+      <c r="I68" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J68" s="18"/>
       <c r="L68" s="1"/>
@@ -8951,20 +9209,20 @@
         <v>197</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I69" s="70" t="s">
+      <c r="I69" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J69" s="18"/>
@@ -8977,23 +9235,23 @@
         <v>211</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I70" s="70" t="s">
+      <c r="I70" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J70" s="18"/>
@@ -9006,23 +9264,23 @@
         <v>212</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I71" s="70" t="s">
+      <c r="I71" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J71" s="18"/>
@@ -9035,23 +9293,23 @@
         <v>213</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I72" s="70" t="s">
+      <c r="I72" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J72" s="18"/>
@@ -9061,29 +9319,29 @@
     </row>
     <row r="73" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H73" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I73" s="70" t="s">
-        <v>507</v>
+      <c r="I73" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J73" s="18"/>
       <c r="L73" s="1"/>
@@ -9092,29 +9350,29 @@
     </row>
     <row r="74" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H74" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I74" s="70" t="s">
-        <v>507</v>
+      <c r="I74" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J74" s="18"/>
       <c r="L74" s="1"/>
@@ -9123,26 +9381,26 @@
     </row>
     <row r="75" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I75" s="70" t="s">
+      <c r="I75" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J75" s="18"/>
@@ -9152,26 +9410,26 @@
     </row>
     <row r="76" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I76" s="70" t="s">
+      <c r="I76" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J76" s="18"/>
@@ -9181,26 +9439,26 @@
     </row>
     <row r="77" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I77" s="70" t="s">
+      <c r="I77" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J77" s="18"/>
@@ -9210,26 +9468,26 @@
     </row>
     <row r="78" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I78" s="70" t="s">
+      <c r="I78" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J78" s="18"/>
@@ -9239,29 +9497,29 @@
     </row>
     <row r="79" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H79" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I79" s="70" t="s">
-        <v>507</v>
+      <c r="I79" s="71" t="s">
+        <v>508</v>
       </c>
       <c r="J79" s="18"/>
       <c r="L79" s="1"/>
@@ -9270,20 +9528,20 @@
     </row>
     <row r="80" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C80" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>609</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>608</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>163</v>
@@ -9291,8 +9549,8 @@
       <c r="H80" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I80" s="70" t="s">
-        <v>504</v>
+      <c r="I80" s="71" t="s">
+        <v>505</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="4"/>
@@ -9303,26 +9561,26 @@
         <v>189</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>162</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H81" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I81" s="70" t="s">
-        <v>508</v>
+      <c r="I81" s="71" t="s">
+        <v>509</v>
       </c>
       <c r="J81" s="18"/>
       <c r="L81" s="1"/>
@@ -9334,23 +9592,23 @@
         <v>190</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I82" s="70" t="s">
+      <c r="I82" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J82" s="18"/>
@@ -9363,23 +9621,23 @@
         <v>190</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I83" s="70" t="s">
+      <c r="I83" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J83" s="18"/>
@@ -9392,27 +9650,27 @@
         <v>191</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I84" s="70" t="s">
+      <c r="I84" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J84" s="18"/>
-      <c r="K84" s="71"/>
+      <c r="K84" s="72"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -9425,20 +9683,20 @@
         <v>188</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I85" s="70" t="s">
+      <c r="I85" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J85" s="18"/>
@@ -9454,23 +9712,23 @@
         <v>187</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H86" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I86" s="70" t="s">
-        <v>508</v>
+      <c r="I86" s="71" t="s">
+        <v>509</v>
       </c>
       <c r="J86" s="18"/>
       <c r="L86" s="1"/>
@@ -9484,7 +9742,7 @@
       <c r="B87" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="53" t="s">
         <v>330</v>
       </c>
       <c r="D87" s="36" t="s">
@@ -9553,7 +9811,7 @@
         <v>331</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G89" s="38"/>
       <c r="H89" s="39" t="s">
@@ -9581,7 +9839,7 @@
         <v>331</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G90" s="38"/>
       <c r="H90" s="39" t="s">
@@ -9609,7 +9867,7 @@
         <v>331</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G91" s="38"/>
       <c r="H91" s="39" t="s">
@@ -9665,7 +9923,7 @@
         <v>331</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G93" s="38"/>
       <c r="H93" s="50" t="s">
@@ -9693,7 +9951,7 @@
         <v>331</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G94" s="38"/>
       <c r="H94" s="50" t="s">
@@ -9721,7 +9979,7 @@
         <v>331</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G95" s="38"/>
       <c r="H95" s="50" t="s">
@@ -9804,10 +10062,15 @@
     <hyperlink ref="I81" location="Требования!A43" display="F-13/4"/>
     <hyperlink ref="I86" location="Требования!A43" display="F-13/4"/>
     <hyperlink ref="D32" r:id="rId1"/>
+    <hyperlink ref="J30" location="'Баг-репорты'!R76C5" display="B-14"/>
+    <hyperlink ref="J31" location="'Баг-репорты'!R88C2" display="B-15"/>
+    <hyperlink ref="J32" location="'Баг-репорты'!R88C5" display="B-16"/>
+    <hyperlink ref="J33" location="'Баг-репорты'!R100C2" display="B-17"/>
+    <hyperlink ref="D33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -9825,16 +10088,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="62" style="61" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="62" style="62" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="62.140625" customWidth="1"/>
   </cols>
@@ -9843,7 +10106,7 @@
       <c r="A1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>150</v>
       </c>
     </row>
@@ -9851,403 +10114,403 @@
       <c r="A2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>404</v>
+      <c r="E4" s="58" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>408</v>
+      <c r="A5" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>409</v>
       </c>
       <c r="C5" s="43"/>
-      <c r="D5" s="60" t="s">
-        <v>381</v>
+      <c r="D5" s="61" t="s">
+        <v>382</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>304</v>
       </c>
       <c r="C6" s="43"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>399</v>
+      <c r="A8" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>305</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="60" t="s">
-        <v>399</v>
+      <c r="D8" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>389</v>
+      <c r="A10" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>390</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="E10" s="57"/>
+      <c r="D10" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>390</v>
+      <c r="A11" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>391</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>390</v>
+      <c r="D11" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>391</v>
+      <c r="A12" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>392</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>406</v>
+      <c r="D12" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>392</v>
+      <c r="A13" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>393</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>392</v>
+      <c r="D13" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B14" s="60"/>
+      <c r="A14" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="61"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E14" s="57"/>
+      <c r="D14" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" s="63" t="s">
+      <c r="B16" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="68" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>409</v>
-      </c>
       <c r="C17" s="43"/>
-      <c r="D17" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>411</v>
+      <c r="D17" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="61" t="s">
         <v>304</v>
       </c>
       <c r="C18" s="43"/>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="43"/>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="59"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>399</v>
+      <c r="A20" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>306</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="60" t="s">
-        <v>399</v>
+      <c r="D20" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C21" s="43"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="61" t="s">
         <v>155</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="60"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="60" t="s">
+      <c r="B29" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E26" s="59"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>416</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>419</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>424</v>
+      <c r="E29" s="63" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="61" t="s">
         <v>304</v>
       </c>
       <c r="C30" s="43"/>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="59"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>399</v>
+      <c r="A32" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>311</v>
       </c>
       <c r="C32" s="43"/>
-      <c r="D32" s="60" t="s">
-        <v>399</v>
+      <c r="D32" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C33" s="43"/>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="61" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -10255,311 +10518,311 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="60"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B34" s="60" t="s">
-        <v>420</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="60" t="s">
+      <c r="B41" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="E34" s="59" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E38" s="59"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="59" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>425</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="E41" s="67" t="s">
-        <v>428</v>
+      <c r="E41" s="68" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="61" t="s">
         <v>304</v>
       </c>
       <c r="C42" s="43"/>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="61" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="60"/>
+      <c r="E43" s="61"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
-        <v>399</v>
+      <c r="A44" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>313</v>
       </c>
       <c r="C44" s="43"/>
-      <c r="D44" s="60" t="s">
-        <v>399</v>
+      <c r="D44" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="41" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E46" s="61" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="61"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B46" s="60" t="s">
-        <v>426</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="60" t="s">
+      <c r="B53" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="B49" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E49" s="67" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E50" s="60"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="59" t="s">
-        <v>432</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>433</v>
-      </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="E53" s="67" t="s">
-        <v>438</v>
+      <c r="E53" s="68" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="61" t="s">
         <v>304</v>
       </c>
       <c r="C54" s="43"/>
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="61" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="60"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="43"/>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="60"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
-        <v>399</v>
+      <c r="A56" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>308</v>
       </c>
       <c r="C56" s="43"/>
-      <c r="D56" s="60" t="s">
-        <v>399</v>
+      <c r="D56" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C57" s="43"/>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="61" t="s">
         <v>155</v>
       </c>
       <c r="E57" s="41" t="s">
@@ -10567,155 +10830,155 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="61"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" s="61"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="D64" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="60" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B58" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="60" t="s">
+      <c r="B65" s="68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="E58" s="60" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B59" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E59" s="60" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E61" s="67" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E62" s="60"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="59" t="s">
+      <c r="E65" s="68" t="s">
         <v>442</v>
       </c>
-      <c r="D64" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="59" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B65" s="67" t="s">
-        <v>440</v>
-      </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="E65" s="67" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="60" t="s">
+      <c r="A66" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="61" t="s">
         <v>304</v>
       </c>
       <c r="C66" s="43"/>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="61" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="60"/>
+      <c r="B67" s="61"/>
       <c r="C67" s="43"/>
-      <c r="D67" s="60" t="s">
+      <c r="D67" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="60"/>
+      <c r="E67" s="61"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="60" t="s">
-        <v>399</v>
+      <c r="A68" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>316</v>
       </c>
       <c r="C68" s="43"/>
-      <c r="D68" s="60" t="s">
-        <v>399</v>
+      <c r="D68" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="E68" s="40" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B69" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="43"/>
-      <c r="D69" s="60" t="s">
+      <c r="D69" s="61" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="41" t="s">
@@ -10723,124 +10986,124 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="60" t="s">
+      <c r="A70" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E71" s="61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E72" s="61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" s="68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B74" s="61"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E74" s="61"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="60" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B70" s="60" t="s">
-        <v>439</v>
-      </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="60" t="s">
+      <c r="B77" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="D77" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="E70" s="60" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="B71" s="60" t="s">
-        <v>436</v>
-      </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="B72" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E72" s="60" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="B73" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E73" s="67" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E74" s="60"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="59" t="s">
-        <v>444</v>
-      </c>
-      <c r="D76" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="B77" s="62" t="s">
-        <v>445</v>
-      </c>
-      <c r="D77" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="E77" s="67" t="s">
-        <v>683</v>
+      <c r="E77" s="68" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="E78" s="60" t="s">
+      <c r="E78" s="61" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="60" t="s">
+      <c r="A79" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="59"/>
-      <c r="D79" s="60" t="s">
+      <c r="B79" s="60"/>
+      <c r="D79" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E79" s="41" t="s">
@@ -10848,27 +11111,27 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
-        <v>399</v>
+      <c r="A80" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="B80" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="D80" s="60" t="s">
-        <v>399</v>
+      <c r="D80" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="E80" s="40" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="60" t="s">
+      <c r="A81" s="61" t="s">
         <v>155</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="60" t="s">
+      <c r="D81" s="61" t="s">
         <v>155</v>
       </c>
       <c r="E81" s="41" t="s">
@@ -10876,95 +11139,339 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="60" t="s">
+      <c r="A82" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E82" s="61" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B83" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="D83" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83" s="61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E84" s="61" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B85" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="D85" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" s="68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B86" s="60"/>
+      <c r="D86" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="61"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>689</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="60" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B82" s="59" t="s">
-        <v>439</v>
-      </c>
-      <c r="D82" s="60" t="s">
+      <c r="B89" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D89" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="E82" s="60" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="60" t="s">
+      <c r="E89" s="68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="E90" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>686</v>
+      </c>
+      <c r="D91" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="59" t="s">
-        <v>436</v>
-      </c>
-      <c r="D83" s="60" t="s">
+      <c r="B94" s="61" t="s">
+        <v>625</v>
+      </c>
+      <c r="D94" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="E83" s="60" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="60" t="s">
+      <c r="E94" s="61" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="B84" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="D84" s="60" t="s">
+      <c r="B95" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="D95" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="E84" s="60" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="60" t="s">
+      <c r="E95" s="61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="B85" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="D85" s="60" t="s">
+      <c r="B96" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="D96" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="E85" s="67" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="60" t="s">
+      <c r="E96" s="61" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="B86" s="59"/>
-      <c r="D86" s="60" t="s">
+      <c r="B97" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="D97" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="E86" s="60"/>
+      <c r="E97" s="68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="61"/>
+      <c r="D98" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E98" s="61"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="60" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="B101" s="68" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B106" s="61" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B108" s="61" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" s="68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B110" s="61"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E91" r:id="rId1"/>
+    <hyperlink ref="B103" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18" style="73" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="18" style="102" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
@@ -10977,587 +11484,1537 @@
       <c r="D1" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H2" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I2" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>626</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="41" t="s">
+        <v>696</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>627</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
-    </row>
-    <row r="5" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>628</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="41" t="s">
+        <v>700</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H5" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I5" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="69" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>629</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>630</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="41" t="s">
+        <v>702</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I7" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>631</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H8" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
-    </row>
-    <row r="10" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H9" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I9" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
-      <c r="H10" s="74"/>
-    </row>
-    <row r="11" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="41" t="s">
+        <v>698</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>633</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="41" t="s">
+        <v>704</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I11" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>634</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I12" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>635</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40" t="s">
-        <v>625</v>
-      </c>
+      <c r="F13" s="41" t="s">
+        <v>706</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H13" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I13" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H14" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I15" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
-    </row>
-    <row r="17" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>708</v>
+      </c>
+      <c r="H16" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I16" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
-    </row>
-    <row r="18" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>709</v>
+      </c>
+      <c r="H17" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I17" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="H18" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
-    </row>
-    <row r="20" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>711</v>
+      </c>
+      <c r="H19" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
-    </row>
-    <row r="21" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="H20" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I20" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="40" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
-    </row>
-    <row r="22" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="H21" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I21" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40" t="s">
         <v>632</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
-    </row>
-    <row r="23" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="H22" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I22" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40" t="s">
-        <v>633</v>
+        <v>674</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
-    </row>
-    <row r="24" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>714</v>
+      </c>
+      <c r="H23" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I23" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
-    </row>
-    <row r="25" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="H24" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I24" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
-    </row>
-    <row r="26" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>716</v>
+      </c>
+      <c r="H25" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I25" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="F26" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="H26" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I26" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="1:4" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40" t="s">
-        <v>670</v>
-      </c>
+      <c r="C27" s="40"/>
       <c r="D27" s="40"/>
-    </row>
-    <row r="28" spans="1:4" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="s">
+      <c r="F27" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>718</v>
+      </c>
+      <c r="H27" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I27" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40" t="s">
         <v>637</v>
       </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="40"/>
+      <c r="F28" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H28" s="104" t="s">
+        <v>737</v>
+      </c>
+      <c r="I28" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="F29" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H29" s="100" t="s">
+        <v>719</v>
+      </c>
+      <c r="I29" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G30" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H30" s="101" t="s">
+        <v>720</v>
+      </c>
+      <c r="I30" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H31" s="101" t="s">
+        <v>721</v>
+      </c>
+      <c r="I31" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H32" s="101" t="s">
+        <v>722</v>
+      </c>
+      <c r="I32" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H33" s="98" t="s">
+        <v>726</v>
+      </c>
+      <c r="I33" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H34" s="101" t="s">
+        <v>367</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H35" s="101" t="s">
+        <v>359</v>
+      </c>
+      <c r="I35" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H36" s="98" t="s">
+        <v>727</v>
+      </c>
+      <c r="I36" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H37" s="101" t="s">
+        <v>728</v>
+      </c>
+      <c r="I37" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H38" s="98" t="s">
+        <v>730</v>
+      </c>
+      <c r="I38" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H39" s="98" t="s">
+        <v>729</v>
+      </c>
+      <c r="I39" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H40" s="101" t="s">
+        <v>731</v>
+      </c>
+      <c r="I40" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H41" s="101" t="s">
+        <v>732</v>
+      </c>
+      <c r="I41" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G42" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H42" s="98" t="s">
+        <v>723</v>
+      </c>
+      <c r="I42" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G43" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H43" s="98" t="s">
+        <v>724</v>
+      </c>
+      <c r="I43" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G44" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H44" s="98" t="s">
+        <v>725</v>
+      </c>
+      <c r="I44" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G45" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H45" s="101" t="s">
+        <v>725</v>
+      </c>
+      <c r="I45" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D46" s="18"/>
-    </row>
-    <row r="47" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G46" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H46" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="I46" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="D47" s="18"/>
-    </row>
-    <row r="48" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G47" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H47" s="101" t="s">
+        <v>735</v>
+      </c>
+      <c r="I47" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="D48" s="18"/>
-    </row>
-    <row r="49" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G48" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H48" s="101" t="s">
+        <v>734</v>
+      </c>
+      <c r="I48" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G49" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H49" s="101" t="s">
+        <v>736</v>
+      </c>
+      <c r="I49" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G50" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H50" s="101" t="s">
+        <v>737</v>
+      </c>
+      <c r="I50" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D51" s="18"/>
-    </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G51" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H51" s="101" t="s">
+        <v>739</v>
+      </c>
+      <c r="I51" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G52" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H52" s="101" t="s">
+        <v>740</v>
+      </c>
+      <c r="I52" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="D53" s="18"/>
-    </row>
-    <row r="54" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G53" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H53" s="101" t="s">
+        <v>741</v>
+      </c>
+      <c r="I53" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="D54" s="18"/>
-    </row>
-    <row r="55" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G54" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H54" s="101" t="s">
+        <v>742</v>
+      </c>
+      <c r="I54" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="D55" s="18"/>
-    </row>
-    <row r="56" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G55" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H55" s="101" t="s">
+        <v>743</v>
+      </c>
+      <c r="I55" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="D56" s="18"/>
-    </row>
-    <row r="57" spans="1:4" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G56" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H56" s="101" t="s">
+        <v>744</v>
+      </c>
+      <c r="I56" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="D57" s="18"/>
-    </row>
-    <row r="58" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G57" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H57" s="101" t="s">
+        <v>745</v>
+      </c>
+      <c r="I57" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D58" s="18"/>
-    </row>
-    <row r="59" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H58" s="101" t="s">
+        <v>746</v>
+      </c>
+      <c r="I58" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="D59" s="18"/>
-    </row>
-    <row r="60" spans="1:4" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G59" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H59" s="101" t="s">
+        <v>747</v>
+      </c>
+      <c r="I59" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="F60" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G60" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H60" s="101" t="s">
+        <v>748</v>
+      </c>
+      <c r="I60" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="D60" s="18"/>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73" t="s">
+      <c r="D61" s="18"/>
+      <c r="F61" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G61" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H61" s="101" t="s">
+        <v>749</v>
+      </c>
+      <c r="I61" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73" t="s">
+      <c r="D62" s="18"/>
+      <c r="F62" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G62" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H62" s="101" t="s">
+        <v>750</v>
+      </c>
+      <c r="I62" s="106" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="74"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74" t="s">
+        <v>637</v>
+      </c>
+      <c r="F63" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G63" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H63" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="74"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="73"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73" t="s">
+      <c r="F64" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G64" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H64" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="74"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73" t="s">
+      <c r="F65" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G65" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H65" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73" t="s">
+      <c r="F66" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G66" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H66" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73" t="s">
+      <c r="F67" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G67" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H67" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I67" s="103" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="74"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73" t="s">
+      <c r="F68" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G68" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H68" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73" t="s">
+      <c r="F69" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G69" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H69" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="74"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73" t="s">
+      <c r="F70" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G70" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H70" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I70" s="103" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="74"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73" t="s">
+      <c r="F71" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G71" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H71" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I71" s="103" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="74"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73" t="s">
-        <v>673</v>
+      <c r="F72" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G72" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H72" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I72" s="103" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="74"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74" t="s">
+        <v>670</v>
+      </c>
+      <c r="F73" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G73" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H73" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74" t="s">
+        <v>632</v>
+      </c>
+      <c r="F74" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G74" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H74" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="74"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74" t="s">
+        <v>674</v>
+      </c>
+      <c r="F75" s="106" t="s">
+        <v>762</v>
+      </c>
+      <c r="G75" s="106" t="s">
+        <v>763</v>
+      </c>
+      <c r="H75" s="105" t="s">
+        <v>737</v>
+      </c>
+      <c r="I75" s="103" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H30" r:id="rId1"/>
+    <hyperlink ref="H31" r:id="rId2"/>
+    <hyperlink ref="H32" r:id="rId3"/>
+    <hyperlink ref="H34" r:id="rId4"/>
+    <hyperlink ref="H35" r:id="rId5"/>
+    <hyperlink ref="H37" r:id="rId6"/>
+    <hyperlink ref="H40" r:id="rId7"/>
+    <hyperlink ref="H41" r:id="rId8"/>
+    <hyperlink ref="H45" r:id="rId9"/>
+    <hyperlink ref="H46" r:id="rId10"/>
+    <hyperlink ref="H48" r:id="rId11"/>
+    <hyperlink ref="H47" r:id="rId12"/>
+    <hyperlink ref="H49" r:id="rId13"/>
+    <hyperlink ref="H50" r:id="rId14"/>
+    <hyperlink ref="H52" r:id="rId15"/>
+    <hyperlink ref="H51" r:id="rId16"/>
+    <hyperlink ref="H53" r:id="rId17"/>
+    <hyperlink ref="H54" r:id="rId18"/>
+    <hyperlink ref="H55" r:id="rId19"/>
+    <hyperlink ref="H56" r:id="rId20"/>
+    <hyperlink ref="H57" r:id="rId21"/>
+    <hyperlink ref="H58" r:id="rId22"/>
+    <hyperlink ref="H59" r:id="rId23"/>
+    <hyperlink ref="H60" r:id="rId24"/>
+    <hyperlink ref="H61" r:id="rId25"/>
+    <hyperlink ref="H62" r:id="rId26"/>
+    <hyperlink ref="I67" r:id="rId27"/>
+    <hyperlink ref="I70" r:id="rId28"/>
+    <hyperlink ref="I71" r:id="rId29"/>
+    <hyperlink ref="I72" r:id="rId30"/>
+    <hyperlink ref="I75" r:id="rId31"/>
+    <hyperlink ref="H3" r:id="rId32"/>
+    <hyperlink ref="H4:H28" r:id="rId33" display="straschenko13@mail.ru"/>
+    <hyperlink ref="H63" r:id="rId34"/>
+    <hyperlink ref="H64:H75" r:id="rId35" display="straschenko13@mail.ru"/>
+    <hyperlink ref="H2" r:id="rId36"/>
+    <hyperlink ref="H15" r:id="rId37"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="799">
   <si>
     <t>ID</t>
   </si>
@@ -2587,6 +2587,113 @@
   </si>
   <si>
     <t>Strashchenko</t>
+  </si>
+  <si>
+    <t>Name: a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: ar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: ari
+</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name 127 символов</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name спецсимволы</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name кириллицу</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name префиксный пробел+валидное количество символов+символ</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name символ+валидное количество символов+постфиксный пробел</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name валидное количество символов+2 допустимых спецсимвола подряд</t>
+  </si>
+  <si>
+    <t>Ввести в поле Name валидное количество символов в верхнем регистре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: </t>
+  </si>
+  <si>
+    <t>Name: *?/\|&lt;&gt;,.()[]{},:'"!@#$%^&amp;`~+-№</t>
+  </si>
+  <si>
+    <t>Name: Арина</t>
+  </si>
+  <si>
+    <t>Name:  arina.</t>
+  </si>
+  <si>
+    <t>Name: arina..</t>
+  </si>
+  <si>
+    <t>Name: ARINA</t>
+  </si>
+  <si>
+    <t>Surname: s</t>
+  </si>
+  <si>
+    <t>Surname: st</t>
+  </si>
+  <si>
+    <t>Surname: str</t>
+  </si>
+  <si>
+    <t>Surname: Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>Surname: Strashchenkooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>Surname: Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname спецсимволы</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname кириллицу</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname префиксный пробел+валидное количество символов+допустимый спецсимвол</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname допустимый спецсимвол+валидное количество символов+постфиксный пробел</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname валидное количество символов+2 спецсимвола подряд</t>
+  </si>
+  <si>
+    <t>Ввести в поле Surname валидное количество символов в верхнем регистре</t>
+  </si>
+  <si>
+    <t>Surname: *?/\|&lt;&gt;,.()[]{},:'"!@#$%^&amp;`~+-№</t>
+  </si>
+  <si>
+    <t>Surname: стращенко</t>
+  </si>
+  <si>
+    <t>Surname:  strashchenko_</t>
+  </si>
+  <si>
+    <t>=RC[-8]</t>
+  </si>
+  <si>
+    <t>Surname: -strashchenko</t>
+  </si>
+  <si>
+    <t>Surname: strashchenko''</t>
+  </si>
+  <si>
+    <t>Surname: STRASHCHENKO</t>
   </si>
 </sst>
 </file>
@@ -2957,7 +3064,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3228,6 +3335,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3255,6 +3363,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3377,8 +3486,8 @@
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>452440</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357190</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
@@ -3414,8 +3523,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>629331</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
@@ -7246,10 +7355,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7258,12 +7367,16 @@
     <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="49" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="31.5703125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
+    <col min="5" max="5" width="27.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="31.5703125" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="20" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="20" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="98" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -7364,7 +7477,7 @@
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:13" s="43" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -7391,7 +7504,7 @@
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="M7" s="108"/>
     </row>
     <row r="8" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
@@ -7422,7 +7535,7 @@
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="M8" s="108"/>
     </row>
     <row r="9" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
@@ -7453,7 +7566,7 @@
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="M9" s="108"/>
     </row>
     <row r="10" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
@@ -7480,7 +7593,7 @@
       <c r="J10" s="40"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="M10" s="108"/>
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
@@ -7511,7 +7624,7 @@
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="M11" s="108"/>
     </row>
     <row r="12" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
@@ -7538,7 +7651,7 @@
       <c r="J12" s="40"/>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="M12" s="108"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
@@ -7565,7 +7678,7 @@
       <c r="J13" s="40"/>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="M13" s="108"/>
     </row>
     <row r="14" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
@@ -7596,7 +7709,7 @@
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="M14" s="108"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
@@ -7627,7 +7740,7 @@
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="M15" s="108"/>
     </row>
     <row r="16" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
@@ -7658,7 +7771,7 @@
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="M16" s="108"/>
     </row>
     <row r="17" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
@@ -7689,7 +7802,7 @@
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="M17" s="108"/>
     </row>
     <row r="18" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
@@ -7720,7 +7833,7 @@
       </c>
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="M18" s="108"/>
     </row>
     <row r="19" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
@@ -7751,7 +7864,7 @@
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="M19" s="108"/>
     </row>
     <row r="20" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
@@ -7782,7 +7895,7 @@
       </c>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="M20" s="108"/>
     </row>
     <row r="21" spans="1:13" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
@@ -7813,7 +7926,7 @@
       </c>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="M21" s="108"/>
     </row>
     <row r="22" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
@@ -7840,7 +7953,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="M22" s="108"/>
     </row>
     <row r="23" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
@@ -7867,7 +7980,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="M23" s="108"/>
     </row>
     <row r="24" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
@@ -7894,7 +8007,7 @@
       <c r="J24" s="40"/>
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="M24" s="108"/>
     </row>
     <row r="25" spans="1:13" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
@@ -7921,7 +8034,7 @@
       <c r="J25" s="40"/>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="M25" s="108"/>
     </row>
     <row r="26" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
@@ -7950,7 +8063,7 @@
       <c r="J26" s="40"/>
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="M26" s="108"/>
     </row>
     <row r="27" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
@@ -7979,7 +8092,7 @@
       <c r="J27" s="40"/>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="M27" s="108"/>
     </row>
     <row r="28" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
@@ -8008,7 +8121,7 @@
       <c r="J28" s="40"/>
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="M28" s="108"/>
     </row>
     <row r="29" spans="1:13" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
@@ -8037,7 +8150,7 @@
       <c r="J29" s="40"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="M29" s="108"/>
     </row>
     <row r="30" spans="1:13" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
@@ -8070,7 +8183,7 @@
       </c>
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="M30" s="108"/>
     </row>
     <row r="31" spans="1:13" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
@@ -8103,7 +8216,7 @@
       </c>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="M31" s="108"/>
     </row>
     <row r="32" spans="1:13" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
@@ -8136,7 +8249,7 @@
       </c>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
+      <c r="M32" s="108"/>
     </row>
     <row r="33" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
@@ -8169,7 +8282,7 @@
       </c>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
+      <c r="M33" s="108"/>
     </row>
     <row r="34" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
@@ -8198,7 +8311,7 @@
       <c r="J34" s="40"/>
       <c r="K34" s="42"/>
       <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
+      <c r="M34" s="108"/>
     </row>
     <row r="35" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
@@ -8227,7 +8340,7 @@
       <c r="J35" s="40"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
+      <c r="M35" s="108"/>
     </row>
     <row r="36" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
@@ -8256,7 +8369,7 @@
       <c r="J36" s="40"/>
       <c r="K36" s="42"/>
       <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
+      <c r="M36" s="108"/>
     </row>
     <row r="37" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
@@ -8285,7 +8398,7 @@
       <c r="J37" s="40"/>
       <c r="K37" s="42"/>
       <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+      <c r="M37" s="108"/>
     </row>
     <row r="38" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
@@ -8312,7 +8425,7 @@
       <c r="J38" s="40"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
+      <c r="M38" s="108"/>
     </row>
     <row r="39" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
@@ -8339,7 +8452,7 @@
       <c r="J39" s="40"/>
       <c r="K39" s="42"/>
       <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
+      <c r="M39" s="108"/>
     </row>
     <row r="40" spans="1:14" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
@@ -8366,7 +8479,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="42"/>
       <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="M40" s="108"/>
     </row>
     <row r="41" spans="1:14" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
@@ -8393,7 +8506,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="42"/>
       <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
+      <c r="M41" s="108"/>
     </row>
     <row r="42" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
@@ -8420,7 +8533,7 @@
       <c r="J42" s="40"/>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
+      <c r="M42" s="108"/>
     </row>
     <row r="43" spans="1:14" s="43" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
@@ -8451,7 +8564,7 @@
       <c r="J43" s="40"/>
       <c r="K43" s="42"/>
       <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
+      <c r="M43" s="108"/>
     </row>
     <row r="44" spans="1:14" s="43" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
@@ -8482,7 +8595,7 @@
       <c r="J44" s="40"/>
       <c r="K44" s="42"/>
       <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
+      <c r="M44" s="108"/>
     </row>
     <row r="45" spans="1:14" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
@@ -8508,8 +8621,15 @@
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
+      <c r="L45" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M45" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" s="41" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
@@ -8539,7 +8659,15 @@
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="4"/>
-      <c r="N46" s="1"/>
+      <c r="L46" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M46" t="s">
+        <v>737</v>
+      </c>
+      <c r="N46" s="107" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
@@ -8552,7 +8680,7 @@
         <v>590</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>592</v>
+        <v>764</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="12" t="s">
@@ -8569,7 +8697,15 @@
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="4"/>
-      <c r="N47" s="1"/>
+      <c r="L47" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M47" t="s">
+        <v>737</v>
+      </c>
+      <c r="N47" s="107" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="48" spans="1:14" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
@@ -8582,7 +8718,7 @@
         <v>590</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>617</v>
+        <v>765</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="12" t="s">
@@ -8598,11 +8734,17 @@
         <v>68</v>
       </c>
       <c r="J48" s="18"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M48" t="s">
+        <v>737</v>
+      </c>
+      <c r="N48" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>178</v>
       </c>
@@ -8613,7 +8755,7 @@
         <v>590</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>618</v>
+        <v>766</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="12" t="s">
@@ -8629,16 +8771,22 @@
         <v>68</v>
       </c>
       <c r="J49" s="18"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M49" t="s">
+        <v>737</v>
+      </c>
+      <c r="N49" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>183</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>519</v>
+        <v>767</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>590</v>
@@ -8660,10 +8808,17 @@
         <v>68</v>
       </c>
       <c r="J50" s="18"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M50" t="s">
+        <v>737</v>
+      </c>
+      <c r="N50" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>526</v>
       </c>
@@ -8690,11 +8845,17 @@
         <v>68</v>
       </c>
       <c r="J51" s="18"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M51" t="s">
+        <v>737</v>
+      </c>
+      <c r="N51" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>527</v>
       </c>
@@ -8721,326 +8882,352 @@
         <v>506</v>
       </c>
       <c r="J52" s="18"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="L52" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M52" t="s">
+        <v>737</v>
+      </c>
+      <c r="N52" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="18"/>
+      <c r="L53" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M53" t="s">
+        <v>737</v>
+      </c>
+      <c r="N53" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="18"/>
+      <c r="L54" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M54" t="s">
+        <v>737</v>
+      </c>
+      <c r="N54" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="18"/>
+      <c r="L55" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M55" t="s">
+        <v>737</v>
+      </c>
+      <c r="N55" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="18"/>
+      <c r="L56" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M56" t="s">
+        <v>737</v>
+      </c>
+      <c r="N56" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="18"/>
+      <c r="L57" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M57" t="s">
+        <v>737</v>
+      </c>
+      <c r="N57" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="18"/>
+      <c r="L58" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M58" t="s">
+        <v>737</v>
+      </c>
+      <c r="N58" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B59" s="18" t="s">
         <v>476</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="4"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="J54" s="18"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I55" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J55" s="18"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I56" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J56" s="18"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I57" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J57" s="18"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I58" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J58" s="18"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>531</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>595</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="12" t="s">
         <v>513</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>245</v>
+        <v>615</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="I59" s="71" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J59" s="18"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="K59" s="4"/>
+      <c r="L59" s="41"/>
+      <c r="M59" t="s">
+        <v>737</v>
+      </c>
+      <c r="N59" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" spans="1:15" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>477</v>
+        <v>185</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>161</v>
+        <v>533</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I60" s="71" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J60" s="18"/>
-      <c r="K60" s="4"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L60" s="41" t="s">
+        <v>708</v>
+      </c>
+      <c r="M60" t="s">
+        <v>737</v>
+      </c>
+      <c r="N60" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>193</v>
+        <v>528</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>568</v>
+        <v>781</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H61" s="39" t="s">
-        <v>245</v>
+        <v>534</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I61" s="71" t="s">
-        <v>504</v>
+        <v>68</v>
       </c>
       <c r="J61" s="18"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L61" s="41" t="s">
+        <v>709</v>
+      </c>
+      <c r="M61" t="s">
+        <v>737</v>
+      </c>
+      <c r="N61" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O61"/>
+    </row>
+    <row r="62" spans="1:15" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>569</v>
+        <v>782</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H62" s="39" t="s">
-        <v>245</v>
+        <v>535</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I62" s="71" t="s">
-        <v>508</v>
+        <v>68</v>
       </c>
       <c r="J62" s="18"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="L62" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="M62" t="s">
+        <v>737</v>
+      </c>
+      <c r="N62" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>570</v>
+        <v>783</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="12" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="50" t="s">
@@ -9050,26 +9237,32 @@
         <v>68</v>
       </c>
       <c r="J63" s="18"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="L63" s="41" t="s">
+        <v>711</v>
+      </c>
+      <c r="M63" t="s">
+        <v>737</v>
+      </c>
+      <c r="N63" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>206</v>
+        <v>538</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>571</v>
+        <v>784</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="12" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="50" t="s">
@@ -9079,256 +9272,278 @@
         <v>68</v>
       </c>
       <c r="J64" s="18"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L64" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="M64" t="s">
+        <v>737</v>
+      </c>
+      <c r="N64" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>207</v>
+        <v>539</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>572</v>
+        <v>785</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="50" t="s">
-        <v>161</v>
+        <v>513</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="H65" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I65" s="71" t="s">
-        <v>68</v>
+        <v>507</v>
       </c>
       <c r="J65" s="18"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L65" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="M65" t="s">
+        <v>737</v>
+      </c>
+      <c r="N65" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>194</v>
+        <v>786</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>573</v>
+        <v>792</v>
       </c>
       <c r="E66" s="18"/>
-      <c r="F66" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I66" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="71"/>
       <c r="J66" s="18"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L66" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="M66" t="s">
+        <v>737</v>
+      </c>
+      <c r="N66" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>195</v>
+        <v>787</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>574</v>
+        <v>793</v>
       </c>
       <c r="E67" s="18"/>
-      <c r="F67" s="12" t="s">
-        <v>514</v>
-      </c>
+      <c r="F67" s="12"/>
       <c r="G67" s="12"/>
-      <c r="H67" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I67" s="71" t="s">
-        <v>508</v>
-      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="18"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L67" s="41" t="s">
+        <v>714</v>
+      </c>
+      <c r="M67" t="s">
+        <v>737</v>
+      </c>
+      <c r="N67" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>196</v>
+        <v>788</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>575</v>
+        <v>794</v>
       </c>
       <c r="E68" s="18"/>
-      <c r="F68" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H68" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I68" s="71" t="s">
-        <v>508</v>
-      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="71"/>
       <c r="J68" s="18"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="L68" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="M68" t="s">
+        <v>737</v>
+      </c>
+      <c r="N68" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>197</v>
+        <v>789</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>576</v>
+        <v>796</v>
       </c>
       <c r="E69" s="18"/>
-      <c r="F69" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F69" s="12"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I69" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="18"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="L69" s="100" t="s">
+        <v>795</v>
+      </c>
+      <c r="M69" t="s">
+        <v>737</v>
+      </c>
+      <c r="N69" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>544</v>
+        <v>790</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>577</v>
+        <v>797</v>
       </c>
       <c r="E70" s="18"/>
-      <c r="F70" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F70" s="12"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I70" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="71"/>
       <c r="J70" s="18"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L70" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="M70" t="s">
+        <v>737</v>
+      </c>
+      <c r="N70" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>545</v>
+        <v>791</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>578</v>
+        <v>798</v>
       </c>
       <c r="E71" s="18"/>
-      <c r="F71" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I71" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="71"/>
       <c r="J71" s="18"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L71" s="41" t="s">
+        <v>718</v>
+      </c>
+      <c r="M71" t="s">
+        <v>737</v>
+      </c>
+      <c r="N71" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H72" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I72" s="71" t="s">
-        <v>68</v>
+        <v>504</v>
       </c>
       <c r="J72" s="18"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="K72" s="4"/>
+      <c r="L72" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M72" t="s">
+        <v>737</v>
+      </c>
+      <c r="N72" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>550</v>
+        <v>204</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>547</v>
+        <v>193</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="12" t="s">
@@ -9341,25 +9556,31 @@
         <v>245</v>
       </c>
       <c r="I73" s="71" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J73" s="18"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L73" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M73" s="101" t="s">
+        <v>719</v>
+      </c>
+      <c r="N73" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>551</v>
+        <v>205</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>198</v>
+        <v>540</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="12" t="s">
@@ -9375,22 +9596,28 @@
         <v>508</v>
       </c>
       <c r="J74" s="18"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L74" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M74" t="s">
+        <v>720</v>
+      </c>
+      <c r="N74" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>552</v>
+        <v>202</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>199</v>
+        <v>541</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="12" t="s">
@@ -9404,22 +9631,28 @@
         <v>68</v>
       </c>
       <c r="J75" s="18"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L75" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M75" t="s">
+        <v>721</v>
+      </c>
+      <c r="N75" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>553</v>
+        <v>206</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="12" t="s">
@@ -9433,22 +9666,28 @@
         <v>68</v>
       </c>
       <c r="J76" s="18"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L76" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M76" t="s">
+        <v>722</v>
+      </c>
+      <c r="N76" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>554</v>
+        <v>207</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="12" t="s">
@@ -9462,22 +9701,28 @@
         <v>68</v>
       </c>
       <c r="J77" s="18"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L77" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M77" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="N77" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>555</v>
+        <v>208</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="12" t="s">
@@ -9491,114 +9736,135 @@
         <v>68</v>
       </c>
       <c r="J78" s="18"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L78" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M78" t="s">
+        <v>367</v>
+      </c>
+      <c r="N78" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>556</v>
+        <v>203</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="G79" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H79" s="39" t="s">
-        <v>245</v>
+      <c r="G79" s="12"/>
+      <c r="H79" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I79" s="71" t="s">
         <v>508</v>
       </c>
       <c r="J79" s="18"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="L79" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M79" t="s">
+        <v>359</v>
+      </c>
+      <c r="N79" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>493</v>
+        <v>209</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>489</v>
+        <v>196</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>161</v>
+        <v>561</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I80" s="71" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J80" s="18"/>
-      <c r="K80" s="4"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L80" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M80" s="99" t="s">
+        <v>727</v>
+      </c>
+      <c r="N80" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>557</v>
+        <v>197</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>162</v>
+        <v>576</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="G81" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="H81" s="39" t="s">
-        <v>245</v>
+      <c r="G81" s="12"/>
+      <c r="H81" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I81" s="71" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="J81" s="18"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L81" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M81" t="s">
+        <v>728</v>
+      </c>
+      <c r="N81" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="12" t="s">
@@ -9612,22 +9878,28 @@
         <v>68</v>
       </c>
       <c r="J82" s="18"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L82" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M82" s="99" t="s">
+        <v>730</v>
+      </c>
+      <c r="N82" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="12" t="s">
@@ -9641,22 +9913,28 @@
         <v>68</v>
       </c>
       <c r="J83" s="18"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="L83" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M83" s="99" t="s">
+        <v>729</v>
+      </c>
+      <c r="N83" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="12" t="s">
@@ -9670,56 +9948,69 @@
         <v>68</v>
       </c>
       <c r="J84" s="18"/>
-      <c r="K84" s="72"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L84" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M84" t="s">
+        <v>731</v>
+      </c>
+      <c r="N84" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>191</v>
+        <v>550</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>188</v>
+        <v>547</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G85" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="50" t="s">
-        <v>161</v>
+      <c r="H85" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I85" s="71" t="s">
-        <v>68</v>
+        <v>508</v>
       </c>
       <c r="J85" s="18"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="L85" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M85" t="s">
+        <v>732</v>
+      </c>
+      <c r="N85" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>192</v>
+        <v>551</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>561</v>
@@ -9728,267 +10019,921 @@
         <v>245</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J86" s="18"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A87" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F87" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G87" s="36"/>
+      <c r="L86" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M86" s="99" t="s">
+        <v>723</v>
+      </c>
+      <c r="N86" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="E87" s="18"/>
+      <c r="F87" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G87" s="12"/>
       <c r="H87" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I87" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J87" s="35"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="E88" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F88" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G88" s="38"/>
-      <c r="H88" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I88" s="37" t="s">
+      <c r="I87" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J88" s="37"/>
-    </row>
-    <row r="89" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D89" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F89" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G89" s="38"/>
-      <c r="H89" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I89" s="37" t="s">
+      <c r="J87" s="18"/>
+      <c r="L87" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M87" s="99" t="s">
+        <v>724</v>
+      </c>
+      <c r="N87" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O87"/>
+    </row>
+    <row r="88" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I88" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J89" s="37"/>
-    </row>
-    <row r="90" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G90" s="38"/>
-      <c r="H90" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I90" s="37" t="s">
+      <c r="J88" s="18"/>
+      <c r="L88" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M88" s="99" t="s">
+        <v>725</v>
+      </c>
+      <c r="N88" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I89" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J90" s="37"/>
-    </row>
-    <row r="91" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B91" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E91" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F91" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G91" s="38"/>
+      <c r="J89" s="18"/>
+      <c r="L89" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M89" t="s">
+        <v>725</v>
+      </c>
+      <c r="N89" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G90" s="12"/>
+      <c r="H90" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I90" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J90" s="18"/>
+      <c r="L90" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M90" t="s">
+        <v>733</v>
+      </c>
+      <c r="N90" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="E91" s="18"/>
+      <c r="F91" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>561</v>
+      </c>
       <c r="H91" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I91" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J91" s="37"/>
-    </row>
-    <row r="92" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E92" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G92" s="38"/>
-      <c r="H92" s="39" t="s">
+      <c r="I91" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="J91" s="18"/>
+      <c r="L91" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M91" t="s">
+        <v>735</v>
+      </c>
+      <c r="N91" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I92" s="71" t="s">
+        <v>505</v>
+      </c>
+      <c r="J92" s="18"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M92" t="s">
+        <v>734</v>
+      </c>
+      <c r="N92" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" s="18"/>
+      <c r="F93" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H93" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I92" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J92" s="37"/>
-    </row>
-    <row r="93" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="E93" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F93" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G93" s="38"/>
-      <c r="H93" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I93" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J93" s="37"/>
-    </row>
-    <row r="94" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="E94" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F94" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G94" s="38"/>
+      <c r="I93" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="J93" s="18"/>
+      <c r="L93" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M93" t="s">
+        <v>736</v>
+      </c>
+      <c r="N93" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="E94" s="18"/>
+      <c r="F94" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G94" s="12"/>
       <c r="H94" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I94" s="37" t="s">
+      <c r="I94" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J94" s="37"/>
-    </row>
-    <row r="95" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="E95" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F95" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G95" s="38"/>
+      <c r="J94" s="18"/>
+      <c r="L94" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M94" t="s">
+        <v>737</v>
+      </c>
+      <c r="N94" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="E95" s="18"/>
+      <c r="F95" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G95" s="12"/>
       <c r="H95" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I95" s="37" t="s">
+      <c r="I95" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="J95" s="37"/>
+      <c r="J95" s="18"/>
+      <c r="L95" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M95" t="s">
+        <v>739</v>
+      </c>
+      <c r="N95" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O95"/>
+    </row>
+    <row r="96" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="E96" s="18"/>
+      <c r="F96" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G96" s="12"/>
+      <c r="H96" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I96" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J96" s="18"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M96" t="s">
+        <v>740</v>
+      </c>
+      <c r="N96" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="E97" s="18"/>
+      <c r="F97" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G97" s="12"/>
+      <c r="H97" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I97" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J97" s="18"/>
+      <c r="L97" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M97" t="s">
+        <v>741</v>
+      </c>
+      <c r="N97" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H98" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I98" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="J98" s="18"/>
+      <c r="L98" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M98" t="s">
+        <v>742</v>
+      </c>
+      <c r="N98" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G99" s="36"/>
+      <c r="H99" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I99" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J99" s="35"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M99" t="s">
+        <v>743</v>
+      </c>
+      <c r="N99" s="107" t="s">
+        <v>752</v>
+      </c>
+      <c r="O99"/>
+    </row>
+    <row r="100" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F100" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="38"/>
+      <c r="H100" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I100" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J100" s="37"/>
+      <c r="L100" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M100" t="s">
+        <v>744</v>
+      </c>
+      <c r="N100" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A101" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F101" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G101" s="38"/>
+      <c r="H101" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I101" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J101" s="37"/>
+      <c r="L101" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M101" t="s">
+        <v>745</v>
+      </c>
+      <c r="N101" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F102" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G102" s="38"/>
+      <c r="H102" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I102" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J102" s="37"/>
+      <c r="L102" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M102" t="s">
+        <v>746</v>
+      </c>
+      <c r="N102" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D103" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E103" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F103" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G103" s="38"/>
+      <c r="H103" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J103" s="37"/>
+      <c r="L103" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M103" t="s">
+        <v>747</v>
+      </c>
+      <c r="N103" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F104" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" s="38"/>
+      <c r="H104" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I104" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J104" s="37"/>
+      <c r="L104" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M104" t="s">
+        <v>748</v>
+      </c>
+      <c r="N104" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G105" s="38"/>
+      <c r="H105" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I105" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J105" s="37"/>
+      <c r="L105" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M105" t="s">
+        <v>749</v>
+      </c>
+      <c r="N105" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F106" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G106" s="38"/>
+      <c r="H106" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I106" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J106" s="37"/>
+      <c r="L106" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M106" t="s">
+        <v>750</v>
+      </c>
+      <c r="N106" s="107" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F107" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G107" s="38"/>
+      <c r="H107" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I107" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="37"/>
+      <c r="L107" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M107" t="s">
+        <v>737</v>
+      </c>
+      <c r="N107" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L108" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M108" t="s">
+        <v>737</v>
+      </c>
+      <c r="N108" s="12" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L109" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M109" t="s">
+        <v>737</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L110" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M110" t="s">
+        <v>737</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L111" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M111" t="s">
+        <v>737</v>
+      </c>
+      <c r="N111" s="104" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L112" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M112" t="s">
+        <v>737</v>
+      </c>
+      <c r="N112" s="12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="113" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L113" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M113" t="s">
+        <v>737</v>
+      </c>
+      <c r="N113" s="12" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="114" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L114" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M114" t="s">
+        <v>737</v>
+      </c>
+      <c r="N114" s="104" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="115" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L115" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M115" t="s">
+        <v>737</v>
+      </c>
+      <c r="N115" s="104" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="116" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L116" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M116" t="s">
+        <v>737</v>
+      </c>
+      <c r="N116" s="104" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="117" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L117" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M117" t="s">
+        <v>737</v>
+      </c>
+      <c r="N117" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="118" spans="12:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="L118" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M118" t="s">
+        <v>737</v>
+      </c>
+      <c r="N118" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L119" s="107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M119" t="s">
+        <v>737</v>
+      </c>
+      <c r="N119" s="104" t="s">
+        <v>761</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9996,13 +10941,13 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I80">
-      <formula1>$A$3:$A$86</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I92">
+      <formula1>$A$3:$A$98</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I53 I60">
-      <formula1>$A$3:$A$89</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I59 I72">
+      <formula1>$A$3:$A$101</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H107">
       <formula1>"Passed,Failed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10027,50 +10972,55 @@
     <hyperlink ref="I50" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I51" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I46" location="Требования!A35" display="F-12/1"/>
-    <hyperlink ref="I53" location="Требования!A36" display="F-12/2"/>
-    <hyperlink ref="I54" location="Требования!A41" display="F-13/2"/>
-    <hyperlink ref="I59" location="Требования!A41" display="F-13/2"/>
-    <hyperlink ref="I55" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I56" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I57" location="'Граничные значения'!A33" display="F-11/3"/>
-    <hyperlink ref="I58" location="'Граничные значения'!A33" display="F-11/3"/>
-    <hyperlink ref="I60" location="Требования!A37" display="F-12/3"/>
-    <hyperlink ref="I61" location="Требования!A37" display="F-12/3"/>
-    <hyperlink ref="I62" location="Требования!A42" display="F-13/3"/>
-    <hyperlink ref="I63" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I67" location="'Граничные значения'!A42" display="F-13/3"/>
-    <hyperlink ref="I64" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I65" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I66" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I68" location="Требования!A42" display="F-13/3"/>
-    <hyperlink ref="I73" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I59" location="Требования!A36" display="F-12/2"/>
+    <hyperlink ref="I60" location="Требования!A41" display="F-13/2"/>
+    <hyperlink ref="I65" location="Требования!A41" display="F-13/2"/>
+    <hyperlink ref="I61" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I62" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I63" location="'Граничные значения'!A33" display="F-11/3"/>
+    <hyperlink ref="I64" location="'Граничные значения'!A33" display="F-11/3"/>
+    <hyperlink ref="I72" location="Требования!A37" display="F-12/3"/>
+    <hyperlink ref="I73" location="Требования!A37" display="F-12/3"/>
     <hyperlink ref="I74" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I75" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I79" location="'Граничные значения'!A42" display="F-13/3"/>
-    <hyperlink ref="I69" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I70" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I71" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I72" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I75" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I76" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I77" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I78" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I80" location="Требования!A38" display="F-12/4"/>
+    <hyperlink ref="I80" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I85" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I86" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I91" location="'Граничные значения'!A42" display="F-13/3"/>
+    <hyperlink ref="I81" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I82" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I83" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I84" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I85" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I81" location="Требования!A43" display="F-13/4"/>
-    <hyperlink ref="I86" location="Требования!A43" display="F-13/4"/>
+    <hyperlink ref="I87" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I88" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I89" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I90" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I92" location="Требования!A38" display="F-12/4"/>
+    <hyperlink ref="I94" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I95" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I96" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I97" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I93" location="Требования!A43" display="F-13/4"/>
+    <hyperlink ref="I98" location="Требования!A43" display="F-13/4"/>
     <hyperlink ref="D32" r:id="rId1"/>
     <hyperlink ref="J30" location="'Баг-репорты'!R76C5" display="B-14"/>
     <hyperlink ref="J31" location="'Баг-репорты'!R88C2" display="B-15"/>
     <hyperlink ref="J32" location="'Баг-репорты'!R88C5" display="B-16"/>
     <hyperlink ref="J33" location="'Баг-репорты'!R100C2" display="B-17"/>
     <hyperlink ref="D33" r:id="rId2"/>
+    <hyperlink ref="N111" r:id="rId3"/>
+    <hyperlink ref="N114" r:id="rId4"/>
+    <hyperlink ref="N115" r:id="rId5"/>
+    <hyperlink ref="N116" r:id="rId6"/>
+    <hyperlink ref="N119" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -10078,7 +11028,7 @@
           <x14:formula1>
             <xm:f>Требования!$A$3:$A$95</xm:f>
           </x14:formula1>
-          <xm:sqref>I87:I95 I6:I46</xm:sqref>
+          <xm:sqref>I99:I107 I6:I46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11455,8 +12405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11467,7 +12417,7 @@
     <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="14" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="18" style="102" customWidth="1"/>
+    <col min="8" max="8" width="18" style="103" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11490,7 +12440,7 @@
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="41" t="s">
@@ -11505,13 +12455,13 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11525,13 +12475,13 @@
       <c r="F3" s="41" t="s">
         <v>696</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11545,13 +12495,13 @@
       <c r="F4" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11565,13 +12515,13 @@
       <c r="F5" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11585,13 +12535,13 @@
       <c r="F6" s="41" t="s">
         <v>701</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11605,13 +12555,13 @@
       <c r="F7" s="41" t="s">
         <v>702</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11625,13 +12575,13 @@
       <c r="F8" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11645,13 +12595,13 @@
       <c r="F9" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I9" s="106" t="s">
+      <c r="I9" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11665,13 +12615,13 @@
       <c r="F10" s="41" t="s">
         <v>698</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11685,13 +12635,13 @@
       <c r="F11" s="41" t="s">
         <v>704</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11705,13 +12655,13 @@
       <c r="F12" s="41" t="s">
         <v>705</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H12" s="105" t="s">
+      <c r="H12" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I12" s="106" t="s">
+      <c r="I12" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11725,13 +12675,13 @@
       <c r="F13" s="41" t="s">
         <v>706</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11745,13 +12695,13 @@
       <c r="F14" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H14" s="105" t="s">
+      <c r="H14" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I14" s="106" t="s">
+      <c r="I14" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11762,14 +12712,14 @@
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G15" s="41"/>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I15" s="106" t="s">
+      <c r="I15" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11780,16 +12730,16 @@
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>708</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I16" s="106" t="s">
+      <c r="I16" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11800,16 +12750,16 @@
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>709</v>
       </c>
-      <c r="H17" s="105" t="s">
+      <c r="H17" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I17" s="106" t="s">
+      <c r="I17" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11820,16 +12770,16 @@
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>710</v>
       </c>
-      <c r="H18" s="105" t="s">
+      <c r="H18" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I18" s="106" t="s">
+      <c r="I18" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11840,16 +12790,16 @@
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
-      <c r="F19" s="106" t="s">
+      <c r="F19" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="H19" s="105" t="s">
+      <c r="H19" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I19" s="106" t="s">
+      <c r="I19" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11860,16 +12810,16 @@
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
-      <c r="F20" s="106" t="s">
+      <c r="F20" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G20" s="41" t="s">
         <v>712</v>
       </c>
-      <c r="H20" s="105" t="s">
+      <c r="H20" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I20" s="106" t="s">
+      <c r="I20" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11880,16 +12830,16 @@
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>713</v>
       </c>
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I21" s="106" t="s">
+      <c r="I21" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11900,16 +12850,16 @@
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="H22" s="105" t="s">
+      <c r="H22" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I22" s="106" t="s">
+      <c r="I22" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11920,16 +12870,16 @@
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
-      <c r="F23" s="106" t="s">
+      <c r="F23" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>714</v>
       </c>
-      <c r="H23" s="105" t="s">
+      <c r="H23" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I23" s="106" t="s">
+      <c r="I23" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11940,16 +12890,16 @@
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
-      <c r="F24" s="106" t="s">
+      <c r="F24" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>715</v>
       </c>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11960,16 +12910,16 @@
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="100" t="s">
         <v>716</v>
       </c>
-      <c r="H25" s="105" t="s">
+      <c r="H25" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I25" s="106" t="s">
+      <c r="I25" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -11980,16 +12930,16 @@
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
-      <c r="F26" s="106" t="s">
+      <c r="F26" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G26" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="H26" s="105" t="s">
+      <c r="H26" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I26" s="106" t="s">
+      <c r="I26" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12000,16 +12950,16 @@
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
-      <c r="F27" s="106" t="s">
+      <c r="F27" s="107" t="s">
         <v>762</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>718</v>
       </c>
-      <c r="H27" s="105" t="s">
+      <c r="H27" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I27" s="106" t="s">
+      <c r="I27" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12020,16 +12970,16 @@
         <v>637</v>
       </c>
       <c r="D28" s="40"/>
-      <c r="F28" s="106" t="s">
+      <c r="F28" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G28" s="106" t="s">
+      <c r="G28" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H28" s="104" t="s">
+      <c r="H28" s="105" t="s">
         <v>737</v>
       </c>
-      <c r="I28" s="106" t="s">
+      <c r="I28" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12040,16 +12990,16 @@
         <v>671</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="F29" s="106" t="s">
+      <c r="F29" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="G29" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H29" s="100" t="s">
+      <c r="H29" s="101" t="s">
         <v>719</v>
       </c>
-      <c r="I29" s="106" t="s">
+      <c r="I29" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12060,16 +13010,16 @@
         <v>638</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="F30" s="106" t="s">
+      <c r="F30" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G30" s="106" t="s">
+      <c r="G30" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H30" s="101" t="s">
+      <c r="H30" s="102" t="s">
         <v>720</v>
       </c>
-      <c r="I30" s="106" t="s">
+      <c r="I30" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12080,16 +13030,16 @@
         <v>639</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="F31" s="106" t="s">
+      <c r="F31" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G31" s="106" t="s">
+      <c r="G31" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H31" s="101" t="s">
+      <c r="H31" s="102" t="s">
         <v>721</v>
       </c>
-      <c r="I31" s="106" t="s">
+      <c r="I31" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12100,16 +13050,16 @@
         <v>640</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="F32" s="106" t="s">
+      <c r="F32" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G32" s="106" t="s">
+      <c r="G32" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H32" s="101" t="s">
+      <c r="H32" s="102" t="s">
         <v>722</v>
       </c>
-      <c r="I32" s="106" t="s">
+      <c r="I32" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12120,16 +13070,16 @@
         <v>641</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="F33" s="106" t="s">
+      <c r="F33" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H33" s="98" t="s">
+      <c r="H33" s="99" t="s">
         <v>726</v>
       </c>
-      <c r="I33" s="106" t="s">
+      <c r="I33" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12140,16 +13090,16 @@
         <v>642</v>
       </c>
       <c r="D34" s="18"/>
-      <c r="F34" s="106" t="s">
+      <c r="F34" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G34" s="106" t="s">
+      <c r="G34" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H34" s="101" t="s">
+      <c r="H34" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="I34" s="106" t="s">
+      <c r="I34" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12160,16 +13110,16 @@
         <v>643</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="F35" s="106" t="s">
+      <c r="F35" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H35" s="101" t="s">
+      <c r="H35" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="I35" s="106" t="s">
+      <c r="I35" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12180,16 +13130,16 @@
         <v>679</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="F36" s="106" t="s">
+      <c r="F36" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G36" s="106" t="s">
+      <c r="G36" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="H36" s="99" t="s">
         <v>727</v>
       </c>
-      <c r="I36" s="106" t="s">
+      <c r="I36" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12200,16 +13150,16 @@
         <v>675</v>
       </c>
       <c r="D37" s="18"/>
-      <c r="F37" s="106" t="s">
+      <c r="F37" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G37" s="106" t="s">
+      <c r="G37" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H37" s="101" t="s">
+      <c r="H37" s="102" t="s">
         <v>728</v>
       </c>
-      <c r="I37" s="106" t="s">
+      <c r="I37" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12220,16 +13170,16 @@
         <v>672</v>
       </c>
       <c r="D38" s="18"/>
-      <c r="F38" s="106" t="s">
+      <c r="F38" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G38" s="106" t="s">
+      <c r="G38" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H38" s="98" t="s">
+      <c r="H38" s="99" t="s">
         <v>730</v>
       </c>
-      <c r="I38" s="106" t="s">
+      <c r="I38" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12240,16 +13190,16 @@
         <v>644</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="F39" s="106" t="s">
+      <c r="F39" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G39" s="106" t="s">
+      <c r="G39" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H39" s="98" t="s">
+      <c r="H39" s="99" t="s">
         <v>729</v>
       </c>
-      <c r="I39" s="106" t="s">
+      <c r="I39" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12260,16 +13210,16 @@
         <v>645</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="F40" s="106" t="s">
+      <c r="F40" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G40" s="106" t="s">
+      <c r="G40" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H40" s="101" t="s">
+      <c r="H40" s="102" t="s">
         <v>731</v>
       </c>
-      <c r="I40" s="106" t="s">
+      <c r="I40" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12280,16 +13230,16 @@
         <v>646</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="F41" s="106" t="s">
+      <c r="F41" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H41" s="101" t="s">
+      <c r="H41" s="102" t="s">
         <v>732</v>
       </c>
-      <c r="I41" s="106" t="s">
+      <c r="I41" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12300,16 +13250,16 @@
         <v>647</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="F42" s="106" t="s">
+      <c r="F42" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G42" s="106" t="s">
+      <c r="G42" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H42" s="98" t="s">
+      <c r="H42" s="99" t="s">
         <v>723</v>
       </c>
-      <c r="I42" s="106" t="s">
+      <c r="I42" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12320,16 +13270,16 @@
         <v>648</v>
       </c>
       <c r="D43" s="18"/>
-      <c r="F43" s="106" t="s">
+      <c r="F43" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G43" s="106" t="s">
+      <c r="G43" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H43" s="98" t="s">
+      <c r="H43" s="99" t="s">
         <v>724</v>
       </c>
-      <c r="I43" s="106" t="s">
+      <c r="I43" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12340,16 +13290,16 @@
         <v>649</v>
       </c>
       <c r="D44" s="18"/>
-      <c r="F44" s="106" t="s">
+      <c r="F44" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G44" s="106" t="s">
+      <c r="G44" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H44" s="98" t="s">
+      <c r="H44" s="99" t="s">
         <v>725</v>
       </c>
-      <c r="I44" s="106" t="s">
+      <c r="I44" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12360,16 +13310,16 @@
         <v>680</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="F45" s="106" t="s">
+      <c r="F45" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H45" s="101" t="s">
+      <c r="H45" s="102" t="s">
         <v>725</v>
       </c>
-      <c r="I45" s="106" t="s">
+      <c r="I45" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12380,16 +13330,16 @@
         <v>680</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="F46" s="106" t="s">
+      <c r="F46" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G46" s="106" t="s">
+      <c r="G46" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H46" s="101" t="s">
+      <c r="H46" s="102" t="s">
         <v>733</v>
       </c>
-      <c r="I46" s="106" t="s">
+      <c r="I46" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12400,16 +13350,16 @@
         <v>676</v>
       </c>
       <c r="D47" s="18"/>
-      <c r="F47" s="106" t="s">
+      <c r="F47" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G47" s="106" t="s">
+      <c r="G47" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H47" s="101" t="s">
+      <c r="H47" s="102" t="s">
         <v>735</v>
       </c>
-      <c r="I47" s="106" t="s">
+      <c r="I47" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12420,16 +13370,16 @@
         <v>673</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="F48" s="106" t="s">
+      <c r="F48" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G48" s="106" t="s">
+      <c r="G48" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H48" s="101" t="s">
+      <c r="H48" s="102" t="s">
         <v>734</v>
       </c>
-      <c r="I48" s="106" t="s">
+      <c r="I48" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12440,16 +13390,16 @@
         <v>650</v>
       </c>
       <c r="D49" s="18"/>
-      <c r="F49" s="106" t="s">
+      <c r="F49" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G49" s="106" t="s">
+      <c r="G49" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H49" s="101" t="s">
+      <c r="H49" s="102" t="s">
         <v>736</v>
       </c>
-      <c r="I49" s="106" t="s">
+      <c r="I49" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12460,16 +13410,16 @@
         <v>651</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="F50" s="106" t="s">
+      <c r="F50" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G50" s="106" t="s">
+      <c r="G50" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H50" s="101" t="s">
+      <c r="H50" s="102" t="s">
         <v>737</v>
       </c>
-      <c r="I50" s="106" t="s">
+      <c r="I50" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12480,16 +13430,16 @@
         <v>652</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="F51" s="106" t="s">
+      <c r="F51" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G51" s="106" t="s">
+      <c r="G51" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H51" s="101" t="s">
+      <c r="H51" s="102" t="s">
         <v>739</v>
       </c>
-      <c r="I51" s="106" t="s">
+      <c r="I51" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12500,16 +13450,16 @@
         <v>653</v>
       </c>
       <c r="D52" s="18"/>
-      <c r="F52" s="106" t="s">
+      <c r="F52" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G52" s="106" t="s">
+      <c r="G52" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H52" s="101" t="s">
+      <c r="H52" s="102" t="s">
         <v>740</v>
       </c>
-      <c r="I52" s="106" t="s">
+      <c r="I52" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12520,16 +13470,16 @@
         <v>654</v>
       </c>
       <c r="D53" s="18"/>
-      <c r="F53" s="106" t="s">
+      <c r="F53" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G53" s="106" t="s">
+      <c r="G53" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H53" s="101" t="s">
+      <c r="H53" s="102" t="s">
         <v>741</v>
       </c>
-      <c r="I53" s="106" t="s">
+      <c r="I53" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12540,16 +13490,16 @@
         <v>655</v>
       </c>
       <c r="D54" s="18"/>
-      <c r="F54" s="106" t="s">
+      <c r="F54" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G54" s="106" t="s">
+      <c r="G54" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H54" s="101" t="s">
+      <c r="H54" s="102" t="s">
         <v>742</v>
       </c>
-      <c r="I54" s="106" t="s">
+      <c r="I54" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12560,16 +13510,16 @@
         <v>677</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="F55" s="106" t="s">
+      <c r="F55" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G55" s="106" t="s">
+      <c r="G55" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H55" s="101" t="s">
+      <c r="H55" s="102" t="s">
         <v>743</v>
       </c>
-      <c r="I55" s="106" t="s">
+      <c r="I55" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12580,16 +13530,16 @@
         <v>636</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="F56" s="106" t="s">
+      <c r="F56" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G56" s="106" t="s">
+      <c r="G56" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H56" s="101" t="s">
+      <c r="H56" s="102" t="s">
         <v>744</v>
       </c>
-      <c r="I56" s="106" t="s">
+      <c r="I56" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12600,16 +13550,16 @@
         <v>657</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="F57" s="106" t="s">
+      <c r="F57" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G57" s="106" t="s">
+      <c r="G57" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H57" s="101" t="s">
+      <c r="H57" s="102" t="s">
         <v>745</v>
       </c>
-      <c r="I57" s="106" t="s">
+      <c r="I57" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12620,16 +13570,16 @@
         <v>656</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="F58" s="106" t="s">
+      <c r="F58" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G58" s="106" t="s">
+      <c r="G58" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H58" s="101" t="s">
+      <c r="H58" s="102" t="s">
         <v>746</v>
       </c>
-      <c r="I58" s="106" t="s">
+      <c r="I58" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12640,16 +13590,16 @@
         <v>678</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="F59" s="106" t="s">
+      <c r="F59" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G59" s="106" t="s">
+      <c r="G59" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H59" s="101" t="s">
+      <c r="H59" s="102" t="s">
         <v>747</v>
       </c>
-      <c r="I59" s="106" t="s">
+      <c r="I59" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12660,16 +13610,16 @@
         <v>658</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="F60" s="106" t="s">
+      <c r="F60" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G60" s="106" t="s">
+      <c r="G60" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H60" s="101" t="s">
+      <c r="H60" s="102" t="s">
         <v>748</v>
       </c>
-      <c r="I60" s="106" t="s">
+      <c r="I60" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12680,16 +13630,16 @@
         <v>659</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="F61" s="106" t="s">
+      <c r="F61" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G61" s="106" t="s">
+      <c r="G61" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H61" s="101" t="s">
+      <c r="H61" s="102" t="s">
         <v>749</v>
       </c>
-      <c r="I61" s="106" t="s">
+      <c r="I61" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12700,16 +13650,16 @@
         <v>660</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="F62" s="106" t="s">
+      <c r="F62" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G62" s="106" t="s">
+      <c r="G62" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H62" s="101" t="s">
+      <c r="H62" s="102" t="s">
         <v>750</v>
       </c>
-      <c r="I62" s="106" t="s">
+      <c r="I62" s="107" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12720,13 +13670,13 @@
       <c r="D63" s="74" t="s">
         <v>637</v>
       </c>
-      <c r="F63" s="106" t="s">
+      <c r="F63" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G63" s="106" t="s">
+      <c r="G63" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H63" s="105" t="s">
+      <c r="H63" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I63" s="12" t="s">
@@ -12740,13 +13690,13 @@
       <c r="D64" s="74" t="s">
         <v>661</v>
       </c>
-      <c r="F64" s="106" t="s">
+      <c r="F64" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G64" s="106" t="s">
+      <c r="G64" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H64" s="105" t="s">
+      <c r="H64" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I64" s="12" t="s">
@@ -12760,13 +13710,13 @@
       <c r="D65" s="74" t="s">
         <v>662</v>
       </c>
-      <c r="F65" s="106" t="s">
+      <c r="F65" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G65" s="106" t="s">
+      <c r="G65" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H65" s="105" t="s">
+      <c r="H65" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I65" s="12" t="s">
@@ -12780,13 +13730,13 @@
       <c r="D66" s="74" t="s">
         <v>663</v>
       </c>
-      <c r="F66" s="106" t="s">
+      <c r="F66" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G66" s="106" t="s">
+      <c r="G66" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H66" s="105" t="s">
+      <c r="H66" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I66" s="12" t="s">
@@ -12800,16 +13750,16 @@
       <c r="D67" s="74" t="s">
         <v>664</v>
       </c>
-      <c r="F67" s="106" t="s">
+      <c r="F67" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G67" s="106" t="s">
+      <c r="G67" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H67" s="105" t="s">
+      <c r="H67" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I67" s="103" t="s">
+      <c r="I67" s="104" t="s">
         <v>754</v>
       </c>
     </row>
@@ -12820,13 +13770,13 @@
       <c r="D68" s="74" t="s">
         <v>665</v>
       </c>
-      <c r="F68" s="106" t="s">
+      <c r="F68" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G68" s="106" t="s">
+      <c r="G68" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H68" s="105" t="s">
+      <c r="H68" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I68" s="12" t="s">
@@ -12840,13 +13790,13 @@
       <c r="D69" s="74" t="s">
         <v>666</v>
       </c>
-      <c r="F69" s="106" t="s">
+      <c r="F69" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G69" s="106" t="s">
+      <c r="G69" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H69" s="105" t="s">
+      <c r="H69" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I69" s="12" t="s">
@@ -12860,16 +13810,16 @@
       <c r="D70" s="74" t="s">
         <v>667</v>
       </c>
-      <c r="F70" s="106" t="s">
+      <c r="F70" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G70" s="106" t="s">
+      <c r="G70" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H70" s="105" t="s">
+      <c r="H70" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I70" s="103" t="s">
+      <c r="I70" s="104" t="s">
         <v>757</v>
       </c>
     </row>
@@ -12880,16 +13830,16 @@
       <c r="D71" s="74" t="s">
         <v>668</v>
       </c>
-      <c r="F71" s="106" t="s">
+      <c r="F71" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G71" s="106" t="s">
+      <c r="G71" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H71" s="105" t="s">
+      <c r="H71" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I71" s="103" t="s">
+      <c r="I71" s="104" t="s">
         <v>758</v>
       </c>
     </row>
@@ -12900,16 +13850,16 @@
       <c r="D72" s="74" t="s">
         <v>669</v>
       </c>
-      <c r="F72" s="106" t="s">
+      <c r="F72" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G72" s="106" t="s">
+      <c r="G72" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H72" s="105" t="s">
+      <c r="H72" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I72" s="103" t="s">
+      <c r="I72" s="104" t="s">
         <v>759</v>
       </c>
     </row>
@@ -12920,13 +13870,13 @@
       <c r="D73" s="74" t="s">
         <v>670</v>
       </c>
-      <c r="F73" s="106" t="s">
+      <c r="F73" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G73" s="106" t="s">
+      <c r="G73" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H73" s="105" t="s">
+      <c r="H73" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I73" s="12" t="s">
@@ -12940,13 +13890,13 @@
       <c r="D74" s="74" t="s">
         <v>632</v>
       </c>
-      <c r="F74" s="106" t="s">
+      <c r="F74" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G74" s="106" t="s">
+      <c r="G74" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H74" s="105" t="s">
+      <c r="H74" s="106" t="s">
         <v>737</v>
       </c>
       <c r="I74" s="12" t="s">
@@ -12960,16 +13910,16 @@
       <c r="D75" s="74" t="s">
         <v>674</v>
       </c>
-      <c r="F75" s="106" t="s">
+      <c r="F75" s="107" t="s">
         <v>762</v>
       </c>
-      <c r="G75" s="106" t="s">
+      <c r="G75" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="H75" s="105" t="s">
+      <c r="H75" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="I75" s="103" t="s">
+      <c r="I75" s="104" t="s">
         <v>761</v>
       </c>
     </row>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="850">
   <si>
     <t>ID</t>
   </si>
@@ -2694,6 +2694,159 @@
   </si>
   <si>
     <t>Surname: STRASHCHENKO</t>
+  </si>
+  <si>
+    <t>=RC[-9]</t>
+  </si>
+  <si>
+    <t>Email: @mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: </t>
+  </si>
+  <si>
+    <t>Email: str@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: strs@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: stras@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko133333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13333333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email  спецсимволы до @ </t>
+  </si>
+  <si>
+    <t>Email: *?/\|&lt;&gt;,.()[]{},:'"!#$%^&amp;`~+-№@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email  кириллицу до @ </t>
+  </si>
+  <si>
+    <t>Email: стращенко13@mail.ru</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после @ и до последней .  0 символов</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@m.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@ma.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mai.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@maillllllllllllllllllllllllllll.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mailllllllllllllllllllllllllllll.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@maillllllllllllllllllllllllllllll.ru</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email спецсимволы  после @ и до последней .</t>
+  </si>
+  <si>
+    <t>Email: strashchenko13@*?/\|&lt;&gt;,.()[]{},:'"!#$%^&amp;`~+-№.ru</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email кириллицу  после @ и до последней .</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@маил.ru</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .  0 символов</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.r</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.ruu</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.ruuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.ruuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.ruuuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>E-12</t>
+  </si>
+  <si>
+    <t>E-13</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .   кириллицу</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email после последней .   валидное количество символов в верхнем регистре</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 2 допустимых спецсимвола подряд до @</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 2 допустимых спецсимвола подряд после @ и до последней .</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 2 допустимых спецсимвола подряд после последней .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле Email 1 допустимый спецсимвол в конце </t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 1 допустимый спецсимвол в начале</t>
+  </si>
+  <si>
+    <t>Email: straschenko13@mail.ру</t>
+  </si>
+  <si>
+    <t>Email:STRASHCHENKO13@MAIL.RU</t>
+  </si>
+  <si>
+    <t>Email: strashchenko.-13@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: strashchenko12@ma-.il.ru</t>
+  </si>
+  <si>
+    <t>Email: strashchenko13@mail.r--u</t>
+  </si>
+  <si>
+    <t>Email: .strashchenko13@mail.ru</t>
+  </si>
+  <si>
+    <t>Email: strashchenko13@mail.ru.</t>
+  </si>
+  <si>
+    <t>Ввести в поле Email 1 цифру после последней .</t>
+  </si>
+  <si>
+    <t>Email: strashchenko13@mail.ru1</t>
   </si>
 </sst>
 </file>
@@ -3064,7 +3217,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3364,6 +3517,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -7355,10 +7509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9504,7 +9658,7 @@
         <v>601</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>600</v>
+        <v>801</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="12" t="s">
@@ -9521,15 +9675,9 @@
       </c>
       <c r="J72" s="18"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="107" t="s">
-        <v>763</v>
-      </c>
-      <c r="M72" t="s">
-        <v>737</v>
-      </c>
-      <c r="N72" s="107" t="s">
-        <v>752</v>
-      </c>
+      <c r="L72" s="41"/>
+      <c r="M72"/>
+      <c r="N72" s="107"/>
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -9543,7 +9691,7 @@
         <v>601</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>568</v>
+        <v>800</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="12" t="s">
@@ -9563,7 +9711,7 @@
         <v>763</v>
       </c>
       <c r="M73" s="101" t="s">
-        <v>719</v>
+        <v>799</v>
       </c>
       <c r="N73" s="107" t="s">
         <v>752</v>
@@ -9580,7 +9728,7 @@
         <v>601</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>569</v>
+        <v>802</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="12" t="s">
@@ -9617,7 +9765,7 @@
         <v>601</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>570</v>
+        <v>803</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="12" t="s">
@@ -9652,7 +9800,7 @@
         <v>601</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>571</v>
+        <v>804</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="12" t="s">
@@ -9676,7 +9824,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>207</v>
       </c>
@@ -9687,7 +9835,7 @@
         <v>601</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>572</v>
+        <v>805</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="12" t="s">
@@ -9711,7 +9859,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>208</v>
       </c>
@@ -9722,7 +9870,7 @@
         <v>601</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>573</v>
+        <v>806</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="12" t="s">
@@ -9746,7 +9894,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>203</v>
       </c>
@@ -9757,7 +9905,7 @@
         <v>601</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>574</v>
+        <v>807</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="12" t="s">
@@ -9781,32 +9929,24 @@
         <v>752</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>196</v>
+        <v>808</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>575</v>
+        <v>809</v>
       </c>
       <c r="E80" s="18"/>
-      <c r="F80" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H80" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" s="71" t="s">
-        <v>508</v>
-      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="71"/>
       <c r="J80" s="18"/>
       <c r="L80" s="107" t="s">
         <v>763</v>
@@ -9820,33 +9960,27 @@
     </row>
     <row r="81" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>197</v>
+        <v>810</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>576</v>
+        <v>811</v>
       </c>
       <c r="E81" s="18"/>
-      <c r="F81" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I81" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H81" s="50"/>
+      <c r="I81" s="71"/>
       <c r="J81" s="18"/>
       <c r="L81" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="109" t="s">
         <v>728</v>
       </c>
       <c r="N81" s="107" t="s">
@@ -9855,28 +9989,22 @@
     </row>
     <row r="82" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>544</v>
+        <v>812</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>577</v>
+        <v>813</v>
       </c>
       <c r="E82" s="18"/>
-      <c r="F82" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="12"/>
-      <c r="H82" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I82" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H82" s="50"/>
+      <c r="I82" s="71"/>
       <c r="J82" s="18"/>
       <c r="L82" s="107" t="s">
         <v>763</v>
@@ -9888,29 +10016,31 @@
         <v>752</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>545</v>
+        <v>196</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>578</v>
+        <v>814</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G83" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="50" t="s">
-        <v>161</v>
+      <c r="H83" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I83" s="71" t="s">
-        <v>68</v>
+        <v>508</v>
       </c>
       <c r="J83" s="18"/>
       <c r="L83" s="107" t="s">
@@ -9923,18 +10053,18 @@
         <v>752</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>546</v>
+        <v>197</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>579</v>
+        <v>815</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="12" t="s">
@@ -9958,31 +10088,29 @@
         <v>752</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>550</v>
+        <v>211</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>580</v>
+        <v>816</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G85" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="H85" s="39" t="s">
-        <v>245</v>
+      <c r="G85" s="12"/>
+      <c r="H85" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I85" s="71" t="s">
-        <v>508</v>
+        <v>68</v>
       </c>
       <c r="J85" s="18"/>
       <c r="L85" s="107" t="s">
@@ -9995,31 +10123,29 @@
         <v>752</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>551</v>
+        <v>212</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>198</v>
+        <v>545</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>581</v>
+        <v>817</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G86" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="H86" s="39" t="s">
-        <v>245</v>
+      <c r="G86" s="12"/>
+      <c r="H86" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>508</v>
+        <v>68</v>
       </c>
       <c r="J86" s="18"/>
       <c r="L86" s="107" t="s">
@@ -10032,18 +10158,18 @@
         <v>752</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>552</v>
+        <v>213</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>199</v>
+        <v>546</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>582</v>
+        <v>818</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="12" t="s">
@@ -10066,31 +10192,32 @@
       <c r="N87" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="O87"/>
     </row>
     <row r="88" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>582</v>
+        <v>819</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G88" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="50" t="s">
-        <v>161</v>
+      <c r="H88" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I88" s="71" t="s">
-        <v>68</v>
+        <v>508</v>
       </c>
       <c r="J88" s="18"/>
       <c r="L88" s="107" t="s">
@@ -10103,201 +10230,177 @@
         <v>752</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>554</v>
+        <v>122</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>549</v>
+        <v>820</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>583</v>
+        <v>821</v>
       </c>
       <c r="E89" s="18"/>
-      <c r="F89" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F89" s="12"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I89" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="71"/>
       <c r="J89" s="18"/>
       <c r="L89" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M89" t="s">
-        <v>725</v>
+      <c r="M89" s="109" t="s">
+        <v>733</v>
       </c>
       <c r="N89" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>555</v>
+        <v>122</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>200</v>
+        <v>822</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>584</v>
+        <v>823</v>
       </c>
       <c r="E90" s="18"/>
-      <c r="F90" s="12" t="s">
-        <v>561</v>
-      </c>
+      <c r="F90" s="12"/>
       <c r="G90" s="12"/>
-      <c r="H90" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I90" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="71"/>
       <c r="J90" s="18"/>
       <c r="L90" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M90" t="s">
-        <v>733</v>
+      <c r="M90" s="109" t="s">
+        <v>735</v>
       </c>
       <c r="N90" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>556</v>
+        <v>123</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>201</v>
+        <v>824</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>601</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>585</v>
+        <v>825</v>
       </c>
       <c r="E91" s="18"/>
-      <c r="F91" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H91" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I91" s="71" t="s">
-        <v>508</v>
-      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="71"/>
       <c r="J91" s="18"/>
       <c r="L91" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M91" t="s">
-        <v>735</v>
+      <c r="M91" s="109" t="s">
+        <v>734</v>
       </c>
       <c r="N91" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>489</v>
+        <v>198</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>609</v>
+        <v>826</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>161</v>
+        <v>561</v>
+      </c>
+      <c r="H92" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I92" s="71" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J92" s="18"/>
-      <c r="K92" s="4"/>
       <c r="L92" s="107" t="s">
         <v>763</v>
       </c>
       <c r="M92" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N92" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>189</v>
+        <v>552</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>557</v>
+        <v>199</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>162</v>
+        <v>827</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="G93" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="H93" s="39" t="s">
-        <v>245</v>
+      <c r="G93" s="12"/>
+      <c r="H93" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="I93" s="71" t="s">
-        <v>509</v>
+        <v>68</v>
       </c>
       <c r="J93" s="18"/>
       <c r="L93" s="107" t="s">
         <v>763</v>
       </c>
       <c r="M93" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N93" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>190</v>
+        <v>553</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>586</v>
+        <v>828</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="12" t="s">
@@ -10315,24 +10418,25 @@
         <v>763</v>
       </c>
       <c r="M94" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N94" s="107" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>190</v>
+        <v>554</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>582</v>
+        <v>829</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="12" t="s">
@@ -10350,25 +10454,24 @@
         <v>763</v>
       </c>
       <c r="M95" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N95" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="O95"/>
-    </row>
-    <row r="96" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>191</v>
+        <v>555</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>588</v>
+        <v>830</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="12" t="s">
@@ -10382,384 +10485,302 @@
         <v>68</v>
       </c>
       <c r="J96" s="18"/>
-      <c r="K96" s="72"/>
       <c r="L96" s="107" t="s">
         <v>763</v>
       </c>
       <c r="M96" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N96" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="O96"/>
-    </row>
-    <row r="97" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>191</v>
+        <v>556</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>587</v>
+        <v>831</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G97" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="50" t="s">
-        <v>161</v>
+      <c r="H97" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="I97" s="71" t="s">
-        <v>68</v>
+        <v>508</v>
       </c>
       <c r="J97" s="18"/>
       <c r="L97" s="107" t="s">
         <v>763</v>
       </c>
       <c r="M97" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N97" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="O97"/>
-    </row>
-    <row r="98" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>187</v>
+        <v>834</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>589</v>
+        <v>825</v>
       </c>
       <c r="E98" s="18"/>
-      <c r="F98" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="H98" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I98" s="71" t="s">
-        <v>509</v>
-      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="71"/>
       <c r="J98" s="18"/>
       <c r="L98" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M98" t="s">
-        <v>742</v>
+      <c r="M98" s="109" t="s">
+        <v>743</v>
       </c>
       <c r="N98" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="O98"/>
-    </row>
-    <row r="99" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C99" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="F99" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G99" s="36"/>
-      <c r="H99" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I99" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J99" s="35"/>
-      <c r="K99" s="1"/>
+    </row>
+    <row r="99" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="18"/>
       <c r="L99" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M99" t="s">
-        <v>743</v>
+      <c r="M99" s="109" t="s">
+        <v>744</v>
       </c>
       <c r="N99" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="O99"/>
-    </row>
-    <row r="100" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="E100" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F100" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G100" s="38"/>
-      <c r="H100" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I100" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J100" s="37"/>
+    </row>
+    <row r="100" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E100" s="18"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="18"/>
       <c r="L100" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M100" t="s">
-        <v>744</v>
+      <c r="M100" s="109" t="s">
+        <v>745</v>
       </c>
       <c r="N100" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B101" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D101" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F101" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G101" s="38"/>
-      <c r="H101" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I101" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J101" s="37"/>
+    <row r="101" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="E101" s="18"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="18"/>
       <c r="L101" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M101" t="s">
-        <v>745</v>
+      <c r="M101" s="109" t="s">
+        <v>746</v>
       </c>
       <c r="N101" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B102" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F102" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G102" s="38"/>
-      <c r="H102" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I102" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J102" s="37"/>
+    <row r="102" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="E102" s="18"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="18"/>
       <c r="L102" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M102" t="s">
-        <v>746</v>
+      <c r="M102" s="109" t="s">
+        <v>747</v>
       </c>
       <c r="N102" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B103" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D103" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E103" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F103" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G103" s="38"/>
-      <c r="H103" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I103" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J103" s="37"/>
+    <row r="103" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="E103" s="18"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="18"/>
       <c r="L103" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M103" t="s">
-        <v>747</v>
+      <c r="M103" s="109" t="s">
+        <v>748</v>
       </c>
       <c r="N103" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C104" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E104" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F104" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G104" s="38"/>
-      <c r="H104" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I104" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J104" s="37"/>
+    <row r="104" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="E104" s="18"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="18"/>
       <c r="L104" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M104" t="s">
-        <v>748</v>
+      <c r="M104" s="109" t="s">
+        <v>749</v>
       </c>
       <c r="N104" s="107" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="B105" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C105" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="E105" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F105" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G105" s="38"/>
-      <c r="H105" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I105" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J105" s="37"/>
-      <c r="L105" s="107" t="s">
-        <v>763</v>
-      </c>
-      <c r="M105" t="s">
-        <v>749</v>
-      </c>
-      <c r="N105" s="107" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B106" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="E106" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F106" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G106" s="38"/>
-      <c r="H106" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I106" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J106" s="37"/>
+    <row r="105" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="E105" s="18"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="18"/>
+      <c r="L105" s="107"/>
+      <c r="M105"/>
+      <c r="N105" s="107"/>
+    </row>
+    <row r="106" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="E106" s="18"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="18"/>
       <c r="L106" s="107" t="s">
         <v>763</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" s="109" t="s">
         <v>750</v>
       </c>
       <c r="N106" s="107" t="s">
@@ -10767,32 +10788,33 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="E107" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="F107" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="G107" s="38"/>
-      <c r="H107" s="50" t="s">
+      <c r="A107" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="E107" s="18"/>
+      <c r="F107" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H107" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I107" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="J107" s="37"/>
+      <c r="I107" s="71" t="s">
+        <v>505</v>
+      </c>
+      <c r="J107" s="18"/>
+      <c r="K107" s="4"/>
       <c r="L107" s="107" t="s">
         <v>763</v>
       </c>
@@ -10802,8 +10824,35 @@
       <c r="N107" s="12" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O107" s="4"/>
+    </row>
+    <row r="108" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H108" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I108" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="J108" s="18"/>
       <c r="L108" s="107" t="s">
         <v>763</v>
       </c>
@@ -10814,7 +10863,31 @@
         <v>751</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I109" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J109" s="18"/>
       <c r="L109" s="107" t="s">
         <v>763</v>
       </c>
@@ -10825,7 +10898,31 @@
         <v>752</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="E110" s="18"/>
+      <c r="F110" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G110" s="12"/>
+      <c r="H110" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I110" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J110" s="18"/>
       <c r="L110" s="107" t="s">
         <v>763</v>
       </c>
@@ -10836,7 +10933,31 @@
         <v>753</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="E111" s="18"/>
+      <c r="F111" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I111" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J111" s="18"/>
       <c r="L111" s="107" t="s">
         <v>763</v>
       </c>
@@ -10846,8 +10967,34 @@
       <c r="N111" s="104" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="E112" s="18"/>
+      <c r="F112" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G112" s="12"/>
+      <c r="H112" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I112" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J112" s="18"/>
+      <c r="K112" s="72"/>
       <c r="L112" s="107" t="s">
         <v>763</v>
       </c>
@@ -10857,8 +11004,35 @@
       <c r="N112" s="12" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="113" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E113" s="18"/>
+      <c r="F113" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H113" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I113" s="71" t="s">
+        <v>509</v>
+      </c>
+      <c r="J113" s="18"/>
       <c r="L113" s="107" t="s">
         <v>763</v>
       </c>
@@ -10868,8 +11042,35 @@
       <c r="N113" s="12" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="114" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="F114" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G114" s="36"/>
+      <c r="H114" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I114" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J114" s="35"/>
       <c r="L114" s="107" t="s">
         <v>763</v>
       </c>
@@ -10879,8 +11080,35 @@
       <c r="N114" s="104" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="115" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G115" s="38"/>
+      <c r="H115" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I115" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J115" s="37"/>
       <c r="L115" s="107" t="s">
         <v>763</v>
       </c>
@@ -10891,7 +11119,33 @@
         <v>758</v>
       </c>
     </row>
-    <row r="116" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F116" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G116" s="38"/>
+      <c r="H116" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I116" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J116" s="37"/>
       <c r="L116" s="107" t="s">
         <v>763</v>
       </c>
@@ -10902,7 +11156,33 @@
         <v>759</v>
       </c>
     </row>
-    <row r="117" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G117" s="38"/>
+      <c r="H117" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I117" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J117" s="37"/>
       <c r="L117" s="107" t="s">
         <v>763</v>
       </c>
@@ -10913,7 +11193,33 @@
         <v>760</v>
       </c>
     </row>
-    <row r="118" spans="12:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F118" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G118" s="38"/>
+      <c r="H118" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I118" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J118" s="37"/>
       <c r="L118" s="107" t="s">
         <v>763</v>
       </c>
@@ -10924,7 +11230,33 @@
         <v>697</v>
       </c>
     </row>
-    <row r="119" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" s="38"/>
+      <c r="H119" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I119" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J119" s="37"/>
       <c r="L119" s="107" t="s">
         <v>763</v>
       </c>
@@ -10934,6 +11266,90 @@
       <c r="N119" s="104" t="s">
         <v>761</v>
       </c>
+    </row>
+    <row r="120" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E120" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F120" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G120" s="38"/>
+      <c r="H120" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I120" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J120" s="37"/>
+    </row>
+    <row r="121" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G121" s="38"/>
+      <c r="H121" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I121" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J121" s="37"/>
+    </row>
+    <row r="122" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A122" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F122" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="G122" s="38"/>
+      <c r="H122" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="I122" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J122" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10941,13 +11357,13 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I92">
-      <formula1>$A$3:$A$98</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I107">
+      <formula1>$A$3:$A$113</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I59 I72">
-      <formula1>$A$3:$A$101</formula1>
+      <formula1>$A$3:$A$116</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H122">
       <formula1>"Passed,Failed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10987,25 +11403,25 @@
     <hyperlink ref="I76" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I77" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I78" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I80" location="Требования!A42" display="F-13/3"/>
-    <hyperlink ref="I85" location="Требования!A42" display="F-13/3"/>
-    <hyperlink ref="I86" location="Требования!A42" display="F-13/3"/>
-    <hyperlink ref="I91" location="'Граничные значения'!A42" display="F-13/3"/>
-    <hyperlink ref="I81" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I82" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I83" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I83" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I88" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I92" location="Требования!A42" display="F-13/3"/>
+    <hyperlink ref="I97" location="'Граничные значения'!A42" display="F-13/3"/>
     <hyperlink ref="I84" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I85" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I86" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I87" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I88" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I89" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I90" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I92" location="Требования!A38" display="F-12/4"/>
+    <hyperlink ref="I93" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I94" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I95" location="Требования!A33" display="F-11/3"/>
     <hyperlink ref="I96" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I97" location="Требования!A33" display="F-11/3"/>
-    <hyperlink ref="I93" location="Требования!A43" display="F-13/4"/>
-    <hyperlink ref="I98" location="Требования!A43" display="F-13/4"/>
+    <hyperlink ref="I107" location="Требования!A38" display="F-12/4"/>
+    <hyperlink ref="I109" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I110" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I111" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I112" location="Требования!A33" display="F-11/3"/>
+    <hyperlink ref="I108" location="Требования!A43" display="F-13/4"/>
+    <hyperlink ref="I113" location="Требования!A43" display="F-13/4"/>
     <hyperlink ref="D32" r:id="rId1"/>
     <hyperlink ref="J30" location="'Баг-репорты'!R76C5" display="B-14"/>
     <hyperlink ref="J31" location="'Баг-репорты'!R88C2" display="B-15"/>
@@ -11017,10 +11433,22 @@
     <hyperlink ref="N115" r:id="rId5"/>
     <hyperlink ref="N116" r:id="rId6"/>
     <hyperlink ref="N119" r:id="rId7"/>
+    <hyperlink ref="M81" r:id="rId8"/>
+    <hyperlink ref="M89" r:id="rId9"/>
+    <hyperlink ref="M90" r:id="rId10"/>
+    <hyperlink ref="M91" r:id="rId11"/>
+    <hyperlink ref="M98" r:id="rId12"/>
+    <hyperlink ref="M99" r:id="rId13"/>
+    <hyperlink ref="M100" r:id="rId14"/>
+    <hyperlink ref="M101" r:id="rId15"/>
+    <hyperlink ref="M102" r:id="rId16"/>
+    <hyperlink ref="M103" r:id="rId17"/>
+    <hyperlink ref="M104" r:id="rId18"/>
+    <hyperlink ref="M106" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <drawing r:id="rId21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -11028,7 +11456,7 @@
           <x14:formula1>
             <xm:f>Требования!$A$3:$A$95</xm:f>
           </x14:formula1>
-          <xm:sqref>I99:I107 I6:I46</xm:sqref>
+          <xm:sqref>I114:I122 I6:I46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12405,8 +12833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="806">
   <si>
     <t>ID</t>
   </si>
@@ -1186,9 +1186,6 @@
   <si>
     <t>1. Кликнуть по полю полю Email
 2. Ввести невалидные данные из Test Data</t>
-  </si>
-  <si>
-    <t>straschenko1333333333333333333333@mail.ru</t>
   </si>
   <si>
     <t>tDbb@588888888888</t>
@@ -2168,171 +2165,6 @@
     <t>Поле никак не подсвечивается</t>
   </si>
   <si>
-    <t>1 валидный символ</t>
-  </si>
-  <si>
-    <t>2 валидных символа</t>
-  </si>
-  <si>
-    <t>3 валидных символа</t>
-  </si>
-  <si>
-    <t>127 валидных символов</t>
-  </si>
-  <si>
-    <t>128 валидных символов</t>
-  </si>
-  <si>
-    <t>129 валидных символов</t>
-  </si>
-  <si>
-    <t>спецсимволы</t>
-  </si>
-  <si>
-    <t>префиксный пробел+валидное количество символов+символ</t>
-  </si>
-  <si>
-    <t>символ+валидное количество символов+постфиксный пробел</t>
-  </si>
-  <si>
-    <t>валидное количество символов+2 символа подряд</t>
-  </si>
-  <si>
-    <t>валидное количество символов в верхнем регистре</t>
-  </si>
-  <si>
-    <t>пустое поле</t>
-  </si>
-  <si>
-    <t>3 символа до @</t>
-  </si>
-  <si>
-    <t>4 символа до @</t>
-  </si>
-  <si>
-    <t>5 символов до @</t>
-  </si>
-  <si>
-    <t>31 символ до @</t>
-  </si>
-  <si>
-    <t>32 символа до @</t>
-  </si>
-  <si>
-    <t>33 символа до @</t>
-  </si>
-  <si>
-    <t>1 символ после @ и до последней .</t>
-  </si>
-  <si>
-    <t>2 символа после @ и до последней .</t>
-  </si>
-  <si>
-    <t>3 символа после @ и до последней .</t>
-  </si>
-  <si>
-    <t>31 символ после @ и до последней .</t>
-  </si>
-  <si>
-    <t>32 символа после @ и до последней .</t>
-  </si>
-  <si>
-    <t>33 символа после @ и до последней .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 символ после последней .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 символа после последней .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 символа после последней .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 символов после последней .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 символов после последней .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 символов после последней .  </t>
-  </si>
-  <si>
-    <t>2 символа подряд после @ и до последней .</t>
-  </si>
-  <si>
-    <t>2 символа подряд до @</t>
-  </si>
-  <si>
-    <t>1 символ вначале</t>
-  </si>
-  <si>
-    <t>1 символ в конце</t>
-  </si>
-  <si>
-    <t>1 цифра после последней .</t>
-  </si>
-  <si>
-    <t>7 валидных символов</t>
-  </si>
-  <si>
-    <t>8 валидных символов</t>
-  </si>
-  <si>
-    <t>9 валидных символов</t>
-  </si>
-  <si>
-    <t>15 валидных символов</t>
-  </si>
-  <si>
-    <t>16 валидных символов</t>
-  </si>
-  <si>
-    <t>17 валидных символов</t>
-  </si>
-  <si>
-    <t>валидное количество символов без большой буквы</t>
-  </si>
-  <si>
-    <t>валидное количество символов без маленькой буквы</t>
-  </si>
-  <si>
-    <t>валидное количество символов без цифры</t>
-  </si>
-  <si>
-    <t>валидное количество символов без спецсимвола</t>
-  </si>
-  <si>
-    <t>0 символов до @</t>
-  </si>
-  <si>
-    <t>0 символов после @ и до последней .</t>
-  </si>
-  <si>
-    <t>0 символов после последней .</t>
-  </si>
-  <si>
-    <t>кириллица</t>
-  </si>
-  <si>
-    <t>кириллица до @</t>
-  </si>
-  <si>
-    <t>кириллица  после @ и до последней .</t>
-  </si>
-  <si>
-    <t>кириллица после последней .</t>
-  </si>
-  <si>
-    <t>2 символа подряд после последней .</t>
-  </si>
-  <si>
-    <t>спецсимволы до @</t>
-  </si>
-  <si>
-    <t>спецсимволы  после @ и до последней .</t>
-  </si>
-  <si>
     <t>1. Заполнить поля данными из Test Data
 2. Нажать кнопку "Submit"</t>
   </si>
@@ -2388,27 +2220,9 @@
     <t>Арина</t>
   </si>
   <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>ari</t>
-  </si>
-  <si>
-    <t>arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
     <t xml:space="preserve"> arina.</t>
   </si>
   <si>
-    <t xml:space="preserve">.arina </t>
-  </si>
-  <si>
     <t>arina..</t>
   </si>
   <si>
@@ -2424,15 +2238,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>strashchenkooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
     <t>стращенко</t>
   </si>
   <si>
@@ -2454,9 +2259,6 @@
     <t>str@mail.ru</t>
   </si>
   <si>
-    <t>stra@mail.ru</t>
-  </si>
-  <si>
     <t>stras@mail.ru</t>
   </si>
   <si>
@@ -2476,12 +2278,6 @@
   </si>
   <si>
     <t>стращенко13@mail.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> straschenko13@m.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> straschenko13@.ru</t>
   </si>
   <si>
     <t>straschenko13@ma.ru</t>
@@ -2526,9 +2322,6 @@
     <t>straschenko13@mail.ру</t>
   </si>
   <si>
-    <t>STRASHCHENKO13@MAIL.RU</t>
-  </si>
-  <si>
     <t>strashchenko.-13@mail.ru</t>
   </si>
   <si>
@@ -2575,9 +2368,6 @@
   </si>
   <si>
     <t>tDbba58e</t>
-  </si>
-  <si>
-    <t>аВкк23@v!</t>
   </si>
   <si>
     <t>Arina</t>
@@ -2886,6 +2676,51 @@
   </si>
   <si>
     <t>1. Внести данные из Test Data в соответствующие поля</t>
+  </si>
+  <si>
+    <t>strs@mail.ru</t>
+  </si>
+  <si>
+    <t>straschenko13333333333333333333333@mail.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@.ru</t>
+  </si>
+  <si>
+    <t>straschenko13@m.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>Strashchenkooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>Strashchenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ari
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+</t>
   </si>
 </sst>
 </file>
@@ -3256,7 +3091,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3454,10 +3289,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3473,31 +3304,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3553,6 +3363,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4477,11 +4302,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -4498,7 +4323,7 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="91" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -4509,7 +4334,7 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -4518,7 +4343,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -4527,7 +4352,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4536,7 +4361,7 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -4547,7 +4372,7 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -4556,7 +4381,7 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="102"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -4580,7 +4405,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4607,10 +4432,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="57"/>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="83"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -4620,14 +4445,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="94" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -4638,7 +4463,7 @@
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
@@ -4647,7 +4472,7 @@
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
@@ -4656,7 +4481,7 @@
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="88" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -4667,7 +4492,7 @@
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="12" t="s">
         <v>42</v>
       </c>
@@ -4676,18 +4501,18 @@
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4709,7 +4534,7 @@
         <v>285</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4720,7 +4545,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4739,10 +4564,10 @@
         <v>59</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,10 +4575,10 @@
         <v>60</v>
       </c>
       <c r="B28" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,7 +4586,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>77</v>
@@ -4808,7 +4633,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4816,54 +4641,54 @@
         <v>69</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B36" s="70" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4871,54 +4696,54 @@
         <v>70</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B40" s="70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B42" s="70" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B43" s="70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4948,10 +4773,10 @@
         <v>79</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4967,10 +4792,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>74</v>
@@ -4978,7 +4803,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>76</v>
@@ -4989,21 +4814,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B50" s="55" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57"/>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="90"/>
+      <c r="C51" s="81"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -5117,10 +4942,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="92"/>
+      <c r="C62" s="83"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -5234,10 +5059,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="94"/>
+      <c r="C73" s="85"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
@@ -5258,7 +5083,7 @@
         <v>87</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,7 +5160,7 @@
         <v>99</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5346,7 +5171,7 @@
         <v>95</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5357,15 +5182,15 @@
         <v>97</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
-      <c r="B85" s="95" t="s">
+      <c r="B85" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="96"/>
+      <c r="C85" s="87"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5386,7 +5211,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5441,7 +5266,7 @@
         <v>100</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -5452,7 +5277,7 @@
         <v>99</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5556,7 +5381,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -5569,18 +5394,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -5590,23 +5415,23 @@
         <v>182</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>589</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>590</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -5615,26 +5440,26 @@
         <v>160</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -5643,17 +5468,17 @@
         <v>169</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="21" t="s">
@@ -5666,71 +5491,71 @@
     </row>
     <row r="9" spans="1:10" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>164</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>594</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>595</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J11" s="18"/>
     </row>
@@ -5739,17 +5564,17 @@
         <v>164</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>186</v>
@@ -5758,7 +5583,7 @@
         <v>161</v>
       </c>
       <c r="I12" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -5767,13 +5592,13 @@
         <v>165</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="12" t="s">
@@ -5793,59 +5618,59 @@
         <v>168</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I14" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="106"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>166</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>163</v>
@@ -5854,7 +5679,7 @@
         <v>161</v>
       </c>
       <c r="I16" s="71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -5863,13 +5688,13 @@
         <v>167</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>600</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>601</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="12" t="s">
@@ -5889,17 +5714,17 @@
         <v>170</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>163</v>
@@ -5908,7 +5733,7 @@
         <v>161</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -5917,17 +5742,17 @@
         <v>171</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>163</v>
@@ -5936,7 +5761,7 @@
         <v>161</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J19" s="18"/>
     </row>
@@ -5945,17 +5770,17 @@
         <v>172</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>163</v>
@@ -5964,7 +5789,7 @@
         <v>161</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J20" s="18"/>
     </row>
@@ -5973,17 +5798,17 @@
         <v>173</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>163</v>
@@ -5992,7 +5817,7 @@
         <v>161</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J21" s="18"/>
     </row>
@@ -6001,17 +5826,17 @@
         <v>174</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>163</v>
@@ -6020,7 +5845,7 @@
         <v>161</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J22" s="18"/>
     </row>
@@ -6029,17 +5854,17 @@
         <v>175</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>163</v>
@@ -6048,40 +5873,40 @@
         <v>161</v>
       </c>
       <c r="I23" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
     </row>
     <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>163</v>
@@ -6090,26 +5915,26 @@
         <v>161</v>
       </c>
       <c r="I25" s="71" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>609</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>610</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>163</v>
@@ -6118,22 +5943,22 @@
         <v>161</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="12" t="s">
@@ -6150,20 +5975,20 @@
     </row>
     <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>163</v>
@@ -6172,7 +5997,7 @@
         <v>161</v>
       </c>
       <c r="I28" s="71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J28" s="18"/>
     </row>
@@ -6293,7 +6118,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -6306,44 +6131,44 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -6352,20 +6177,20 @@
         <v>177</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>245</v>
@@ -6383,20 +6208,20 @@
         <v>178</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>245</v>
@@ -6414,20 +6239,20 @@
         <v>183</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>245</v>
@@ -6441,23 +6266,23 @@
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>245</v>
@@ -6472,29 +6297,29 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J11" s="18"/>
       <c r="L11" s="1"/>
@@ -6502,18 +6327,18 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="97"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -6526,23 +6351,23 @@
         <v>185</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I13" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J13" s="18"/>
       <c r="L13" s="1"/>
@@ -6554,17 +6379,17 @@
         <v>180</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="50" t="s">
@@ -6583,17 +6408,17 @@
         <v>181</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="50" t="s">
@@ -6612,17 +6437,17 @@
         <v>184</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="50" t="s">
@@ -6638,20 +6463,20 @@
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="50" t="s">
@@ -6667,29 +6492,29 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J18" s="18"/>
       <c r="L18" s="1"/>
@@ -6697,18 +6522,18 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -6721,23 +6546,23 @@
         <v>193</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J20" s="18"/>
       <c r="L20" s="1"/>
@@ -6749,26 +6574,26 @@
         <v>205</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J21" s="18"/>
       <c r="L21" s="1"/>
@@ -6780,17 +6605,17 @@
         <v>202</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="50" t="s">
@@ -6809,17 +6634,17 @@
         <v>206</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="50" t="s">
@@ -6838,17 +6663,17 @@
         <v>207</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="50" t="s">
@@ -6870,14 +6695,14 @@
         <v>194</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="50" t="s">
@@ -6899,21 +6724,21 @@
         <v>195</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J26" s="18"/>
       <c r="L26" s="1"/>
@@ -6928,23 +6753,23 @@
         <v>196</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I27" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J27" s="18"/>
       <c r="L27" s="1"/>
@@ -6959,14 +6784,14 @@
         <v>197</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="50" t="s">
@@ -6985,17 +6810,17 @@
         <v>211</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="50" t="s">
@@ -7014,17 +6839,17 @@
         <v>212</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="50" t="s">
@@ -7043,17 +6868,17 @@
         <v>213</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="50" t="s">
@@ -7069,29 +6894,29 @@
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I32" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J32" s="18"/>
       <c r="L32" s="1"/>
@@ -7100,29 +6925,29 @@
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J33" s="18"/>
       <c r="L33" s="1"/>
@@ -7131,20 +6956,20 @@
     </row>
     <row r="34" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="50" t="s">
@@ -7160,20 +6985,20 @@
     </row>
     <row r="35" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>737</v>
+        <v>669</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="50" t="s">
@@ -7189,20 +7014,20 @@
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="50" t="s">
@@ -7218,20 +7043,20 @@
     </row>
     <row r="37" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="50" t="s">
@@ -7247,29 +7072,29 @@
     </row>
     <row r="38" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J38" s="18"/>
       <c r="L38" s="1"/>
@@ -7277,18 +7102,18 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="106"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="97"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -7298,26 +7123,26 @@
         <v>189</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>162</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I40" s="71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J40" s="18"/>
       <c r="L40" s="1"/>
@@ -7329,17 +7154,17 @@
         <v>190</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="50" t="s">
@@ -7358,17 +7183,17 @@
         <v>190</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="50" t="s">
@@ -7387,17 +7212,17 @@
         <v>191</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="50" t="s">
@@ -7420,14 +7245,14 @@
         <v>188</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="50" t="s">
@@ -7449,23 +7274,23 @@
         <v>187</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H45" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I45" s="71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J45" s="18"/>
       <c r="L45" s="1"/>
@@ -7547,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7608,7 +7433,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>156</v>
@@ -7621,18 +7446,18 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
+        <v>626</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="1:11" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
@@ -7647,10 +7472,10 @@
         <v>305</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>245</v>
@@ -7674,7 +7499,7 @@
       <c r="C7" s="47"/>
       <c r="D7" s="41"/>
       <c r="E7" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -7685,13 +7510,13 @@
         <v>24</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>249</v>
@@ -7702,10 +7527,10 @@
         <v>306</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>245</v>
@@ -7714,7 +7539,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K8" s="42"/>
     </row>
@@ -7728,13 +7553,13 @@
       <c r="C9" s="47"/>
       <c r="D9" s="41"/>
       <c r="E9" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F9" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>412</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>413</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>245</v>
@@ -7743,7 +7568,7 @@
         <v>44</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K9" s="42"/>
     </row>
@@ -7767,7 +7592,7 @@
         <v>161</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="42"/>
@@ -7785,7 +7610,7 @@
         <v>308</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>269</v>
@@ -7794,10 +7619,10 @@
         <v>245</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K11" s="42"/>
     </row>
@@ -7821,7 +7646,7 @@
         <v>161</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="42"/>
@@ -7846,7 +7671,7 @@
         <v>161</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="42"/>
@@ -7867,7 +7692,7 @@
         <v>251</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>245</v>
@@ -7876,7 +7701,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K14" s="42"/>
     </row>
@@ -7896,7 +7721,7 @@
         <v>252</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>245</v>
@@ -7905,7 +7730,7 @@
         <v>39</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K15" s="42"/>
     </row>
@@ -7922,10 +7747,10 @@
         <v>313</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>245</v>
@@ -7934,7 +7759,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K16" s="42"/>
     </row>
@@ -7951,10 +7776,10 @@
         <v>314</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>245</v>
@@ -7963,7 +7788,7 @@
         <v>41</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K17" s="42"/>
     </row>
@@ -7983,7 +7808,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>245</v>
@@ -7992,7 +7817,7 @@
         <v>46</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K18" s="42"/>
     </row>
@@ -8012,7 +7837,7 @@
         <v>52</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>245</v>
@@ -8021,7 +7846,7 @@
         <v>46</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K19" s="42"/>
     </row>
@@ -8041,7 +7866,7 @@
         <v>52</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>245</v>
@@ -8050,7 +7875,7 @@
         <v>46</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K20" s="42"/>
     </row>
@@ -8070,7 +7895,7 @@
         <v>52</v>
       </c>
       <c r="G21" s="68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>245</v>
@@ -8079,7 +7904,7 @@
         <v>46</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K21" s="42"/>
     </row>
@@ -8198,7 +8023,7 @@
         <v>339</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="50" t="s">
@@ -8225,7 +8050,7 @@
         <v>340</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="50" t="s">
@@ -8252,7 +8077,7 @@
         <v>341</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="50" t="s">
@@ -8279,7 +8104,7 @@
         <v>342</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="50" t="s">
@@ -8300,7 +8125,7 @@
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="41" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>355</v>
@@ -8309,7 +8134,7 @@
         <v>54</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>245</v>
@@ -8318,7 +8143,7 @@
         <v>55</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
       <c r="K30" s="42"/>
     </row>
@@ -8331,7 +8156,7 @@
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="41" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>356</v>
@@ -8340,7 +8165,7 @@
         <v>54</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>245</v>
@@ -8349,7 +8174,7 @@
         <v>55</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>688</v>
+        <v>632</v>
       </c>
       <c r="K31" s="42"/>
     </row>
@@ -8361,8 +8186,8 @@
         <v>348</v>
       </c>
       <c r="C32" s="47"/>
-      <c r="D32" s="78" t="s">
-        <v>686</v>
+      <c r="D32" s="76" t="s">
+        <v>630</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>357</v>
@@ -8371,7 +8196,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>245</v>
@@ -8380,7 +8205,7 @@
         <v>55</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
       <c r="K32" s="42"/>
     </row>
@@ -8392,8 +8217,8 @@
         <v>349</v>
       </c>
       <c r="C33" s="47"/>
-      <c r="D33" s="79" t="s">
-        <v>359</v>
+      <c r="D33" s="77" t="s">
+        <v>358</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>354</v>
@@ -8402,7 +8227,7 @@
         <v>54</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H33" s="39" t="s">
         <v>245</v>
@@ -8411,26 +8236,26 @@
         <v>55</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="K33" s="42"/>
     </row>
     <row r="34" spans="1:11" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="50" t="s">
@@ -8444,20 +8269,20 @@
     </row>
     <row r="35" spans="1:11" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="50" t="s">
@@ -8471,20 +8296,20 @@
     </row>
     <row r="36" spans="1:11" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C36" s="47"/>
-      <c r="D36" s="75" t="s">
-        <v>366</v>
+      <c r="D36" s="73" t="s">
+        <v>365</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="50" t="s">
@@ -8498,20 +8323,20 @@
     </row>
     <row r="37" spans="1:11" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C37" s="47"/>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="E37" s="40" t="s">
-        <v>368</v>
-      </c>
       <c r="F37" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="50" t="s">
@@ -8608,7 +8433,7 @@
       <c r="C41" s="47"/>
       <c r="D41" s="41"/>
       <c r="E41" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>329</v>
@@ -8625,7 +8450,7 @@
     </row>
     <row r="42" spans="1:11" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" s="44" t="s">
         <v>328</v>
@@ -8633,10 +8458,10 @@
       <c r="C42" s="47"/>
       <c r="D42" s="41"/>
       <c r="E42" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="50" t="s">
@@ -8650,19 +8475,19 @@
     </row>
     <row r="43" spans="1:11" s="43" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="77" t="s">
-        <v>680</v>
+      <c r="C43" s="75" t="s">
+        <v>624</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>72</v>
@@ -8679,19 +8504,19 @@
     </row>
     <row r="44" spans="1:11" s="43" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="77" t="s">
-        <v>681</v>
+        <v>368</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>625</v>
       </c>
       <c r="D44" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>74</v>
@@ -8701,7 +8526,7 @@
         <v>161</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J44" s="40"/>
       <c r="K44" s="42"/>
@@ -8726,7 +8551,7 @@
         <v>245</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="42"/>
@@ -8739,25 +8564,25 @@
         <v>182</v>
       </c>
       <c r="C46" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>590</v>
-      </c>
       <c r="E46" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I46" s="71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="4"/>
@@ -8767,28 +8592,28 @@
         <v>176</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>763</v>
+        <v>693</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I47" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="4"/>
@@ -8798,22 +8623,22 @@
         <v>177</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H48" s="39" t="s">
         <v>245</v>
@@ -8828,22 +8653,22 @@
         <v>178</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>765</v>
+        <v>695</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H49" s="39" t="s">
         <v>245</v>
@@ -8858,22 +8683,22 @@
         <v>183</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>766</v>
+        <v>696</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H50" s="39" t="s">
         <v>245</v>
@@ -8885,25 +8710,25 @@
     </row>
     <row r="51" spans="1:12" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H51" s="39" t="s">
         <v>245</v>
@@ -8915,31 +8740,31 @@
     </row>
     <row r="52" spans="1:12" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H52" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I52" s="71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J52" s="18"/>
     </row>
@@ -8948,16 +8773,16 @@
         <v>84</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>767</v>
+        <v>697</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>774</v>
+        <v>704</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -8970,16 +8795,16 @@
         <v>86</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>768</v>
+        <v>698</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>775</v>
+        <v>705</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -8993,16 +8818,16 @@
         <v>89</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>769</v>
+        <v>699</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>776</v>
+        <v>706</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -9015,16 +8840,16 @@
         <v>92</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -9037,16 +8862,16 @@
         <v>94</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -9059,16 +8884,16 @@
         <v>96</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -9081,28 +8906,28 @@
         <v>164</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C59" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>595</v>
-      </c>
       <c r="E59" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H59" s="21" t="s">
         <v>161</v>
       </c>
       <c r="I59" s="71" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="4"/>
@@ -9116,25 +8941,25 @@
         <v>185</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H60" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I60" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J60" s="18"/>
     </row>
@@ -9143,19 +8968,19 @@
         <v>180</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>780</v>
+        <v>710</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="50" t="s">
@@ -9172,19 +8997,19 @@
         <v>181</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="50" t="s">
@@ -9200,19 +9025,19 @@
         <v>184</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>782</v>
+        <v>712</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="50" t="s">
@@ -9225,22 +9050,22 @@
     </row>
     <row r="64" spans="1:12" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="50" t="s">
@@ -9253,31 +9078,31 @@
     </row>
     <row r="65" spans="1:12" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H65" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I65" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J65" s="18"/>
     </row>
@@ -9286,16 +9111,16 @@
         <v>109</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>785</v>
+        <v>715</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>791</v>
+        <v>721</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -9308,16 +9133,16 @@
         <v>110</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>786</v>
+        <v>716</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D67" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>792</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>862</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -9330,16 +9155,16 @@
         <v>111</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>787</v>
+        <v>717</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>793</v>
+        <v>723</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
@@ -9352,16 +9177,16 @@
         <v>112</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>788</v>
+        <v>718</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -9374,16 +9199,16 @@
         <v>113</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>789</v>
+        <v>719</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>795</v>
+        <v>725</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -9396,16 +9221,16 @@
         <v>114</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>790</v>
+        <v>720</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>796</v>
+        <v>726</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -9418,19 +9243,19 @@
         <v>166</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>798</v>
+        <v>728</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>163</v>
@@ -9439,7 +9264,7 @@
         <v>161</v>
       </c>
       <c r="I72" s="71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J72" s="18"/>
       <c r="K72" s="4"/>
@@ -9453,25 +9278,25 @@
         <v>193</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H73" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I73" s="71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J73" s="18"/>
     </row>
@@ -9480,28 +9305,28 @@
         <v>205</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>799</v>
+        <v>729</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H74" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I74" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J74" s="18"/>
     </row>
@@ -9510,19 +9335,19 @@
         <v>202</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="50" t="s">
@@ -9538,19 +9363,19 @@
         <v>206</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>801</v>
+        <v>731</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="50" t="s">
@@ -9566,19 +9391,19 @@
         <v>207</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>802</v>
+        <v>732</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="50" t="s">
@@ -9597,16 +9422,16 @@
         <v>194</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="50" t="s">
@@ -9625,23 +9450,23 @@
         <v>195</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="50" t="s">
         <v>161</v>
       </c>
       <c r="I79" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J79" s="18"/>
     </row>
@@ -9650,16 +9475,16 @@
         <v>119</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>805</v>
+        <v>735</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>806</v>
+        <v>736</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -9672,16 +9497,16 @@
         <v>120</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>807</v>
+        <v>737</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>808</v>
+        <v>738</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
@@ -9694,16 +9519,16 @@
         <v>121</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>809</v>
+        <v>739</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>810</v>
+        <v>740</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
@@ -9719,25 +9544,25 @@
         <v>196</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>811</v>
+        <v>741</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H83" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I83" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J83" s="18"/>
     </row>
@@ -9749,16 +9574,16 @@
         <v>197</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>812</v>
+        <v>742</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="50" t="s">
@@ -9774,19 +9599,19 @@
         <v>211</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>813</v>
+        <v>743</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="50" t="s">
@@ -9802,19 +9627,19 @@
         <v>212</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>814</v>
+        <v>744</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="50" t="s">
@@ -9830,19 +9655,19 @@
         <v>213</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>815</v>
+        <v>745</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="50" t="s">
@@ -9855,31 +9680,31 @@
     </row>
     <row r="88" spans="1:12" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>816</v>
+        <v>746</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H88" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I88" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J88" s="18"/>
     </row>
@@ -9888,16 +9713,16 @@
         <v>122</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>817</v>
+        <v>747</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>818</v>
+        <v>748</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
@@ -9910,16 +9735,16 @@
         <v>122</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
@@ -9932,16 +9757,16 @@
         <v>123</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>821</v>
+        <v>751</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>822</v>
+        <v>752</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -9951,52 +9776,52 @@
     </row>
     <row r="92" spans="1:12" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>823</v>
+        <v>753</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H92" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I92" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>824</v>
+        <v>754</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="50" t="s">
@@ -10009,22 +9834,22 @@
     </row>
     <row r="94" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>825</v>
+        <v>755</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="50" t="s">
@@ -10038,22 +9863,22 @@
     </row>
     <row r="95" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>826</v>
+        <v>756</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="50" t="s">
@@ -10066,22 +9891,22 @@
     </row>
     <row r="96" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>827</v>
+        <v>757</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="50" t="s">
@@ -10094,31 +9919,31 @@
     </row>
     <row r="97" spans="1:12" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>828</v>
+        <v>758</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H97" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I97" s="71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J97" s="18"/>
     </row>
@@ -10127,16 +9952,16 @@
         <v>124</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>822</v>
+        <v>752</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
@@ -10149,16 +9974,16 @@
         <v>125</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>831</v>
+        <v>761</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>838</v>
+        <v>768</v>
       </c>
       <c r="E99" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -10171,16 +9996,16 @@
         <v>126</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>832</v>
+        <v>762</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>839</v>
+        <v>769</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -10193,16 +10018,16 @@
         <v>127</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>833</v>
+        <v>763</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>840</v>
+        <v>770</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -10215,16 +10040,16 @@
         <v>134</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>834</v>
+        <v>764</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>841</v>
+        <v>771</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -10237,16 +10062,16 @@
         <v>137</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>835</v>
+        <v>765</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>842</v>
+        <v>772</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -10256,19 +10081,19 @@
     </row>
     <row r="104" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>837</v>
+        <v>767</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>843</v>
+        <v>773</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
@@ -10278,19 +10103,19 @@
     </row>
     <row r="105" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>845</v>
+        <v>775</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>846</v>
+        <v>776</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
@@ -10300,19 +10125,19 @@
     </row>
     <row r="106" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>830</v>
+        <v>760</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>836</v>
+        <v>766</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>844</v>
+        <v>774</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -10322,22 +10147,22 @@
     </row>
     <row r="107" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>163</v>
@@ -10346,7 +10171,7 @@
         <v>161</v>
       </c>
       <c r="I107" s="71" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J107" s="18"/>
       <c r="K107" s="4"/>
@@ -10357,28 +10182,28 @@
         <v>189</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>847</v>
+        <v>777</v>
       </c>
       <c r="E108" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H108" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I108" s="71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J108" s="18"/>
     </row>
@@ -10387,19 +10212,19 @@
         <v>190</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>848</v>
+        <v>778</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="50" t="s">
@@ -10415,19 +10240,19 @@
         <v>190</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C110" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="D110" s="18" t="s">
-        <v>610</v>
-      </c>
       <c r="E110" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="50" t="s">
@@ -10443,19 +10268,19 @@
         <v>191</v>
       </c>
       <c r="B111" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="F111" s="12" t="s">
         <v>559</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>862</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>560</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="50" t="s">
@@ -10474,16 +10299,16 @@
         <v>188</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>850</v>
+        <v>780</v>
       </c>
       <c r="E112" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="50" t="s">
@@ -10504,25 +10329,25 @@
         <v>187</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>851</v>
+        <v>781</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H113" s="39" t="s">
         <v>245</v>
       </c>
       <c r="I113" s="71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J113" s="18"/>
       <c r="L113"/>
@@ -10532,16 +10357,16 @@
         <v>139</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>852</v>
+        <v>782</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>853</v>
+        <v>783</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
@@ -10555,16 +10380,16 @@
         <v>140</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>854</v>
+        <v>784</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
@@ -10578,16 +10403,16 @@
         <v>141</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>856</v>
+        <v>786</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>857</v>
+        <v>787</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
@@ -10601,16 +10426,16 @@
         <v>142</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>858</v>
+        <v>788</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>859</v>
+        <v>789</v>
       </c>
       <c r="E117" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
@@ -10624,16 +10449,16 @@
         <v>143</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>860</v>
+        <v>790</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>851</v>
+        <v>781</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
@@ -10647,16 +10472,16 @@
         <v>144</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>861</v>
+        <v>791</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>851</v>
+        <v>781</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -10679,7 +10504,7 @@
         <v>162</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F120" s="36" t="s">
         <v>163</v>
@@ -10708,7 +10533,7 @@
         <v>223</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F121" s="38" t="s">
         <v>49</v>
@@ -10736,10 +10561,10 @@
         <v>221</v>
       </c>
       <c r="E122" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F122" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G122" s="38"/>
       <c r="H122" s="39" t="s">
@@ -10764,10 +10589,10 @@
         <v>224</v>
       </c>
       <c r="E123" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F123" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G123" s="38"/>
       <c r="H123" s="39" t="s">
@@ -10792,10 +10617,10 @@
         <v>226</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F124" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G124" s="38"/>
       <c r="H124" s="39" t="s">
@@ -10820,7 +10645,7 @@
         <v>228</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F125" s="38" t="s">
         <v>49</v>
@@ -10848,10 +10673,10 @@
         <v>230</v>
       </c>
       <c r="E126" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F126" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G126" s="38"/>
       <c r="H126" s="50" t="s">
@@ -10876,10 +10701,10 @@
         <v>232</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F127" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G127" s="38"/>
       <c r="H127" s="50" t="s">
@@ -10904,10 +10729,10 @@
         <v>234</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="F128" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G128" s="38"/>
       <c r="H128" s="50" t="s">
@@ -11051,28 +10876,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11103,17 +10928,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>305</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11121,7 +10946,7 @@
         <v>155</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="61" t="s">
@@ -11131,70 +10956,70 @@
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="43"/>
       <c r="D14" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E14" s="58"/>
     </row>
@@ -11209,28 +11034,28 @@
         <v>0</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D16" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -11261,17 +11086,17 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>306</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -11279,84 +11104,84 @@
         <v>155</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="61" t="s">
         <v>155</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B26" s="61"/>
       <c r="C26" s="43"/>
       <c r="D26" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E26" s="60"/>
     </row>
@@ -11365,28 +11190,28 @@
         <v>0</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D28" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -11417,14 +11242,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>311</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>312</v>
@@ -11447,72 +11272,72 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="61"/>
       <c r="C38" s="43"/>
       <c r="D38" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E38" s="60"/>
     </row>
@@ -11521,28 +11346,28 @@
         <v>0</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D40" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -11573,14 +11398,14 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>313</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>314</v>
@@ -11591,84 +11416,84 @@
         <v>155</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="61" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" s="61"/>
       <c r="C50" s="43"/>
       <c r="D50" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E50" s="61"/>
     </row>
@@ -11677,28 +11502,28 @@
         <v>0</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D52" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C53" s="43"/>
       <c r="D53" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -11729,14 +11554,14 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>308</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>315</v>
@@ -11747,7 +11572,7 @@
         <v>155</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="61" t="s">
@@ -11759,72 +11584,72 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B58" s="61" t="s">
         <v>269</v>
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E58" s="61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E59" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B62" s="61"/>
       <c r="C62" s="43"/>
       <c r="D62" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E62" s="61"/>
     </row>
@@ -11833,28 +11658,28 @@
         <v>0</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D64" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E65" s="68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -11885,14 +11710,14 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>316</v>
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E68" s="40" t="s">
         <v>317</v>
@@ -11915,72 +11740,72 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E70" s="61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E71" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E72" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B73" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C73" s="43"/>
       <c r="D73" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E73" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" s="61"/>
       <c r="C74" s="43"/>
       <c r="D74" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E74" s="61"/>
     </row>
@@ -11989,27 +11814,27 @@
         <v>0</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D76" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E76" s="60" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B77" s="63" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E77" s="68" t="s">
-        <v>683</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -12035,18 +11860,18 @@
         <v>154</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B80" s="40" t="s">
         <v>318</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E80" s="40" t="s">
         <v>355</v>
@@ -12068,67 +11893,67 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D82" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E82" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D83" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E83" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D84" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E84" s="61" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B85" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E85" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B86" s="60"/>
       <c r="D86" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E86" s="61"/>
     </row>
@@ -12137,27 +11962,27 @@
         <v>0</v>
       </c>
       <c r="B88" s="60" t="s">
-        <v>688</v>
+        <v>632</v>
       </c>
       <c r="D88" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E89" s="68" t="s">
-        <v>691</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -12179,24 +12004,24 @@
         <v>154</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
       <c r="D91" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>686</v>
+        <v>630</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B92" s="40" t="s">
         <v>356</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E92" s="40" t="s">
         <v>357</v>
@@ -12218,67 +12043,67 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E94" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E95" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B96" s="61" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E96" s="61" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B97" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E97" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B98" s="61"/>
       <c r="D98" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E98" s="61"/>
     </row>
@@ -12287,15 +12112,15 @@
         <v>0</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>694</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -12311,12 +12136,12 @@
         <v>154</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B104" s="40" t="s">
         <v>354</v>
@@ -12332,39 +12157,39 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B106" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B107" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B108" s="61" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B109" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B110" s="61"/>
     </row>
@@ -12381,1568 +12206,1113 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18" style="73" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="18" style="84" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="101" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="101" customWidth="1"/>
+    <col min="3" max="3" width="18" style="102" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="101" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I2" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:5" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="F3" s="41" t="s">
-        <v>695</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I3" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I4" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>627</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="F5" s="41" t="s">
-        <v>699</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I5" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="69" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="69" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>628</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="F6" s="41" t="s">
-        <v>700</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H6" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="F7" s="41" t="s">
-        <v>701</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H7" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="F8" s="41" t="s">
-        <v>702</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H8" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I8" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="F9" s="41" t="s">
-        <v>696</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H9" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>642</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>799</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>650</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>653</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E30" s="69"/>
+    </row>
+    <row r="31" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E31" s="99"/>
+    </row>
+    <row r="32" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E32" s="99"/>
+    </row>
+    <row r="33" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E33" s="99"/>
+    </row>
+    <row r="34" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E34" s="99"/>
+    </row>
+    <row r="35" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>794</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E35" s="99"/>
+    </row>
+    <row r="36" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E36" s="99"/>
+    </row>
+    <row r="37" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E37" s="99"/>
+    </row>
+    <row r="38" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E38" s="99"/>
+    </row>
+    <row r="39" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>796</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E39" s="99"/>
+    </row>
+    <row r="40" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E40" s="99"/>
+    </row>
+    <row r="41" spans="1:5" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E41" s="69"/>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E42" s="99"/>
+    </row>
+    <row r="43" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E43" s="99"/>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E44" s="99"/>
+    </row>
+    <row r="45" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E45" s="99"/>
+    </row>
+    <row r="46" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>666</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E46" s="99"/>
+    </row>
+    <row r="47" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E47" s="99"/>
+    </row>
+    <row r="48" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E48" s="99"/>
+    </row>
+    <row r="49" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E49" s="99"/>
+    </row>
+    <row r="50" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E50" s="99"/>
+    </row>
+    <row r="51" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E51" s="99"/>
+    </row>
+    <row r="52" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E52" s="99"/>
+    </row>
+    <row r="53" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="F10" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="F11" s="41" t="s">
-        <v>703</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I11" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="F12" s="41" t="s">
-        <v>704</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I12" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="F13" s="41" t="s">
-        <v>705</v>
-      </c>
-      <c r="G13" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H13" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I13" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>635</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="F14" s="41" t="s">
-        <v>706</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40" t="s">
-        <v>636</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="F15" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I15" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="F16" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>707</v>
-      </c>
-      <c r="H16" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I16" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="F17" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>708</v>
-      </c>
-      <c r="H17" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I17" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40" t="s">
-        <v>627</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="F18" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="H18" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I18" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40" t="s">
-        <v>628</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="F19" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>710</v>
-      </c>
-      <c r="H19" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I19" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="F20" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>711</v>
-      </c>
-      <c r="H20" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I20" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="F21" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>712</v>
-      </c>
-      <c r="H21" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I21" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="F22" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>696</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I22" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="F23" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>713</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I23" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="F24" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>714</v>
-      </c>
-      <c r="H24" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I24" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="F25" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>715</v>
-      </c>
-      <c r="H25" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I25" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="F26" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>716</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I26" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40" t="s">
-        <v>635</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="F27" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>717</v>
-      </c>
-      <c r="H27" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I27" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40" t="s">
-        <v>636</v>
-      </c>
-      <c r="D28" s="40"/>
-      <c r="F28" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G28" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H28" s="86" t="s">
-        <v>736</v>
-      </c>
-      <c r="I28" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="D29" s="40"/>
-      <c r="F29" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G29" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H29" s="82" t="s">
-        <v>718</v>
-      </c>
-      <c r="I29" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="F30" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H30" s="83" t="s">
-        <v>719</v>
-      </c>
-      <c r="I30" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="F31" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G31" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H31" s="83" t="s">
-        <v>720</v>
-      </c>
-      <c r="I31" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
-        <v>639</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="F32" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H32" s="83" t="s">
-        <v>721</v>
-      </c>
-      <c r="I32" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="F33" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G33" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H33" s="80" t="s">
-        <v>725</v>
-      </c>
-      <c r="I33" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="F34" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G34" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H34" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I34" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="F35" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G35" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H35" s="83" t="s">
-        <v>358</v>
-      </c>
-      <c r="I35" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18" t="s">
+      <c r="D53" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E53" s="99"/>
+    </row>
+    <row r="54" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E54" s="99"/>
+    </row>
+    <row r="55" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>674</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E55" s="99"/>
+    </row>
+    <row r="56" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>769</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E56" s="99"/>
+    </row>
+    <row r="57" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>675</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E57" s="99"/>
+    </row>
+    <row r="58" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E58" s="99"/>
+    </row>
+    <row r="59" spans="1:5" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E59" s="69"/>
+    </row>
+    <row r="60" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C60" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="F36" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G36" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H36" s="80" t="s">
-        <v>726</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="F37" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G37" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H37" s="83" t="s">
-        <v>727</v>
-      </c>
-      <c r="I37" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="F38" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G38" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H38" s="80" t="s">
-        <v>729</v>
-      </c>
-      <c r="I38" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="F39" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G39" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H39" s="80" t="s">
-        <v>728</v>
-      </c>
-      <c r="I39" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="F40" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G40" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H40" s="83" t="s">
-        <v>730</v>
-      </c>
-      <c r="I40" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18" t="s">
-        <v>645</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="F41" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G41" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H41" s="83" t="s">
-        <v>731</v>
-      </c>
-      <c r="I41" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="F42" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G42" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H42" s="80" t="s">
-        <v>722</v>
-      </c>
-      <c r="I42" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="F43" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G43" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H43" s="80" t="s">
-        <v>723</v>
-      </c>
-      <c r="I43" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="F44" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G44" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H44" s="80" t="s">
-        <v>724</v>
-      </c>
-      <c r="I44" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18" t="s">
+      <c r="D60" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E60" s="99"/>
+    </row>
+    <row r="61" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E61" s="99"/>
+    </row>
+    <row r="62" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C62" s="40" t="s">
         <v>679</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="F45" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G45" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H45" s="83" t="s">
-        <v>724</v>
-      </c>
-      <c r="I45" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18" t="s">
-        <v>679</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="F46" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G46" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H46" s="83" t="s">
-        <v>732</v>
-      </c>
-      <c r="I46" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="F47" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G47" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H47" s="83" t="s">
-        <v>734</v>
-      </c>
-      <c r="I47" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="F48" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G48" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H48" s="83" t="s">
-        <v>733</v>
-      </c>
-      <c r="I48" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18" t="s">
-        <v>649</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="F49" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G49" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H49" s="83" t="s">
-        <v>735</v>
-      </c>
-      <c r="I49" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18" t="s">
-        <v>650</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="F50" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G50" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H50" s="83" t="s">
-        <v>736</v>
-      </c>
-      <c r="I50" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="F51" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G51" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H51" s="83" t="s">
-        <v>738</v>
-      </c>
-      <c r="I51" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="F52" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G52" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H52" s="83" t="s">
-        <v>739</v>
-      </c>
-      <c r="I52" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18" t="s">
-        <v>653</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="F53" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G53" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H53" s="83" t="s">
-        <v>740</v>
-      </c>
-      <c r="I53" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18" t="s">
-        <v>654</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="F54" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G54" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H54" s="83" t="s">
-        <v>741</v>
-      </c>
-      <c r="I54" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="D55" s="18"/>
-      <c r="F55" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G55" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H55" s="83" t="s">
-        <v>742</v>
-      </c>
-      <c r="I55" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="F56" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G56" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H56" s="83" t="s">
-        <v>743</v>
-      </c>
-      <c r="I56" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="F57" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G57" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H57" s="83" t="s">
-        <v>744</v>
-      </c>
-      <c r="I57" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="F58" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G58" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H58" s="83" t="s">
-        <v>745</v>
-      </c>
-      <c r="I58" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="F59" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G59" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H59" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="I59" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="F60" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G60" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H60" s="83" t="s">
-        <v>747</v>
-      </c>
-      <c r="I60" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="F61" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G61" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H61" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="I61" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="F62" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G62" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H62" s="83" t="s">
-        <v>749</v>
-      </c>
-      <c r="I62" s="88" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="74"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74" t="s">
-        <v>636</v>
-      </c>
-      <c r="F63" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G63" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H63" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="74"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74" t="s">
-        <v>660</v>
-      </c>
-      <c r="F64" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G64" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H64" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="74"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74" t="s">
-        <v>661</v>
-      </c>
-      <c r="F65" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G65" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H65" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74" t="s">
-        <v>662</v>
-      </c>
-      <c r="F66" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G66" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H66" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74" t="s">
-        <v>663</v>
-      </c>
-      <c r="F67" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G67" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H67" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I67" s="85" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="74"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74" t="s">
-        <v>664</v>
-      </c>
-      <c r="F68" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G68" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H68" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="74"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74" t="s">
-        <v>665</v>
-      </c>
-      <c r="F69" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G69" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H69" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74" t="s">
-        <v>666</v>
-      </c>
-      <c r="F70" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G70" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H70" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I70" s="85" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="74"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74" t="s">
-        <v>667</v>
-      </c>
-      <c r="F71" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G71" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H71" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I71" s="85" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="74"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74" t="s">
+      <c r="D62" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E62" s="99"/>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C63" s="79" t="s">
         <v>668</v>
       </c>
-      <c r="F72" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G72" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H72" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I72" s="85" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="74"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74" t="s">
-        <v>669</v>
-      </c>
-      <c r="F73" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G73" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H73" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="74"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74" t="s">
-        <v>631</v>
-      </c>
-      <c r="F74" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G74" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H74" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="74"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74" t="s">
-        <v>673</v>
-      </c>
-      <c r="F75" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="G75" s="88" t="s">
-        <v>762</v>
-      </c>
-      <c r="H75" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="I75" s="85" t="s">
-        <v>760</v>
+      <c r="D63" s="40"/>
+      <c r="E63" s="100"/>
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="E64" s="100"/>
+    </row>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="E65" s="100"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C66" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C68" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C69" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C70" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C71" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C72" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C73" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C74" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="C75" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H30" r:id="rId1"/>
-    <hyperlink ref="H31" r:id="rId2"/>
-    <hyperlink ref="H32" r:id="rId3"/>
-    <hyperlink ref="H34" r:id="rId4"/>
-    <hyperlink ref="H35" r:id="rId5"/>
-    <hyperlink ref="H37" r:id="rId6"/>
-    <hyperlink ref="H40" r:id="rId7"/>
-    <hyperlink ref="H41" r:id="rId8"/>
-    <hyperlink ref="H45" r:id="rId9"/>
-    <hyperlink ref="H46" r:id="rId10"/>
-    <hyperlink ref="H48" r:id="rId11"/>
-    <hyperlink ref="H47" r:id="rId12"/>
-    <hyperlink ref="H49" r:id="rId13"/>
-    <hyperlink ref="H50" r:id="rId14"/>
-    <hyperlink ref="H52" r:id="rId15"/>
-    <hyperlink ref="H51" r:id="rId16"/>
-    <hyperlink ref="H53" r:id="rId17"/>
-    <hyperlink ref="H54" r:id="rId18"/>
-    <hyperlink ref="H55" r:id="rId19"/>
-    <hyperlink ref="H56" r:id="rId20"/>
-    <hyperlink ref="H57" r:id="rId21"/>
-    <hyperlink ref="H58" r:id="rId22"/>
-    <hyperlink ref="H59" r:id="rId23"/>
-    <hyperlink ref="H60" r:id="rId24"/>
-    <hyperlink ref="H61" r:id="rId25"/>
-    <hyperlink ref="H62" r:id="rId26"/>
-    <hyperlink ref="I67" r:id="rId27"/>
-    <hyperlink ref="I70" r:id="rId28"/>
-    <hyperlink ref="I71" r:id="rId29"/>
-    <hyperlink ref="I72" r:id="rId30"/>
-    <hyperlink ref="I75" r:id="rId31"/>
-    <hyperlink ref="H3" r:id="rId32"/>
-    <hyperlink ref="H4:H28" r:id="rId33" display="straschenko13@mail.ru"/>
-    <hyperlink ref="H63" r:id="rId34"/>
-    <hyperlink ref="H64:H75" r:id="rId35" display="straschenko13@mail.ru"/>
-    <hyperlink ref="H2" r:id="rId36"/>
-    <hyperlink ref="H15" r:id="rId37"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C63" r:id="rId2"/>
+    <hyperlink ref="C64:C75" r:id="rId3" display="straschenko13@mail.ru"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="C15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="811">
   <si>
     <t>ID</t>
   </si>
@@ -2223,6 +2223,9 @@
     <t xml:space="preserve"> arina.</t>
   </si>
   <si>
+    <t xml:space="preserve">.arina </t>
+  </si>
+  <si>
     <t>arina..</t>
   </si>
   <si>
@@ -2242,9 +2245,6 @@
   </si>
   <si>
     <t xml:space="preserve"> strashchenko_</t>
-  </si>
-  <si>
-    <t>-strashchenko</t>
   </si>
   <si>
     <t>strashchenko''</t>
@@ -2721,6 +2721,21 @@
   <si>
     <t xml:space="preserve">Arinaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
 </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>"Arina",s,straschenko13@mail.ru,tDbb@58!</t>
   </si>
 </sst>
 </file>
@@ -7373,7 +7388,7 @@
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D58"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12206,10 +12221,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12223,16 +12238,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>32</v>
+        <v>806</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>108</v>
+        <v>807</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>33</v>
+        <v>808</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>34</v>
+        <v>809</v>
       </c>
       <c r="E1" s="69"/>
     </row>
@@ -12378,7 +12393,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="40" t="s">
+        <v>643</v>
+      </c>
       <c r="B12" s="41" t="s">
         <v>692</v>
       </c>
@@ -12391,7 +12408,7 @@
     </row>
     <row r="13" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>692</v>
@@ -12405,7 +12422,7 @@
     </row>
     <row r="14" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>692</v>
@@ -12436,7 +12453,7 @@
         <v>691</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C16" s="79" t="s">
         <v>668</v>
@@ -12445,12 +12462,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>691</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C17" s="79" t="s">
         <v>668</v>
@@ -12459,12 +12476,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>691</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C18" s="79" t="s">
         <v>668</v>
@@ -12473,7 +12490,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>691</v>
       </c>
@@ -12487,7 +12504,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>691</v>
       </c>
@@ -12501,7 +12518,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>691</v>
       </c>
@@ -12515,7 +12532,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>691</v>
       </c>
@@ -12529,12 +12546,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>691</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C23" s="79" t="s">
         <v>668</v>
@@ -12543,12 +12560,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>691</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C24" s="79" t="s">
         <v>668</v>
@@ -12557,13 +12574,11 @@
         <v>682</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>650</v>
-      </c>
+      <c r="B25" s="40"/>
       <c r="C25" s="79" t="s">
         <v>668</v>
       </c>
@@ -12571,7 +12586,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>691</v>
       </c>
@@ -12585,7 +12600,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>691</v>
       </c>
@@ -12599,7 +12614,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>691</v>
       </c>
@@ -12610,8 +12625,11 @@
       <c r="D28" s="41" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="69" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>691</v>
       </c>
@@ -12625,7 +12643,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>691</v>
       </c>
@@ -12640,7 +12658,7 @@
       </c>
       <c r="E30" s="69"/>
     </row>
-    <row r="31" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>691</v>
       </c>
@@ -12655,7 +12673,7 @@
       </c>
       <c r="E31" s="99"/>
     </row>
-    <row r="32" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>691</v>
       </c>
@@ -12752,7 +12770,7 @@
       <c r="B38" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="65" t="s">
         <v>795</v>
       </c>
       <c r="D38" s="41" t="s">
@@ -13310,9 +13328,10 @@
     <hyperlink ref="C64:C75" r:id="rId3" display="straschenko13@mail.ru"/>
     <hyperlink ref="C2" r:id="rId4"/>
     <hyperlink ref="C15" r:id="rId5"/>
+    <hyperlink ref="C38" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -4305,8 +4305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B59:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7387,8 +7387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12223,8 +12223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13133,7 +13133,7 @@
       <c r="C62" s="40" t="s">
         <v>679</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="52" t="s">
         <v>682</v>
       </c>
       <c r="E62" s="99"/>
@@ -13329,9 +13329,10 @@
     <hyperlink ref="C2" r:id="rId4"/>
     <hyperlink ref="C15" r:id="rId5"/>
     <hyperlink ref="C38" r:id="rId6"/>
+    <hyperlink ref="D62" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Web_Form_Testing.xlsx
+++ b/Web_Form_Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Требования" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="812">
   <si>
     <t>ID</t>
   </si>
@@ -2737,12 +2737,15 @@
   <si>
     <t>"Arina",s,straschenko13@mail.ru,tDbb@58!</t>
   </si>
+  <si>
+    <t>Под кнопкой "Submit" отображается сообщение "Success Hello: ARINA Strashchenko"  в голубой рамке</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2781,6 +2784,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Corbel"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3106,7 +3123,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3325,31 +3342,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3370,6 +3375,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3379,20 +3411,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3510,13 +3556,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>452440</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
@@ -3547,13 +3593,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>629331</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
@@ -4295,7 +4341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4305,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B59:B61"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,11 +4363,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -4338,7 +4384,7 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="87" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -4349,7 +4395,7 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -4358,7 +4404,7 @@
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="92"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -4367,7 +4413,7 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4376,7 +4422,7 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -4387,7 +4433,7 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -4396,7 +4442,7 @@
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -4447,10 +4493,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="57"/>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="92"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -4467,7 +4513,7 @@
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="90" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -4478,7 +4524,7 @@
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
@@ -4487,7 +4533,7 @@
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="93"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
@@ -4496,7 +4542,7 @@
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="99" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -4507,7 +4553,7 @@
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="88"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="12" t="s">
         <v>42</v>
       </c>
@@ -4516,7 +4562,7 @@
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="88"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="12" t="s">
         <v>400</v>
       </c>
@@ -4525,7 +4571,7 @@
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="88"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="12" t="s">
         <v>399</v>
       </c>
@@ -4840,10 +4886,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57"/>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="81"/>
+      <c r="C51" s="94"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -4957,10 +5003,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="83"/>
+      <c r="C62" s="92"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -5074,10 +5120,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="85"/>
+      <c r="C73" s="96"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
@@ -5202,10 +5248,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
-      <c r="B85" s="86" t="s">
+      <c r="B85" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="87"/>
+      <c r="C85" s="98"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5319,16 +5365,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5409,18 +5455,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -5533,18 +5579,18 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="97"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -5657,18 +5703,18 @@
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -5893,18 +5939,18 @@
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -6146,18 +6192,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -6342,18 +6388,18 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="97"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -6537,18 +6583,18 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -7117,18 +7163,18 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="97"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -7385,3456 +7431,3769 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="37.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="31.5703125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="110"/>
+    <col min="2" max="2" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="31.5703125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="45"/>
       <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="45"/>
       <c r="G2" s="34"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="H2" s="34"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="D4" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="46" t="s">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="100"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="46" t="s">
         <v>626</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
-    </row>
-    <row r="6" spans="1:11" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+    </row>
+    <row r="6" spans="1:12" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
+      <c r="B6" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="I6" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="J6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="65" t="str">
+      <c r="K6" s="65" t="str">
         <f>'Баг-репорты'!B4</f>
         <v>B-1</v>
       </c>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" s="43" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" s="43" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
+      <c r="B7" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="C7" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="F7" s="40"/>
       <c r="G7" s="40"/>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="J7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="K7" s="67" t="s">
         <v>403</v>
       </c>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
+      <c r="B8" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="C8" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="H8" s="39" t="s">
+      